--- a/docs/third-party-content/third-party-libraries.xlsx
+++ b/docs/third-party-content/third-party-libraries.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2762" uniqueCount="891">
   <si>
     <t xml:space="preserve">Branch/Tag</t>
   </si>
@@ -2572,6 +2572,894 @@
   </si>
   <si>
     <t>logback-classic</t>
+  </si>
+  <si>
+    <t>third-party-update</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.common; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.bpmn4tosca.converter.tobpel; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler; org.eclipse.winery.highlevelrestapi</t>
+  </si>
+  <si>
+    <t>ch.qos.logback:logback-core:1.1.1; org.fusesource.jansi:jansi:1.9; org.slf4j:slf4j-api:1.7.6; org.slf4j:slf4j-ext:1.7.6; ch.qos.cal10n:cal10n-api:0.8.1; org.slf4j:slf4j-api:1.7.6; org.slf4j:log4j-over-slf4j:1.7.6; org.slf4j:jul-to-slf4j:1.7.6; dom4j:dom4j:1.6.1; xml-apis:xml-apis:1.0.b2; hsqldb:hsqldb:1.8.0.7; com.h2database:h2:1.2.132; postgresql:postgresql:8.4-701.jdbc4; mysql:mysql-connector-java:5.1.9; javax.mail:mail:1.4; javax.activation:activation:1.1; org.codehaus.janino:janino:2.6.1; org.codehaus.janino:commons-compiler:2.6.1; org.codehaus.groovy:groovy-all:2.0.7; ch.qos.logback:logback-core:1.1.1; org.slf4j:integration:1.7.6; ant:ant-junit:1.6.5; org.apache.geronimo.specs:geronimo-jms_1.1_spec:1.0; javax.servlet:servlet-api:2.5; com.icegreen:greenmail:1.3; org.subethamail:subethasmtp:2.1.0; org.apache.mina:mina-filter-ssl:1.1.7; org.apache.mina:mina-core:1.1.7; org.apache.mina:mina-integration-jmx:1.1.7; org.apache.felix:org.apache.felix.main:2.0.2; org.apache.felix:org.apache.felix.framework:2.0.2; org.apache.felix:org.apache.felix.shell:1.4.1; org.apache.felix:org.apache.felix.shell.tui:1.4.1; org.apache.felix:org.apache.felix.bundlerepository:1.4.2; junit:junit:4.10; org.hamcrest:hamcrest-core:1.1; org.easytesting:fest-assert:1.2; org.easytesting:fest-util:1.1</t>
+  </si>
+  <si>
+    <t>EPL-1.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:jar:2.0.0-SNAPSHOT &gt; ch.qos.logback:logback-classic:jar:1.1.1</t>
+  </si>
+  <si>
+    <t>org.codehaus.janino:janino:2.6.1; org.codehaus.janino:commons-compiler:2.6.1; org.fusesource.jansi:jansi:1.9; javax.mail:mail:1.4; javax.activation:activation:1.1; org.apache.geronimo.specs:geronimo-jms_1.1_spec:1.0; org.mockito:mockito-core:1.9.0; org.hamcrest:hamcrest-core:1.1; org.objenesis:objenesis:1.0; javax.servlet:servlet-api:2.5; junit:junit:4.10; org.easytesting:fest-assert:1.2; org.easytesting:fest-util:1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:jar:2.0.0-SNAPSHOT &gt; ch.qos.logback:logback-classic:jar:1.1.1 &gt; ch.qos.logback:logback-core:jar:1.1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.model.tosca; org.eclipse.winery.model.tosca.yaml; org.eclipse.winery.common; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.bpmn4tosca.converter.tobpel; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>junit:junit:4.12</t>
+  </si>
+  <si>
+    <t>Apache-2.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.bpmn4tosca:jar:2.0.0-SNAPSHOT &gt; com.fasterxml.jackson.core:jackson-annotations:jar:2.8.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.bpmn4tosca.converter.tobpel; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; com.fasterxml.jackson.core:jackson-core:jar:2.8.6</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-annotations:2.8.0; com.fasterxml.jackson.core:jackson-core:2.8.6; junit:junit:4.12; org.powermock:powermock-module-junit4:1.6.5; org.powermock:powermock-module-junit4-common:1.6.5; org.powermock:powermock-core:1.6.5; org.javassist:javassist:3.20.0-GA; org.powermock:powermock-reflect:1.6.5; org.powermock:powermock-api-mockito:1.6.5; org.mockito:mockito-core:1.10.19; org.objenesis:objenesis:2.1; org.hamcrest:hamcrest-core:1.3; org.powermock:powermock-api-mockito-common:1.6.5; org.powermock:powermock-api-support:1.6.5; javax.measure:jsr-275:0.9.1; com.google.jimfs:jimfs:1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; com.fasterxml.jackson.core:jackson-databind:jar:2.8.6</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-core:2.8.9; com.fasterxml.jackson.core:jackson-databind:2.8.9; org.yaml:snakeyaml:1.17; com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.ops4j.pax.exam:pax-exam-container-native:4.3.0; org.ops4j.pax.exam:pax-exam:4.3.0; org.ops4j.base:ops4j-base-store:1.5.0; org.ops4j.base:ops4j-base-io:1.5.0; org.ops4j.base:ops4j-base-util-property:1.5.0; org.ops4j.pax.exam:pax-exam-spi:4.3.0; org.ops4j.base:ops4j-base-spi:1.5.0; org.ops4j.pax.tinybundles:tinybundles:2.1.0; biz.aQute.bnd:bndlib:2.3.0; org.osgi:org.osgi.core:4.3.1; org.ops4j.pax.swissbox:pax-swissbox-core:1.8.0; org.ops4j.pax.swissbox:pax-swissbox-lifecycle:1.8.0; org.ops4j.pax.swissbox:pax-swissbox-tracker:1.8.0; org.ops4j.base:ops4j-base-lang:1.5.0; org.ops4j.base:ops4j-base-net:1.5.0; org.ops4j.base:ops4j-base-monitors:1.5.0; org.ops4j.pax.url:pax-url-link:2.2.0; org.ops4j.pax.url:pax-url-classpath:2.2.0; org.ops4j.pax.exam:pax-exam-junit4:4.3.0; org.ops4j.pax.exam:pax-exam-link-mvn:4.3.0; org.ops4j.pax.url:pax-url-aether:2.2.0; org.apache.felix:org.apache.felix.framework:4.0.3; org.slf4j:slf4j-log4j12:1.6.6; org.slf4j:slf4j-api:1.6.6; log4j:log4j:1.2.17</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-core:jar:1.5.16 &gt; com.fasterxml.jackson.dataformat:jackson-dataformat-yaml:jar:2.8.9</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-core:2.7.7; com.fasterxml.jackson.core:jackson-databind:2.7.7; com.fasterxml.jackson.core:jackson-annotations:2.7.0; javax.ws.rs:jsr311-api:1.1.1; org.eclipse.jetty:jetty-server:8.1.10.v20130312; org.eclipse.jetty:jetty-servlet:8.1.10.v20130312; com.sun.jersey:jersey-core:1.17.1; com.sun.jersey:jersey-server:1.17.1; asm:asm:3.1; com.sun.jersey:jersey-servlet:1.17.1; junit:junit:4.12</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:jar:2.7.7 &gt; com.fasterxml.jackson.jaxrs:jackson-jaxrs-base:jar:2.7.7</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.jaxrs:jackson-jaxrs-base:2.7.7; com.fasterxml.jackson.core:jackson-core:2.7.7; com.fasterxml.jackson.core:jackson-databind:2.7.7; com.fasterxml.jackson.core:jackson-annotations:2.7.0; com.fasterxml.jackson.module:jackson-module-jaxb-annotations:2.7.7; org.jboss.resteasy:resteasy-jackson2-provider:3.0.6.Final; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:2.2.1; javax.ws.rs:jsr311-api:1.1.1; org.eclipse.jetty:jetty-server:8.1.10.v20130312; org.eclipse.jetty:jetty-servlet:8.1.10.v20130312; com.sun.jersey:jersey-core:1.17.1; com.sun.jersey:jersey-server:1.17.1; asm:asm:3.1; com.sun.jersey:jersey-servlet:1.17.1; junit:junit:4.12</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:jar:2.7.7</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-core:2.7.7; com.fasterxml.jackson.core:jackson-annotations:2.7.0; com.fasterxml.jackson.core:jackson-databind:2.7.7; javax.xml.bind:jaxb-api:2.2; javax.xml.stream:stax-api:1.0-2; javax.activation:activation:1.1; javax.ws.rs:jsr311-api:1.1.1; junit:junit:4.12</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:jar:2.7.7 &gt; com.fasterxml.jackson.module:jackson-module-jaxb-annotations:jar:2.7.7</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.rest</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.google.guava:guava:jar:23.0 &gt; com.google.code.findbugs:jsr305:jar:1.3.9</t>
+  </si>
+  <si>
+    <t>junit:junit-dep:4.10; org.hamcrest:hamcrest-core:1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.google.guava:guava:jar:23.0 &gt; com.google.errorprone:error_prone_annotations:jar:2.0.18</t>
+  </si>
+  <si>
+    <t>com.google.code.findbugs:jsr305:1.3.9; com.google.errorprone:error_prone_annotations:2.0.18; com.google.j2objc:j2objc-annotations:1.1; org.codehaus.mojo:animal-sniffer-annotations:1.14</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.google.guava:guava:jar:23.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.google.guava:guava:jar:23.0 &gt; com.google.j2objc:j2objc-annotations:jar:1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>com.jcabi:jcabi-log:0.15; log4j:log4j:1.2.17; org.slf4j:slf4j-api:1.7.5; org.aspectj:aspectjrt:1.8.4; javax.validation:validation-api:1.1.0.Final; org.hibernate:hibernate-validator:5.0.0.Final; org.jboss.logging:jboss-logging:3.1.1.GA; com.fasterxml:classmate:0.8.0; org.glassfish.web:javax.el:2.2.4; javax.el:javax.el-api:3.0.1-b04</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; com.jcabi:jcabi-log:jar:0.17.1 &gt; com.jcabi:jcabi-aspects:jar:0.22</t>
+  </si>
+  <si>
+    <t>org.projectlombok:lombok:1.16.6; log4j:log4j:1.2.17; org.slf4j:slf4j-api:1.7.5; com.jcabi:jcabi-aspects:0.22; org.aspectj:aspectjrt:1.8.7; javax.validation:validation-api:1.1.0.Final; org.apache.commons:commons-lang3:3.4</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; com.jcabi:jcabi-log:jar:0.17.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>junit:junit:4.8.2; com.sun.net.httpserver:http:20070405; org.osgi:osgi_R4_core:1.0; com.sun.jersey:jersey-core:1.19.3; javax.ws.rs:jsr311-api:1.1.1</t>
+  </si>
+  <si>
+    <t>CDDL-1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.client:jar:2.0.0-SNAPSHOT &gt; com.sun.jersey:jersey-client:jar:1.19.3</t>
+  </si>
+  <si>
+    <t>javax.ws.rs:jsr311-api:1.1.1; javax.mail:mail:1.4; javax.activation:activation:1.1; javax.xml.bind:jaxb-api:2.1; javax.xml.stream:stax-api:1.0-2; org.osgi:org.osgi.core:4.2.0; junit:junit:4.8.2</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.client:jar:2.0.0-SNAPSHOT &gt; com.sun.jersey:jersey-core:jar:1.19.3</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>javax.mail:mail:1.4; javax.activation:activation:1.1; javax.xml.bind:jaxb-api:2.1; javax.xml.stream:stax-api:1.0-2; javax.annotation:jsr250-api:1.0; org.osgi:osgi_R4_core:1.0; junit:junit:4.8.2; commons-io:commons-io:1.3.2; com.sun.jersey:jersey-core:1.19.3; javax.ws.rs:jsr311-api:1.1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; com.sun.jersey:jersey-server:jar:1.19.3</t>
+  </si>
+  <si>
+    <t>javax.servlet:javax.servlet-api:3.0.1; javax.servlet:jsp-api:2.0; javax.servlet:servlet-api:2.4; org.glassfish:javax.ejb:3.1; org.glassfish:javax.transaction:3.1; org.glassfish:javax.annotation:3.1; org.jboss.weld:weld-osgi-bundle:1.1.4.Final; javax.enterprise:cdi-api:1.0-SP4; org.jboss.spec.javax.interceptor:jboss-interceptors-api_1.1_spec:1.0.0.Beta1; javax.annotation:jsr250-api:1.0; org.jboss.weld:weld-api:1.1.Final; org.jboss.weld:weld-core:1.1.4.Final; org.jboss.weld:weld-spi:1.1.Final; org.javassist:javassist:3.14.0-GA; com.google.guava:guava:r06; javax.inject:javax.inject:1; org.jboss.interceptor:jboss-interceptor-spi:2.0.0.CR1; org.jboss.interceptor:jboss-interceptor-core:2.0.0.CR1; org.slf4j:slf4j-api:1.5.6; javassist:javassist:3.12.0.GA; org.jboss.weld:weld-build-config:1.1.4.Final; javax.persistence:persistence-api:1.0; ant:ant:1.6.5; org.osgi:osgi_R4_core:1.0; junit:junit:4.8.2; commons-io:commons-io:1.3.2; com.sun.jersey:jersey-server:1.19.3; com.sun.jersey:jersey-core:1.19.3; javax.ws.rs:jsr311-api:1.1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; com.sun.jersey:jersey-servlet:jar:1.19.3</t>
+  </si>
+  <si>
+    <t>org.jvnet.mimepull:mimepull:1.9.3; com.sun.xml.bind:jaxb-impl:2.2.3-1; javax.xml.bind:jaxb-api:2.2.2; javax.xml.stream:stax-api:1.0-2; javax.activation:activation:1.1; junit:junit:4.8.2; com.sun.jersey:jersey-core:1.19.3; javax.ws.rs:jsr311-api:1.1.1; com.sun.jersey:jersey-grizzly2:1.19.3; org.glassfish.grizzly:grizzly-http:2.2.16; org.glassfish.grizzly:grizzly-framework:2.2.16; org.glassfish.grizzly:grizzly-http-server:2.2.16; org.glassfish.grizzly:grizzly-rcm:2.2.16; com.sun.jersey:jersey-server:1.19.3; com.sun.jersey:jersey-client:1.19.3; com.sun.jersey.contribs:jersey-apache-client:1.19.3; commons-httpclient:commons-httpclient:3.1; commons-logging:commons-logging:1.0.4; commons-codec:commons-codec:1.2</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; com.sun.jersey.contribs:jersey-multipart:jar:1.19.3</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.yaml.converter; org.eclipse.winery.repository.rest</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT &gt; com.sun.xml.bind:jaxb-core:jar:2.2.11</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT &gt; com.sun.xml.bind:jaxb-impl:jar:2.2.11</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.cli</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.sun.xml.bind:jaxb-impl:jar:2.2.5</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.rest</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.configuration:jar:2.0.0-SNAPSHOT &gt; commons-beanutils:commons-beanutils:jar:1.9.3</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.cli:jar:2.0.0-SNAPSHOT &gt; commons-cli:commons-cli:jar:1.4</t>
+  </si>
+  <si>
+    <t>junit:junit:3.8.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.highlevelrestapi:jar:2.0.0-SNAPSHOT &gt; commons-codec:commons-codec:jar:1.3</t>
+  </si>
+  <si>
+    <t>junit:junit:4.11; org.hamcrest:hamcrest-core:1.3</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.apache.httpcomponents:httpclient:jar:4.5.2 &gt; commons-codec:commons-codec:jar:1.9</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.bpmn4tosca.converter.tobpel:jar:2.0.0-SNAPSHOT &gt; org.apache.velocity:velocity:jar:1.7 &gt; commons-collections:commons-collections:jar:3.2.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; commons-configuration:commons-configuration:jar:1.9</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.highlevelrestapi:jar:2.0.0-SNAPSHOT &gt; commons-httpclient:commons-httpclient:jar:3.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; commons-io:commons-io:jar:2.4</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.bpmn4tosca.converter.tobpel:jar:2.0.0-SNAPSHOT &gt; org.apache.velocity:velocity:jar:1.7 &gt; commons-lang:commons-lang:jar:2.4</t>
+  </si>
+  <si>
+    <t>junit:junit:3.8.1; log4j:log4j:1.2.17; logkit:logkit:1.0.1; avalon-framework:avalon-framework:4.1.5; javax.servlet:servlet-api:2.3</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.apache.httpcomponents:httpclient:jar:4.5.2 &gt; commons-logging:commons-logging:jar:1.2</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.model.tosca.yaml; org.eclipse.winery.common; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>EPL-2.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.tosca:jar:2.0.0-SNAPSHOT &gt; io.github.adr:e-adr:jar:1.0.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-core:jar:1.5.16 &gt; io.swagger:swagger-models:jar:1.5.16 &gt; io.swagger:swagger-annotations:jar:1.5.16</t>
+  </si>
+  <si>
+    <t>org.apache.commons:commons-lang3:3.2.1; org.slf4j:slf4j-api:1.7.22; com.fasterxml.jackson.core:jackson-annotations:2.8.9; com.fasterxml.jackson.core:jackson-databind:2.8.9; com.fasterxml.jackson.core:jackson-core:2.8.9; com.fasterxml.jackson.dataformat:jackson-dataformat-yaml:2.8.9; org.yaml:snakeyaml:1.17; io.swagger:swagger-models:1.5.16; io.swagger:swagger-annotations:1.5.16; joda-time:joda-time:2.9.1; com.google.guava:guava:20.0; org.joda:joda-convert:1.8.1; ch.qos.logback:logback-classic:1.2.3; org.slf4j:slf4j-ext:1.7.22; ch.qos.cal10n:cal10n-api:0.8.1; ch.qos.logback:logback-core:1.2.3; javax.validation:validation-api:1.1.0.Final; org.immutables:value:2.4.4; org.testng:testng:6.10; com.beust:jcommander:1.48; commons-io:commons-io:2.5; javax.ws.rs:jsr311-api:1.1.1; org.glassfish.hk2.external:javax.inject:2.2.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-core:jar:1.5.16</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-databind:2.8.9; com.fasterxml.jackson.core:jackson-core:2.8.9; io.swagger:swagger-core:1.5.16; org.apache.commons:commons-lang3:3.2.1; org.slf4j:slf4j-api:1.7.22; com.fasterxml.jackson.core:jackson-annotations:2.8.9; com.fasterxml.jackson.dataformat:jackson-dataformat-yaml:2.8.9; org.yaml:snakeyaml:1.17; io.swagger:swagger-models:1.5.16; io.swagger:swagger-annotations:1.5.16; javax.validation:validation-api:1.1.0.Final; io.swagger:swagger-core:1.5.16; javax.servlet:servlet-api:2.5; javax.ws.rs:jsr311-api:1.1.1; org.reflections:reflections:0.9.11; org.javassist:javassist:3.21.0-GA; com.google.guava:guava:20.0; ch.qos.logback:logback-classic:1.2.3; org.slf4j:slf4j-ext:1.7.22; ch.qos.cal10n:cal10n-api:0.8.1; ch.qos.logback:logback-core:1.2.3; org.testng:testng:6.10; com.beust:jcommander:1.48; com.jayway.restassured:rest-assured:2.8.0; org.codehaus.groovy:groovy:2.4.4; org.codehaus.groovy:groovy-xml:2.4.4; org.apache.httpcomponents:httpclient:4.5.1; org.apache.httpcomponents:httpcore:4.4.3; commons-logging:commons-logging:1.2; commons-codec:commons-codec:1.9; org.apache.httpcomponents:httpmime:4.5.1; org.hamcrest:hamcrest-core:1.3; org.hamcrest:hamcrest-library:1.3; org.ccil.cowan.tagsoup:tagsoup:1.2.1; com.jayway.restassured:json-path:2.8.0; org.codehaus.groovy:groovy-json:2.4.4; com.jayway.restassured:rest-assured-common:2.8.0; com.jayway.restassured:xml-path:2.8.0; org.mockito:mockito-all:1.9.5; commons-io:commons-io:2.5</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16</t>
+  </si>
+  <si>
+    <t>io.swagger:swagger-jaxrs:1.5.16; com.fasterxml.jackson.core:jackson-databind:2.8.9; com.fasterxml.jackson.core:jackson-core:2.8.9; io.swagger:swagger-core:1.5.16; org.apache.commons:commons-lang3:3.2.1; org.slf4j:slf4j-api:1.7.22; com.fasterxml.jackson.core:jackson-annotations:2.8.9; com.fasterxml.jackson.dataformat:jackson-dataformat-yaml:2.8.9; org.yaml:snakeyaml:1.17; io.swagger:swagger-models:1.5.16; io.swagger:swagger-annotations:1.5.16; javax.validation:validation-api:1.1.0.Final; javax.ws.rs:jsr311-api:1.1.1; org.reflections:reflections:0.9.11; org.javassist:javassist:3.21.0-GA; com.google.guava:guava:20.0; com.sun.jersey.contribs:jersey-multipart:1.13; org.jvnet:mimepull:1.6; com.sun.jersey:jersey-core:1.13; org.testng:testng:6.10; com.beust:jcommander:1.48</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-annotations:2.8.9; org.slf4j:slf4j-api:1.7.22; io.swagger:swagger-annotations:1.5.16; org.testng:testng:6.10; com.beust:jcommander:1.48; com.openpojo:openpojo:0.8.0; org.powermock:powermock-module-testng:1.6.4; org.powermock:powermock-core:1.6.4; org.powermock:powermock-reflect:1.6.4; org.javassist:javassist:3.21.0-GA; org.powermock:powermock-module-testng-common:1.6.4; org.powermock:powermock-api-mockito:1.6.4; org.powermock:powermock-api-support:1.6.4; org.mockito:mockito-core:1.10.19; org.hamcrest:hamcrest-core:1.1; org.objenesis:objenesis:2.1; asm:asm:3.3.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-core:jar:1.5.16 &gt; io.swagger:swagger-models:jar:1.5.16</t>
+  </si>
+  <si>
+    <t>GPL-2.0-with-classpath-exception</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; javax.servlet:javax.servlet-api:jar:3.1.0</t>
+  </si>
+  <si>
+    <t>org.testng:testng:6.8; junit:junit:4.10; org.hamcrest:hamcrest-core:1.1; org.beanshell:bsh:2.0b4; com.beust:jcommander:1.27; org.yaml:snakeyaml:1.6</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; com.jcabi:jcabi-log:jar:0.17.1 &gt; com.jcabi:jcabi-aspects:jar:0.22 &gt; javax.validation:validation-api:jar:1.1.0.Final</t>
+  </si>
+  <si>
+    <t>javax.websocket:javax.websocket-client-api:1.1</t>
+  </si>
+  <si>
+    <t>CDDL-1.1 AND GPL-2.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; javax.websocket:javax.websocket-api:jar:1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.client:jar:2.0.0-SNAPSHOT &gt; com.sun.jersey:jersey-core:jar:1.19.3 &gt; javax.ws.rs:jsr311-api:jar:1.1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; jstl:jstl:jar:1.2</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.collections:eclipse-collections:jar:8.2.0 &gt; net.jcip:jcip-annotations:jar:1.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest</t>
+  </si>
+  <si>
+    <t>junit:junit:4.11; org.hamcrest:hamcrest-core:1.3; org.tukaani:xz:1.4</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.apache.commons:commons-compress:jar:1.6</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.configuration:jar:2.0.0-SNAPSHOT &gt; org.apache.commons:commons-configuration2:jar:2.1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; org.apache.commons:commons-lang3:jar:3.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.apache.commons:commons-lang3:jar:3.6</t>
+  </si>
+  <si>
+    <t>org.apache.httpcomponents:httpcore:4.4.4; commons-logging:commons-logging:1.2; commons-codec:commons-codec:1.9; junit:junit:4.11; org.hamcrest:hamcrest-core:1.3; org.mockito:mockito-core:1.8.5; org.objenesis:objenesis:1.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.apache.httpcomponents:httpclient:jar:4.5.2</t>
+  </si>
+  <si>
+    <t>junit:junit:4.11; org.hamcrest:hamcrest-core:1.3; org.mockito:mockito-core:1.8.5; org.objenesis:objenesis:1.0; commons-logging:commons-logging:1.2</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.apache.httpcomponents:httpclient:jar:4.5.2 &gt; org.apache.httpcomponents:httpcore:jar:4.4.4</t>
+  </si>
+  <si>
+    <t>org.osgi:org.osgi.core:4.0.0; org.osgi:org.osgi.compendium:4.0.0; biz.aQute:bndlib:1.43.0; junit:junit:4.10; org.hamcrest:hamcrest-core:1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.apache.tika:tika-core:jar:1.3</t>
+  </si>
+  <si>
+    <t>commons-collections:commons-collections:3.2.1; commons-lang:commons-lang:2.4; oro:oro:2.0.8; jdom:jdom:1.0; commons-logging:commons-logging:1.1; log4j:log4j:1.2.12; javax.servlet:servlet-api:2.3; logkit:logkit:2.0; ant:ant:1.6; werken-xpath:werken-xpath:0.9.4; junit:junit:3.8.1; hsqldb:hsqldb:1.7.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.bpmn4tosca.converter.tobpel:jar:2.0.0-SNAPSHOT &gt; org.apache.velocity:velocity:jar:1.7</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; com.jcabi:jcabi-log:jar:0.17.1 &gt; com.jcabi:jcabi-aspects:jar:0.22 &gt; org.aspectj:aspectjrt:jar:1.8.4</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.google.guava:guava:jar:23.0 &gt; org.codehaus.mojo:animal-sniffer-annotations:jar:1.14</t>
+  </si>
+  <si>
+    <t>org.eclipse.collections:eclipse-collections-api:8.2.0; net.jcip:jcip-annotations:1.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.collections:eclipse-collections:jar:8.2.0</t>
+  </si>
+  <si>
+    <t>net.jcip:jcip-annotations:1.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.collections:eclipse-collections:jar:8.2.0 &gt; org.eclipse.collections:eclipse-collections-api:jar:8.2.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.model.tosca.yaml; org.eclipse.winery.common; org.eclipse.winery.repository.configuration; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.tosca:jar:2.0.0-SNAPSHOT &gt; org.eclipse.jdt:org.eclipse.jdt.annotation:jar:2.1.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.jetty:jetty-servlet:jar:9.4.2.v20170220</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.jetty:jetty-servlets:jar:9.4.2.v20170220</t>
+  </si>
+  <si>
+    <t>junit:junit:4.12; org.hamcrest:hamcrest-library:1.3; org.hamcrest:hamcrest-core:1.3</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.jetty.toolchain:jetty-test-helper:jar:4.2</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.jgit:org.eclipse.jgit:jar:4.8.0.201706111038-r</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.jgit:org.eclipse.jgit:jar:4.9.0.201710071750-r</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:jar:2.0.0-SNAPSHOT &gt; org.eclipse.virgo.util:org.eclipse.virgo.util.parser.manifest:jar:3.5.0.RELEASE</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>ch.qos.logback:logback-classic:1.1.1; ch.qos.logback:logback-core:1.1.1; org.slf4j:slf4j-api:1.7.6; com.jcabi:jcabi-log:0.17.1; com.jcabi:jcabi-aspects:0.22; org.aspectj:aspectjrt:1.8.4; javax.validation:validation-api:1.1.0.Final; com.fasterxml.jackson.core:jackson-core:2.8.6; com.fasterxml.jackson.core:jackson-annotations:2.8.0; com.fasterxml.jackson.core:jackson-databind:2.8.6; org.eclipse.winery:org.eclipse.winery.model.tosca:2.0.0-SNAPSHOT; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; io.github.adr:e-adr:1.0.0; org.slf4j:jcl-over-slf4j:1.7.6; jstl:jstl:1.2; commons-io:commons-io:2.4; org.apache.commons:commons-lang3:3.1; junit:junit:4.11; org.hamcrest:hamcrest-core:1.3</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:2.0.0-SNAPSHOT; com.jcabi:jcabi-log:0.17.1; com.jcabi:jcabi-aspects:0.22; org.aspectj:aspectjrt:1.8.4; javax.validation:validation-api:1.1.0.Final; com.fasterxml.jackson.core:jackson-core:2.8.6; com.fasterxml.jackson.core:jackson-annotations:2.8.0; com.fasterxml.jackson.core:jackson-databind:2.8.6; jstl:jstl:1.2; org.apache.commons:commons-lang3:3.1; ch.qos.logback:logback-classic:1.1.1; ch.qos.logback:logback-core:1.1.1; org.slf4j:slf4j-api:1.7.6; org.slf4j:jcl-over-slf4j:1.7.6; org.eclipse.winery:org.eclipse.winery.model.tosca:2.0.0-SNAPSHOT; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; io.github.adr:e-adr:1.0.0; org.apache.commons:commons-compress:1.6; org.tukaani:xz:1.3; commons-io:commons-io:2.4; junit:junit:4.11; org.hamcrest:hamcrest-core:1.3</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.generators.ia:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.jgrapht:jgrapht-core:0.9.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.bpmn4tosca.converter.tobpel:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.model.bpmn4tosca:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>ch.qos.logback:logback-classic:1.1.1; ch.qos.logback:logback-core:1.1.1; org.slf4j:slf4j-api:1.7.6; org.eclipse.virgo.util:org.eclipse.virgo.util.parser.manifest:3.5.0.RELEASE</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>https://eclipse.github.io/winery/org.eclipse.winery.model.selfservice</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.model.selfservice:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; io.github.adr:e-adr:1.0.0; org.slf4j:slf4j-api:1.7.2</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.model.tosca:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; io.github.adr:e-adr:1.0.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.model.tosca.yaml:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.rest</t>
+  </si>
+  <si>
+    <t>ch.qos.logback:logback-classic:1.1.1; ch.qos.logback:logback-core:1.1.1; org.slf4j:slf4j-api:1.7.6; com.fasterxml.jackson.core:jackson-databind:2.8.6; com.fasterxml.jackson.core:jackson-core:2.8.6; com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.apache.commons:commons-compress:1.6; org.tukaani:xz:1.3; commons-io:commons-io:2.4; xerces:xercesImpl:2.9.1; xml-apis:xml-apis:1.3.04; org.apache.tika:tika-core:1.3; org.apache.commons:commons-lang3:3.1; org.eclipse.winery:org.eclipse.winery.model.selfservice:2.0.0-SNAPSHOT; org.slf4j:jcl-over-slf4j:1.7.6; org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:2.0.0-SNAPSHOT; org.eclipse.virgo.util:org.eclipse.virgo.util.parser.manifest:3.5.0.RELEASE; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:2.7.7; com.fasterxml.jackson.jaxrs:jackson-jaxrs-base:2.7.7; com.fasterxml.jackson.module:jackson-module-jaxb-annotations:2.7.7; org.slf4j:slf4j-ext:1.7.2; org.eclipse.winery:org.eclipse.winery.common:2.0.0-SNAPSHOT; com.jcabi:jcabi-log:0.17.1; com.jcabi:jcabi-aspects:0.22; org.aspectj:aspectjrt:1.8.4; javax.validation:validation-api:1.1.0.Final; org.eclipse.winery:org.eclipse.winery.model.tosca:2.0.0-SNAPSHOT; io.github.adr:e-adr:1.0.0; jstl:jstl:1.2; commons-configuration:commons-configuration:1.9; org.eclipse.jgit:org.eclipse.jgit:4.8.0.201706111038-r; com.sun.xml.bind:jaxb-impl:2.2.5; junit:junit:4.11; org.hamcrest:hamcrest-core:1.3; com.google.guava:guava:23.0; com.google.code.findbugs:jsr305:1.3.9; com.google.errorprone:error_prone_annotations:2.0.18; com.google.j2objc:j2objc-annotations:1.1; org.codehaus.mojo:animal-sniffer-annotations:1.14; org.xmlunit:xmlunit-core:2.3.0; org.xmlunit:xmlunit-matchers:2.3.0; org.skyscreamer:jsonassert:1.4.0; com.vaadin.external.google:android-json:0.0.20131108.vaadin1; org.eclipse.winery:org.eclipse.winery.repository.configuration:2.0.0-SNAPSHOT; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; org.apache.commons:commons-configuration2:2.1.1; commons-beanutils:commons-beanutils:1.9.3; org.eclipse.collections:eclipse-collections:8.2.0; org.eclipse.collections:eclipse-collections-api:8.2.0; net.jcip:jcip-annotations:1.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>junit:junit:4.11</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.repository.client:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>org.slf4j:slf4j-api:1.7.13; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; org.apache.commons:commons-configuration2:2.1.1; commons-beanutils:commons-beanutils:1.9.3</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.repository.configuration:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.repository.rest</t>
+  </si>
+  <si>
+    <t>org.yaml:snakeyaml:1.17; junit:junit:4.11; org.hamcrest:hamcrest-core:1.3; org.eclipse.winery:org.eclipse.winery.model.tosca:2.0.0-SNAPSHOT; com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; io.github.adr:e-adr:1.0.0; org.slf4j:slf4j-api:1.7.2; org.eclipse.winery:org.eclipse.winery.model.tosca.yaml:2.0.0-SNAPSHOT; com.sun.xml.bind:jaxb-impl:2.2.11; com.sun.xml.bind:jaxb-core:2.2.11; org.eclipse.winery:org.eclipse.winery.repository:2.0.0-SNAPSHOT; ch.qos.logback:logback-classic:1.1.1; ch.qos.logback:logback-core:1.1.1; com.fasterxml.jackson.core:jackson-databind:2.8.6; com.fasterxml.jackson.core:jackson-core:2.8.6; org.apache.commons:commons-compress:1.6; org.tukaani:xz:1.3; commons-io:commons-io:2.4; xerces:xercesImpl:2.9.1; xml-apis:xml-apis:1.3.04; org.apache.tika:tika-core:1.3; org.apache.commons:commons-lang3:3.1; org.eclipse.winery:org.eclipse.winery.model.selfservice:2.0.0-SNAPSHOT; org.slf4j:jcl-over-slf4j:1.7.6; org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:2.0.0-SNAPSHOT; org.eclipse.virgo.util:org.eclipse.virgo.util.parser.manifest:3.5.0.RELEASE; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:2.7.7; com.fasterxml.jackson.jaxrs:jackson-jaxrs-base:2.7.7; com.fasterxml.jackson.module:jackson-module-jaxb-annotations:2.7.7; org.slf4j:slf4j-ext:1.7.2; org.eclipse.winery:org.eclipse.winery.common:2.0.0-SNAPSHOT; com.jcabi:jcabi-log:0.17.1; com.jcabi:jcabi-aspects:0.22; org.aspectj:aspectjrt:1.8.4; javax.validation:validation-api:1.1.0.Final; jstl:jstl:1.2; commons-configuration:commons-configuration:1.9; org.eclipse.jgit:org.eclipse.jgit:4.8.0.201706111038-r; com.google.guava:guava:23.0; com.google.code.findbugs:jsr305:1.3.9; com.google.errorprone:error_prone_annotations:2.0.18; com.google.j2objc:j2objc-annotations:1.1; org.codehaus.mojo:animal-sniffer-annotations:1.14; org.eclipse.winery:org.eclipse.winery.repository.configuration:2.0.0-SNAPSHOT; org.apache.commons:commons-configuration2:2.1.1; commons-beanutils:commons-beanutils:1.9.3; org.eclipse.collections:eclipse-collections:8.2.0; org.eclipse.collections:eclipse-collections-api:8.2.0; net.jcip:jcip-annotations:1.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.yaml.converter:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>org.yaml:snakeyaml:1.17; junit:junit:4.11; org.hamcrest:hamcrest-core:1.3; org.eclipse.winery:org.eclipse.winery.model.tosca:2.0.0-SNAPSHOT; com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; io.github.adr:e-adr:1.0.0; org.slf4j:slf4j-api:1.7.2; org.eclipse.winery:org.eclipse.winery.model.tosca.yaml:2.0.0-SNAPSHOT; org.eclipse.winery:org.eclipse.winery.yaml.common:2.0.0-SNAPSHOT; com.sun.xml.bind:jaxb-impl:2.2.11; com.sun.xml.bind:jaxb-core:2.2.11; org.eclipse.winery:org.eclipse.winery.repository:2.0.0-SNAPSHOT; org.apache.commons:commons-compress:1.6; org.tukaani:xz:1.3; xerces:xercesImpl:2.9.1; xml-apis:xml-apis:1.3.04; org.apache.tika:tika-core:1.3; org.eclipse.winery:org.eclipse.winery.model.selfservice:2.0.0-SNAPSHOT; org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:2.0.0-SNAPSHOT; org.eclipse.virgo.util:org.eclipse.virgo.util.parser.manifest:3.5.0.RELEASE; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:2.7.7; com.fasterxml.jackson.jaxrs:jackson-jaxrs-base:2.7.7; com.fasterxml.jackson.module:jackson-module-jaxb-annotations:2.7.7; org.slf4j:slf4j-ext:1.7.2; commons-configuration:commons-configuration:1.9; org.eclipse.jgit:org.eclipse.jgit:4.8.0.201706111038-r; com.google.guava:guava:23.0; com.google.code.findbugs:jsr305:1.3.9; com.google.errorprone:error_prone_annotations:2.0.18; com.google.j2objc:j2objc-annotations:1.1; org.codehaus.mojo:animal-sniffer-annotations:1.14; org.eclipse.winery:org.eclipse.winery.repository.configuration:2.0.0-SNAPSHOT; org.apache.commons:commons-configuration2:2.1.1; commons-beanutils:commons-beanutils:1.9.3; org.eclipse.collections:eclipse-collections:8.2.0; org.eclipse.collections:eclipse-collections-api:8.2.0; net.jcip:jcip-annotations:1.0; org.eclipse.winery:org.eclipse.winery.common:2.0.0-SNAPSHOT; ch.qos.logback:logback-classic:1.1.1; ch.qos.logback:logback-core:1.1.1; com.jcabi:jcabi-log:0.17.1; com.jcabi:jcabi-aspects:0.22; org.aspectj:aspectjrt:1.8.4; javax.validation:validation-api:1.1.0.Final; com.fasterxml.jackson.core:jackson-core:2.8.6; com.fasterxml.jackson.core:jackson-databind:2.8.6; org.slf4j:jcl-over-slf4j:1.7.6; jstl:jstl:1.2; commons-io:commons-io:2.4; org.apache.commons:commons-lang3:3.1; org.xmlunit:xmlunit-core:2.3.0; org.xmlunit:xmlunit-matchers:2.3.0; org.skyscreamer:jsonassert:1.4.0; com.vaadin.external.google:android-json:0.0.20131108.vaadin1; io.rest-assured:rest-assured:3.0.2; org.codehaus.groovy:groovy:2.4.6; org.codehaus.groovy:groovy-xml:2.4.6; org.apache.httpcomponents:httpclient:4.5.2; org.apache.httpcomponents:httpcore:4.4.4; commons-logging:commons-logging:1.2; commons-codec:commons-codec:1.9; org.apache.httpcomponents:httpmime:4.5.1; org.hamcrest:hamcrest-library:1.3; org.ccil.cowan.tagsoup:tagsoup:1.2.1; io.rest-assured:json-path:3.0.2; org.codehaus.groovy:groovy-json:2.4.6; io.rest-assured:rest-assured-common:3.0.2; io.rest-assured:xml-path:3.0.2; org.eclipse.jetty:jetty-servlet:9.4.2.v20170220</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.yaml.converter:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; junit:junit:jar:4.11 &gt; org.hamcrest:hamcrest-core:jar:1.3</t>
+  </si>
+  <si>
+    <t>org.hamcrest:hamcrest-core:1.3</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.jetty.toolchain:jetty-test-helper:jar:4.2 &gt; org.hamcrest:hamcrest-library:jar:1.3</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16 &gt; org.reflections:reflections:jar:0.9.11 &gt; org.javassist:javassist:jar:3.21.0-GA</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.bpmn4tosca.converter.tobpel</t>
+  </si>
+  <si>
+    <t>junit:junit:4.10; org.hamcrest:hamcrest-core:1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.bpmn4tosca:jar:2.0.0-SNAPSHOT &gt; org.jgrapht:jgrapht-core:jar:0.9.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.jvnet.mimepull:mimepull:jar:1.9.4</t>
+  </si>
+  <si>
+    <t>com.google.guava:guava:20.0; org.javassist:javassist:3.21.0-GA; org.slf4j:slf4j-api:1.7.24; dom4j:dom4j:1.6.1; xml-apis:xml-apis:1.0.b2; com.google.code.gson:gson:2.8.0; javax.servlet:servlet-api:2.5; org.slf4j:slf4j-simple:1.7.24; com.google.code.findbugs:jsr305:3.0.1; junit:junit:4.12</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16 &gt; org.reflections:reflections:jar:0.9.11</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler; org.eclipse.winery.highlevelrestapi</t>
+  </si>
+  <si>
+    <t>org.slf4j:slf4j-api:1.7.6; org.slf4j:slf4j-jdk14:1.7.6; junit:junit:4.10; org.hamcrest:hamcrest-core:1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; org.slf4j:jcl-over-slf4j:jar:1.7.6</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.configuration:jar:2.0.0-SNAPSHOT &gt; org.slf4j:slf4j-api:jar:1.7.13</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.tosca:jar:2.0.0-SNAPSHOT &gt; org.slf4j:slf4j-api:jar:1.7.2</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.common; org.eclipse.winery.repository; org.eclipse.winery.cli; org.eclipse.winery.bpmn4tosca.converter.tobpel; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler; org.eclipse.winery.highlevelrestapi</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:jar:2.0.0-SNAPSHOT &gt; ch.qos.logback:logback-classic:jar:1.1.1 &gt; org.slf4j:slf4j-api:jar:1.7.6</t>
+  </si>
+  <si>
+    <t>org.slf4j:slf4j-api:1.7.2; org.slf4j:slf4j-log4j12:1.7.2; log4j:log4j:1.2.17; ch.qos.cal10n:cal10n-api:0.7.4; javassist:javassist:3.4.GA; commons-lang:commons-lang:2.4; junit:junit:4.10; org.hamcrest:hamcrest-core:1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.slf4j:slf4j-ext:jar:1.7.2</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.tukaani:xz:jar:1.3</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT &gt; org.yaml:snakeyaml:jar:1.17</t>
+  </si>
+  <si>
+    <t>xml-apis:xml-apis:1.3.04; xml-resolver:xml-resolver:1.2</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; xerces:xercesImpl:jar:2.9.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; xerces:xercesImpl:jar:2.9.1 &gt; xml-apis:xml-apis:jar:1.3.04</t>
+  </si>
+  <si>
+    <t>npm</t>
+  </si>
+  <si>
+    <t>@angular/animations</t>
+  </si>
+  <si>
+    <t>4.3.5</t>
+  </si>
+  <si>
+    <t>WineryUI</t>
+  </si>
+  <si>
+    <t>tslib:^1.7.1</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/@angular/animations/-/animations-4.3.5.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/angular/angular#readme</t>
+  </si>
+  <si>
+    <t>zone.js</t>
+  </si>
+  <si>
+    <t>0.8.16</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/zone.js/-/zone.js-0.8.16.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/angular/zone.js#readme</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; @angular/cli</t>
+  </si>
+  <si>
+    <t>tslib</t>
+  </si>
+  <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/tslib/-/tslib-1.7.1.tgz</t>
+  </si>
+  <si>
+    <t>http://typescriptlang.org/</t>
+  </si>
+  <si>
+    <t>@angular/compiler</t>
+  </si>
+  <si>
+    <t>symbol-observable</t>
+  </si>
+  <si>
+    <t>1.0.4</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/symbol-observable/-/symbol-observable-1.0.4.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/blesh/symbol-observable#readme</t>
+  </si>
+  <si>
+    <t>rxjs</t>
+  </si>
+  <si>
+    <t>spinkit</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/spinkit/-/spinkit-1.2.5.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/tobiasahlin/SpinKit</t>
+  </si>
+  <si>
+    <t>5.4.3</t>
+  </si>
+  <si>
+    <t>symbol-observable:^1.0.1</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/rxjs/-/rxjs-5.4.3.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/ReactiveX/RxJS</t>
+  </si>
+  <si>
+    <t>reflect-metadata</t>
+  </si>
+  <si>
+    <t>0.1.10</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/reflect-metadata/-/reflect-metadata-0.1.10.tgz</t>
+  </si>
+  <si>
+    <t>http://rbuckton.github.io/reflect-metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; @angular/compiler-cli</t>
+  </si>
+  <si>
+    <t>ngx-pagination</t>
+  </si>
+  <si>
+    <t>3.0.1</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/ngx-pagination/-/ngx-pagination-3.0.1.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/michaelbromley/ngx-pagination#readme</t>
+  </si>
+  <si>
+    <t>ngx-chips</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
+  </si>
+  <si>
+    <t>ng2-material-dropdown:0.7.10</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/ngx-chips/-/ngx-chips-1.5.3.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/Gbuomprisco/ngx-chips</t>
+  </si>
+  <si>
+    <t>ngx-bootstrap</t>
+  </si>
+  <si>
+    <t>1.8.1</t>
+  </si>
+  <si>
+    <t>moment:2.18.1</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/ngx-bootstrap/-/ngx-bootstrap-1.8.1.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/valor-software/ngx-bootstrap#readme</t>
+  </si>
+  <si>
+    <t>ng2-toastr</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/ng2-toastr/-/ng2-toastr-4.0.1.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/PointInside/ng2-toastr#readme</t>
+  </si>
+  <si>
+    <t>ISC</t>
+  </si>
+  <si>
+    <t>ng2-table</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/ng2-table/-/ng2-table-1.3.2.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/valor-software/ng2-table#readme</t>
+  </si>
+  <si>
+    <t>ng2-select</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/ng2-select/-/ng2-select-1.2.0.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/valor-software/ng2-select#readme</t>
+  </si>
+  <si>
+    <t>ng2-material-dropdown</t>
+  </si>
+  <si>
+    <t>0.7.10</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/ng2-material-dropdown/-/ng2-material-dropdown-0.7.10.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/Gbuomprisco/ng2-material-dropdown</t>
+  </si>
+  <si>
+    <t>ng2-file-upload</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/ng2-file-upload/-/ng2-file-upload-1.2.0.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/valor-software/ng2-file-upload#readme</t>
+  </si>
+  <si>
+    <t>moment</t>
+  </si>
+  <si>
+    <t>2.18.1</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/moment/-/moment-2.18.1.tgz</t>
+  </si>
+  <si>
+    <t>http://momentjs.com</t>
+  </si>
+  <si>
+    <t>font-awesome</t>
+  </si>
+  <si>
+    <t>4.7.0</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/font-awesome/-/font-awesome-4.7.0.tgz</t>
+  </si>
+  <si>
+    <t>http://fontawesome.io/</t>
+  </si>
+  <si>
+    <t>(OFL-1.1 AND MIT)</t>
+  </si>
+  <si>
+    <t>core-js</t>
+  </si>
+  <si>
+    <t>2.5.0</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/core-js/-/core-js-2.5.0.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/zloirock/core-js#readme</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; @angular/cli/babel-runtime &gt; babel-runtime &gt; karma</t>
+  </si>
+  <si>
+    <t>bluebird</t>
+  </si>
+  <si>
+    <t>3.5.0</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/bluebird/-/bluebird-3.5.0.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/petkaantonov/bluebird</t>
+  </si>
+  <si>
+    <t>@angular/cli/html-webpack-plugin &gt; angular2-websocket &gt; karma</t>
+  </si>
+  <si>
+    <t>angular2-websocket</t>
+  </si>
+  <si>
+    <t>0.9.3</t>
+  </si>
+  <si>
+    <t>bluebird:^3.4.6</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/angular2-websocket/-/angular2-websocket-0.9.3.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/afrad/angular2-websocket#readme</t>
+  </si>
+  <si>
+    <t>@angular/router/upgrade</t>
+  </si>
+  <si>
+    <t>@angular/router/testing</t>
+  </si>
+  <si>
+    <t>@angular/router</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/@angular/router/-/router-4.3.5.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/angular/angular/tree/master/packages/router</t>
+  </si>
+  <si>
+    <t>@angular/platform-browser/testing</t>
+  </si>
+  <si>
+    <t>@angular/platform-browser/animations</t>
+  </si>
+  <si>
+    <t>@angular/platform-browser-dynamic/testing</t>
+  </si>
+  <si>
+    <t>@angular/platform-browser-dynamic</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/@angular/platform-browser-dynamic/-/platform-browser-dynamic-4.3.5.tgz</t>
+  </si>
+  <si>
+    <t>@angular/platform-browser</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/@angular/platform-browser/-/platform-browser-4.3.5.tgz</t>
+  </si>
+  <si>
+    <t>@angular/http/testing</t>
+  </si>
+  <si>
+    <t>@angular/http</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/@angular/http/-/http-4.3.5.tgz</t>
+  </si>
+  <si>
+    <t>@angular/forms</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/@angular/forms/-/forms-4.3.5.tgz</t>
+  </si>
+  <si>
+    <t>@angular/core/testing</t>
+  </si>
+  <si>
+    <t>@angular/core</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/@angular/core/-/core-4.3.5.tgz</t>
+  </si>
+  <si>
+    <t>@angular/compiler/testing</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/@angular/compiler/-/compiler-4.3.5.tgz</t>
+  </si>
+  <si>
+    <t>@angular/common/testing</t>
+  </si>
+  <si>
+    <t>@angular/common/http/testing</t>
+  </si>
+  <si>
+    <t>@angular/common/http</t>
+  </si>
+  <si>
+    <t>@angular/common</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/@angular/common/-/common-4.3.5.tgz</t>
+  </si>
+  <si>
+    <t>@angular/animations/browser/testing</t>
+  </si>
+  <si>
+    <t>@angular/animations/browser</t>
   </si>
 </sst>
 </file>
@@ -2872,7 +3760,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMK168"/>
+  <dimension ref="A1:AMK208"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="L1" view="normal" workbookViewId="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" xSplit="0" ySplit="1"/>
@@ -2973,6 +3861,9 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2">
+      <c r="A2" t="s">
+        <v>595</v>
+      </c>
       <c r="C2" t="s">
         <v>233</v>
       </c>
@@ -2985,6 +3876,12 @@
       <c r="F2" t="s">
         <v>438</v>
       </c>
+      <c r="G2" t="s">
+        <v>596</v>
+      </c>
+      <c r="M2" t="s">
+        <v>597</v>
+      </c>
       <c r="N2" t="s">
         <v>237</v>
       </c>
@@ -2992,16 +3889,19 @@
         <v>592</v>
       </c>
       <c r="P2" t="s">
-        <v>391</v>
+        <v>598</v>
       </c>
       <c r="T2" t="s">
-        <v>272</v>
+        <v>599</v>
       </c>
       <c r="U2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="s">
+        <v>595</v>
+      </c>
       <c r="C3" t="s">
         <v>233</v>
       </c>
@@ -3014,6 +3914,12 @@
       <c r="F3" t="s">
         <v>438</v>
       </c>
+      <c r="G3" t="s">
+        <v>596</v>
+      </c>
+      <c r="M3" t="s">
+        <v>600</v>
+      </c>
       <c r="N3" t="s">
         <v>237</v>
       </c>
@@ -3021,10 +3927,10 @@
         <v>592</v>
       </c>
       <c r="P3" t="s">
-        <v>391</v>
+        <v>598</v>
       </c>
       <c r="T3" t="s">
-        <v>272</v>
+        <v>601</v>
       </c>
       <c r="U3" t="s">
         <v>273</v>
@@ -3034,6 +3940,9 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="s">
+        <v>595</v>
+      </c>
       <c r="C4" t="s">
         <v>233</v>
       </c>
@@ -3046,6 +3955,12 @@
       <c r="F4" t="s">
         <v>588</v>
       </c>
+      <c r="G4" t="s">
+        <v>602</v>
+      </c>
+      <c r="M4" t="s">
+        <v>603</v>
+      </c>
       <c r="N4" t="s">
         <v>237</v>
       </c>
@@ -3053,16 +3968,19 @@
         <v>582</v>
       </c>
       <c r="P4" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T4" t="s">
-        <v>300</v>
+        <v>605</v>
       </c>
       <c r="U4" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="s">
+        <v>595</v>
+      </c>
       <c r="C5" t="s">
         <v>233</v>
       </c>
@@ -3075,6 +3993,12 @@
       <c r="F5" t="s">
         <v>581</v>
       </c>
+      <c r="G5" t="s">
+        <v>606</v>
+      </c>
+      <c r="M5" t="s">
+        <v>603</v>
+      </c>
       <c r="N5" t="s">
         <v>237</v>
       </c>
@@ -3082,16 +4006,19 @@
         <v>585</v>
       </c>
       <c r="P5" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T5" t="s">
-        <v>280</v>
+        <v>607</v>
       </c>
       <c r="U5" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="s">
+        <v>595</v>
+      </c>
       <c r="C6" t="s">
         <v>233</v>
       </c>
@@ -3104,6 +4031,12 @@
       <c r="F6" t="s">
         <v>581</v>
       </c>
+      <c r="G6" t="s">
+        <v>606</v>
+      </c>
+      <c r="M6" t="s">
+        <v>608</v>
+      </c>
       <c r="N6" t="s">
         <v>237</v>
       </c>
@@ -3111,16 +4044,19 @@
         <v>582</v>
       </c>
       <c r="P6" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T6" t="s">
-        <v>280</v>
+        <v>609</v>
       </c>
       <c r="U6" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="s">
+        <v>595</v>
+      </c>
       <c r="C7" t="s">
         <v>233</v>
       </c>
@@ -3133,6 +4069,12 @@
       <c r="F7" t="s">
         <v>576</v>
       </c>
+      <c r="G7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M7" t="s">
+        <v>610</v>
+      </c>
       <c r="N7" t="s">
         <v>237</v>
       </c>
@@ -3140,10 +4082,10 @@
         <v>577</v>
       </c>
       <c r="P7" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T7" t="s">
-        <v>287</v>
+        <v>611</v>
       </c>
       <c r="U7" t="s">
         <v>288</v>
@@ -3159,6 +4101,9 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="s">
+        <v>595</v>
+      </c>
       <c r="C8" t="s">
         <v>233</v>
       </c>
@@ -3171,6 +4116,12 @@
       <c r="F8" t="s">
         <v>564</v>
       </c>
+      <c r="G8" t="s">
+        <v>612</v>
+      </c>
+      <c r="M8" t="s">
+        <v>613</v>
+      </c>
       <c r="N8" t="s">
         <v>237</v>
       </c>
@@ -3178,10 +4129,10 @@
         <v>572</v>
       </c>
       <c r="P8" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T8" t="s">
-        <v>246</v>
+        <v>614</v>
       </c>
       <c r="U8" t="s">
         <v>566</v>
@@ -3191,6 +4142,9 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="s">
+        <v>595</v>
+      </c>
       <c r="C9" t="s">
         <v>233</v>
       </c>
@@ -3203,6 +4157,12 @@
       <c r="F9" t="s">
         <v>564</v>
       </c>
+      <c r="G9" t="s">
+        <v>612</v>
+      </c>
+      <c r="M9" t="s">
+        <v>615</v>
+      </c>
       <c r="N9" t="s">
         <v>237</v>
       </c>
@@ -3210,16 +4170,19 @@
         <v>570</v>
       </c>
       <c r="P9" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T9" t="s">
-        <v>246</v>
+        <v>616</v>
       </c>
       <c r="U9" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="s">
+        <v>595</v>
+      </c>
       <c r="C10" t="s">
         <v>233</v>
       </c>
@@ -3232,6 +4195,12 @@
       <c r="F10" t="s">
         <v>564</v>
       </c>
+      <c r="G10" t="s">
+        <v>612</v>
+      </c>
+      <c r="M10" t="s">
+        <v>617</v>
+      </c>
       <c r="N10" t="s">
         <v>237</v>
       </c>
@@ -3239,10 +4208,10 @@
         <v>565</v>
       </c>
       <c r="P10" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T10" t="s">
-        <v>246</v>
+        <v>618</v>
       </c>
       <c r="U10" t="s">
         <v>566</v>
@@ -3252,6 +4221,9 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="s">
+        <v>595</v>
+      </c>
       <c r="C11" t="s">
         <v>233</v>
       </c>
@@ -3264,6 +4236,12 @@
       <c r="F11" t="s">
         <v>559</v>
       </c>
+      <c r="G11" t="s">
+        <v>619</v>
+      </c>
+      <c r="M11" t="s">
+        <v>237</v>
+      </c>
       <c r="N11" t="s">
         <v>237</v>
       </c>
@@ -3271,10 +4249,10 @@
         <v>560</v>
       </c>
       <c r="P11" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T11" t="s">
-        <v>246</v>
+        <v>620</v>
       </c>
       <c r="U11" t="s">
         <v>385</v>
@@ -3284,6 +4262,9 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="s">
+        <v>595</v>
+      </c>
       <c r="C12" t="s">
         <v>233</v>
       </c>
@@ -3296,6 +4277,12 @@
       <c r="F12" t="s">
         <v>553</v>
       </c>
+      <c r="G12" t="s">
+        <v>619</v>
+      </c>
+      <c r="M12" t="s">
+        <v>621</v>
+      </c>
       <c r="N12" t="s">
         <v>237</v>
       </c>
@@ -3303,10 +4290,10 @@
         <v>554</v>
       </c>
       <c r="P12" t="s">
-        <v>555</v>
+        <v>604</v>
       </c>
       <c r="T12" t="s">
-        <v>246</v>
+        <v>622</v>
       </c>
       <c r="U12" t="s">
         <v>385</v>
@@ -3316,6 +4303,9 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="s">
+        <v>595</v>
+      </c>
       <c r="C13" t="s">
         <v>233</v>
       </c>
@@ -3328,6 +4318,12 @@
       <c r="F13" t="s">
         <v>549</v>
       </c>
+      <c r="G13" t="s">
+        <v>619</v>
+      </c>
+      <c r="M13" t="s">
+        <v>623</v>
+      </c>
       <c r="N13" t="s">
         <v>237</v>
       </c>
@@ -3335,16 +4331,19 @@
         <v>550</v>
       </c>
       <c r="P13" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T13" t="s">
-        <v>246</v>
+        <v>624</v>
       </c>
       <c r="U13" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="s">
+        <v>595</v>
+      </c>
       <c r="C14" t="s">
         <v>233</v>
       </c>
@@ -3357,6 +4356,12 @@
       <c r="F14" t="s">
         <v>445</v>
       </c>
+      <c r="G14" t="s">
+        <v>619</v>
+      </c>
+      <c r="M14" t="s">
+        <v>237</v>
+      </c>
       <c r="N14" t="s">
         <v>237</v>
       </c>
@@ -3364,10 +4369,10 @@
         <v>545</v>
       </c>
       <c r="P14" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T14" t="s">
-        <v>246</v>
+        <v>625</v>
       </c>
       <c r="U14" t="s">
         <v>385</v>
@@ -3377,6 +4382,9 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="s">
+        <v>595</v>
+      </c>
       <c r="C15" t="s">
         <v>233</v>
       </c>
@@ -3389,6 +4397,12 @@
       <c r="F15" t="s">
         <v>541</v>
       </c>
+      <c r="G15" t="s">
+        <v>626</v>
+      </c>
+      <c r="M15" t="s">
+        <v>627</v>
+      </c>
       <c r="N15" t="s">
         <v>237</v>
       </c>
@@ -3399,7 +4413,7 @@
         <v>539</v>
       </c>
       <c r="T15" t="s">
-        <v>280</v>
+        <v>628</v>
       </c>
       <c r="U15" t="s">
         <v>392</v>
@@ -3409,6 +4423,9 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="s">
+        <v>595</v>
+      </c>
       <c r="C16" t="s">
         <v>233</v>
       </c>
@@ -3421,6 +4438,12 @@
       <c r="F16" t="s">
         <v>537</v>
       </c>
+      <c r="G16" t="s">
+        <v>626</v>
+      </c>
+      <c r="M16" t="s">
+        <v>629</v>
+      </c>
       <c r="N16" t="s">
         <v>237</v>
       </c>
@@ -3431,13 +4454,16 @@
         <v>539</v>
       </c>
       <c r="T16" t="s">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="U16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="s">
+        <v>595</v>
+      </c>
       <c r="C17" t="s">
         <v>233</v>
       </c>
@@ -3450,6 +4476,12 @@
       <c r="F17" t="s">
         <v>520</v>
       </c>
+      <c r="G17" t="s">
+        <v>631</v>
+      </c>
+      <c r="M17" t="s">
+        <v>632</v>
+      </c>
       <c r="N17" t="s">
         <v>237</v>
       </c>
@@ -3457,16 +4489,19 @@
         <v>533</v>
       </c>
       <c r="P17" t="s">
-        <v>295</v>
+        <v>633</v>
       </c>
       <c r="T17" t="s">
-        <v>327</v>
+        <v>634</v>
       </c>
       <c r="U17" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="s">
+        <v>595</v>
+      </c>
       <c r="C18" t="s">
         <v>233</v>
       </c>
@@ -3479,6 +4514,12 @@
       <c r="F18" t="s">
         <v>520</v>
       </c>
+      <c r="G18" t="s">
+        <v>631</v>
+      </c>
+      <c r="M18" t="s">
+        <v>635</v>
+      </c>
       <c r="N18" t="s">
         <v>237</v>
       </c>
@@ -3486,16 +4527,19 @@
         <v>531</v>
       </c>
       <c r="P18" t="s">
-        <v>295</v>
+        <v>633</v>
       </c>
       <c r="T18" t="s">
-        <v>327</v>
+        <v>636</v>
       </c>
       <c r="U18" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="s">
+        <v>595</v>
+      </c>
       <c r="C19" t="s">
         <v>233</v>
       </c>
@@ -3508,6 +4552,12 @@
       <c r="F19" t="s">
         <v>520</v>
       </c>
+      <c r="G19" t="s">
+        <v>637</v>
+      </c>
+      <c r="M19" t="s">
+        <v>638</v>
+      </c>
       <c r="N19" t="s">
         <v>237</v>
       </c>
@@ -3515,16 +4565,19 @@
         <v>528</v>
       </c>
       <c r="P19" t="s">
-        <v>295</v>
+        <v>633</v>
       </c>
       <c r="T19" t="s">
-        <v>287</v>
+        <v>639</v>
       </c>
       <c r="U19" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="s">
+        <v>595</v>
+      </c>
       <c r="C20" t="s">
         <v>233</v>
       </c>
@@ -3537,6 +4590,12 @@
       <c r="F20" t="s">
         <v>520</v>
       </c>
+      <c r="G20" t="s">
+        <v>637</v>
+      </c>
+      <c r="M20" t="s">
+        <v>640</v>
+      </c>
       <c r="N20" t="s">
         <v>237</v>
       </c>
@@ -3544,16 +4603,19 @@
         <v>525</v>
       </c>
       <c r="P20" t="s">
-        <v>295</v>
+        <v>633</v>
       </c>
       <c r="T20" t="s">
-        <v>287</v>
+        <v>641</v>
       </c>
       <c r="U20" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="s">
+        <v>595</v>
+      </c>
       <c r="C21" t="s">
         <v>233</v>
       </c>
@@ -3566,6 +4628,12 @@
       <c r="F21" t="s">
         <v>520</v>
       </c>
+      <c r="G21" t="s">
+        <v>316</v>
+      </c>
+      <c r="M21" t="s">
+        <v>642</v>
+      </c>
       <c r="N21" t="s">
         <v>237</v>
       </c>
@@ -3573,16 +4641,19 @@
         <v>521</v>
       </c>
       <c r="P21" t="s">
-        <v>295</v>
+        <v>633</v>
       </c>
       <c r="T21" t="s">
-        <v>287</v>
+        <v>643</v>
       </c>
       <c r="U21" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="s">
+        <v>595</v>
+      </c>
       <c r="C22" t="s">
         <v>233</v>
       </c>
@@ -3595,6 +4666,12 @@
       <c r="F22" t="s">
         <v>514</v>
       </c>
+      <c r="G22" t="s">
+        <v>644</v>
+      </c>
+      <c r="M22" t="s">
+        <v>237</v>
+      </c>
       <c r="N22" t="s">
         <v>237</v>
       </c>
@@ -3605,13 +4682,16 @@
         <v>237</v>
       </c>
       <c r="T22" t="s">
-        <v>256</v>
+        <v>645</v>
       </c>
       <c r="U22" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="s">
+        <v>595</v>
+      </c>
       <c r="C23" t="s">
         <v>233</v>
       </c>
@@ -3624,6 +4704,12 @@
       <c r="F23" t="s">
         <v>514</v>
       </c>
+      <c r="G23" t="s">
+        <v>644</v>
+      </c>
+      <c r="M23" t="s">
+        <v>237</v>
+      </c>
       <c r="N23" t="s">
         <v>237</v>
       </c>
@@ -3634,13 +4720,16 @@
         <v>237</v>
       </c>
       <c r="T23" t="s">
-        <v>256</v>
+        <v>646</v>
       </c>
       <c r="U23" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>595</v>
+      </c>
       <c r="C24" t="s">
         <v>233</v>
       </c>
@@ -3653,6 +4742,12 @@
       <c r="F24" t="s">
         <v>511</v>
       </c>
+      <c r="G24" t="s">
+        <v>647</v>
+      </c>
+      <c r="M24" t="s">
+        <v>237</v>
+      </c>
       <c r="N24" t="s">
         <v>237</v>
       </c>
@@ -3660,16 +4755,19 @@
         <v>512</v>
       </c>
       <c r="P24" t="s">
-        <v>295</v>
+        <v>633</v>
       </c>
       <c r="T24" t="s">
-        <v>246</v>
+        <v>648</v>
       </c>
       <c r="U24" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>595</v>
+      </c>
       <c r="C25" t="s">
         <v>233</v>
       </c>
@@ -3682,6 +4780,12 @@
       <c r="F25" t="s">
         <v>507</v>
       </c>
+      <c r="G25" t="s">
+        <v>649</v>
+      </c>
+      <c r="M25" t="s">
+        <v>237</v>
+      </c>
       <c r="N25" t="s">
         <v>237</v>
       </c>
@@ -3692,13 +4796,16 @@
         <v>237</v>
       </c>
       <c r="T25" t="s">
-        <v>277</v>
+        <v>650</v>
       </c>
       <c r="U25" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>595</v>
+      </c>
       <c r="C26" t="s">
         <v>233</v>
       </c>
@@ -3711,6 +4818,12 @@
       <c r="F26" t="s">
         <v>503</v>
       </c>
+      <c r="G26" t="s">
+        <v>316</v>
+      </c>
+      <c r="M26" t="s">
+        <v>237</v>
+      </c>
       <c r="N26" t="s">
         <v>237</v>
       </c>
@@ -3721,13 +4834,16 @@
         <v>237</v>
       </c>
       <c r="T26" t="s">
-        <v>504</v>
+        <v>651</v>
       </c>
       <c r="U26" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="s">
+        <v>595</v>
+      </c>
       <c r="C27" t="s">
         <v>233</v>
       </c>
@@ -3740,6 +4856,12 @@
       <c r="F27" t="s">
         <v>260</v>
       </c>
+      <c r="G27" t="s">
+        <v>316</v>
+      </c>
+      <c r="M27" t="s">
+        <v>652</v>
+      </c>
       <c r="N27" t="s">
         <v>237</v>
       </c>
@@ -3747,16 +4869,19 @@
         <v>500</v>
       </c>
       <c r="P27" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T27" t="s">
-        <v>488</v>
+        <v>653</v>
       </c>
       <c r="U27" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>595</v>
+      </c>
       <c r="C28" t="s">
         <v>233</v>
       </c>
@@ -3769,6 +4894,12 @@
       <c r="F28" t="s">
         <v>491</v>
       </c>
+      <c r="G28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M28" t="s">
+        <v>654</v>
+      </c>
       <c r="N28" t="s">
         <v>237</v>
       </c>
@@ -3776,10 +4907,10 @@
         <v>498</v>
       </c>
       <c r="P28" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T28" t="s">
-        <v>287</v>
+        <v>655</v>
       </c>
       <c r="U28" t="s">
         <v>408</v>
@@ -3789,6 +4920,9 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="s">
+        <v>595</v>
+      </c>
       <c r="C29" t="s">
         <v>233</v>
       </c>
@@ -3801,6 +4935,12 @@
       <c r="F29" t="s">
         <v>494</v>
       </c>
+      <c r="G29" t="s">
+        <v>316</v>
+      </c>
+      <c r="M29" t="s">
+        <v>652</v>
+      </c>
       <c r="N29" t="s">
         <v>237</v>
       </c>
@@ -3808,10 +4948,10 @@
         <v>495</v>
       </c>
       <c r="P29" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T29" t="s">
-        <v>337</v>
+        <v>656</v>
       </c>
       <c r="U29" t="s">
         <v>399</v>
@@ -3821,6 +4961,9 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>595</v>
+      </c>
       <c r="C30" t="s">
         <v>233</v>
       </c>
@@ -3833,6 +4976,12 @@
       <c r="F30" t="s">
         <v>491</v>
       </c>
+      <c r="G30" t="s">
+        <v>612</v>
+      </c>
+      <c r="M30" t="s">
+        <v>237</v>
+      </c>
       <c r="N30" t="s">
         <v>237</v>
       </c>
@@ -3843,13 +4992,16 @@
         <v>237</v>
       </c>
       <c r="T30" t="s">
-        <v>246</v>
+        <v>657</v>
       </c>
       <c r="U30" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>595</v>
+      </c>
       <c r="C31" t="s">
         <v>233</v>
       </c>
@@ -3862,6 +5014,12 @@
       <c r="F31" t="s">
         <v>417</v>
       </c>
+      <c r="G31" t="s">
+        <v>316</v>
+      </c>
+      <c r="M31" t="s">
+        <v>237</v>
+      </c>
       <c r="N31" t="s">
         <v>237</v>
       </c>
@@ -3872,13 +5030,16 @@
         <v>487</v>
       </c>
       <c r="T31" t="s">
-        <v>488</v>
+        <v>658</v>
       </c>
       <c r="U31" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>595</v>
+      </c>
       <c r="C32" t="s">
         <v>233</v>
       </c>
@@ -3891,6 +5052,12 @@
       <c r="F32" t="s">
         <v>480</v>
       </c>
+      <c r="G32" t="s">
+        <v>626</v>
+      </c>
+      <c r="M32" t="s">
+        <v>237</v>
+      </c>
       <c r="N32" t="s">
         <v>237</v>
       </c>
@@ -3901,13 +5068,16 @@
         <v>237</v>
       </c>
       <c r="T32" t="s">
-        <v>280</v>
+        <v>659</v>
       </c>
       <c r="U32" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>595</v>
+      </c>
       <c r="C33" t="s">
         <v>233</v>
       </c>
@@ -3920,6 +5090,12 @@
       <c r="F33" t="s">
         <v>480</v>
       </c>
+      <c r="G33" t="s">
+        <v>316</v>
+      </c>
+      <c r="M33" t="s">
+        <v>652</v>
+      </c>
       <c r="N33" t="s">
         <v>237</v>
       </c>
@@ -3927,10 +5103,10 @@
         <v>481</v>
       </c>
       <c r="P33" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T33" t="s">
-        <v>337</v>
+        <v>660</v>
       </c>
       <c r="U33" t="s">
         <v>399</v>
@@ -3940,6 +5116,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="s">
+        <v>595</v>
+      </c>
       <c r="C34" t="s">
         <v>233</v>
       </c>
@@ -3952,6 +5131,12 @@
       <c r="F34" t="s">
         <v>433</v>
       </c>
+      <c r="G34" t="s">
+        <v>316</v>
+      </c>
+      <c r="M34" t="s">
+        <v>661</v>
+      </c>
       <c r="N34" t="s">
         <v>237</v>
       </c>
@@ -3959,10 +5144,10 @@
         <v>477</v>
       </c>
       <c r="P34" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T34" t="s">
-        <v>287</v>
+        <v>662</v>
       </c>
       <c r="U34" t="s">
         <v>408</v>
@@ -3973,7 +5158,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="35" s="1">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>595</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>22</v>
@@ -3991,7 +5176,7 @@
         <v>236</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>27</v>
+        <v>663</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>14581</v>
@@ -4002,6 +5187,9 @@
       <c r="J35" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="M35" t="s">
+        <v>603</v>
+      </c>
       <c r="N35" s="1" t="s">
         <v>237</v>
       </c>
@@ -4009,13 +5197,13 @@
         <v>238</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>239</v>
+        <v>664</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T35" t="s">
-        <v>240</v>
+        <v>665</v>
       </c>
       <c r="U35" t="s">
         <v>241</v>
@@ -4024,6 +5212,9 @@
       <c r="AMJ35" s="0"/>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>595</v>
+      </c>
       <c r="C36" t="s">
         <v>233</v>
       </c>
@@ -4036,6 +5227,12 @@
       <c r="F36" t="s">
         <v>462</v>
       </c>
+      <c r="G36" t="s">
+        <v>316</v>
+      </c>
+      <c r="M36" t="s">
+        <v>237</v>
+      </c>
       <c r="N36" t="s">
         <v>237</v>
       </c>
@@ -4046,7 +5243,7 @@
         <v>464</v>
       </c>
       <c r="T36" t="s">
-        <v>287</v>
+        <v>666</v>
       </c>
       <c r="U36" t="s">
         <v>288</v>
@@ -4065,6 +5262,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>595</v>
+      </c>
       <c r="C37" t="s">
         <v>233</v>
       </c>
@@ -4077,6 +5277,12 @@
       <c r="F37" t="s">
         <v>462</v>
       </c>
+      <c r="G37" t="s">
+        <v>316</v>
+      </c>
+      <c r="M37" t="s">
+        <v>667</v>
+      </c>
       <c r="N37" t="s">
         <v>237</v>
       </c>
@@ -4087,7 +5293,7 @@
         <v>464</v>
       </c>
       <c r="T37" t="s">
-        <v>287</v>
+        <v>668</v>
       </c>
       <c r="U37" t="s">
         <v>288</v>
@@ -4100,6 +5306,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>595</v>
+      </c>
       <c r="C38" t="s">
         <v>233</v>
       </c>
@@ -4112,6 +5321,12 @@
       <c r="F38" t="s">
         <v>462</v>
       </c>
+      <c r="G38" t="s">
+        <v>316</v>
+      </c>
+      <c r="M38" t="s">
+        <v>669</v>
+      </c>
       <c r="N38" t="s">
         <v>237</v>
       </c>
@@ -4122,7 +5337,7 @@
         <v>464</v>
       </c>
       <c r="T38" t="s">
-        <v>287</v>
+        <v>670</v>
       </c>
       <c r="U38" t="s">
         <v>288</v>
@@ -4132,6 +5347,9 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="s">
+        <v>595</v>
+      </c>
       <c r="C39" t="s">
         <v>233</v>
       </c>
@@ -4144,6 +5362,12 @@
       <c r="F39" t="s">
         <v>462</v>
       </c>
+      <c r="G39" t="s">
+        <v>316</v>
+      </c>
+      <c r="M39" t="s">
+        <v>671</v>
+      </c>
       <c r="N39" t="s">
         <v>237</v>
       </c>
@@ -4154,13 +5378,16 @@
         <v>464</v>
       </c>
       <c r="T39" t="s">
-        <v>287</v>
+        <v>672</v>
       </c>
       <c r="U39" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="s">
+        <v>595</v>
+      </c>
       <c r="C40" t="s">
         <v>233</v>
       </c>
@@ -4173,6 +5400,12 @@
       <c r="F40" t="s">
         <v>462</v>
       </c>
+      <c r="G40" t="s">
+        <v>316</v>
+      </c>
+      <c r="M40" t="s">
+        <v>673</v>
+      </c>
       <c r="N40" t="s">
         <v>237</v>
       </c>
@@ -4183,7 +5416,7 @@
         <v>464</v>
       </c>
       <c r="T40" t="s">
-        <v>287</v>
+        <v>674</v>
       </c>
       <c r="U40" t="s">
         <v>288</v>
@@ -4199,6 +5432,9 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="s">
+        <v>595</v>
+      </c>
       <c r="C41" t="s">
         <v>233</v>
       </c>
@@ -4211,6 +5447,12 @@
       <c r="F41" t="s">
         <v>456</v>
       </c>
+      <c r="G41" t="s">
+        <v>316</v>
+      </c>
+      <c r="M41" t="s">
+        <v>237</v>
+      </c>
       <c r="N41" t="s">
         <v>237</v>
       </c>
@@ -4218,16 +5460,19 @@
         <v>457</v>
       </c>
       <c r="P41" t="s">
-        <v>458</v>
+        <v>675</v>
       </c>
       <c r="T41" t="s">
-        <v>287</v>
+        <v>676</v>
       </c>
       <c r="U41" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="s">
+        <v>595</v>
+      </c>
       <c r="C42" t="s">
         <v>233</v>
       </c>
@@ -4240,6 +5485,12 @@
       <c r="F42" t="s">
         <v>451</v>
       </c>
+      <c r="G42" t="s">
+        <v>626</v>
+      </c>
+      <c r="M42" t="s">
+        <v>677</v>
+      </c>
       <c r="N42" t="s">
         <v>237</v>
       </c>
@@ -4247,10 +5498,10 @@
         <v>452</v>
       </c>
       <c r="P42" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T42" t="s">
-        <v>280</v>
+        <v>678</v>
       </c>
       <c r="U42" t="s">
         <v>392</v>
@@ -4263,6 +5514,9 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="s">
+        <v>595</v>
+      </c>
       <c r="C43" t="s">
         <v>233</v>
       </c>
@@ -4275,6 +5529,12 @@
       <c r="F43" t="s">
         <v>445</v>
       </c>
+      <c r="G43" t="s">
+        <v>316</v>
+      </c>
+      <c r="M43" t="s">
+        <v>679</v>
+      </c>
       <c r="N43" t="s">
         <v>237</v>
       </c>
@@ -4282,16 +5542,19 @@
         <v>446</v>
       </c>
       <c r="P43" t="s">
-        <v>447</v>
+        <v>680</v>
       </c>
       <c r="T43" t="s">
-        <v>287</v>
+        <v>681</v>
       </c>
       <c r="U43" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="s">
+        <v>595</v>
+      </c>
       <c r="C44" t="s">
         <v>233</v>
       </c>
@@ -4304,6 +5567,12 @@
       <c r="F44" t="s">
         <v>438</v>
       </c>
+      <c r="G44" t="s">
+        <v>631</v>
+      </c>
+      <c r="M44" t="s">
+        <v>652</v>
+      </c>
       <c r="N44" t="s">
         <v>237</v>
       </c>
@@ -4314,7 +5583,7 @@
         <v>440</v>
       </c>
       <c r="T44" t="s">
-        <v>327</v>
+        <v>682</v>
       </c>
       <c r="U44" t="s">
         <v>441</v>
@@ -4324,6 +5593,9 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="s">
+        <v>595</v>
+      </c>
       <c r="C45" t="s">
         <v>233</v>
       </c>
@@ -4336,6 +5608,12 @@
       <c r="F45" t="s">
         <v>433</v>
       </c>
+      <c r="G45" t="s">
+        <v>626</v>
+      </c>
+      <c r="M45" t="s">
+        <v>237</v>
+      </c>
       <c r="N45" t="s">
         <v>237</v>
       </c>
@@ -4346,13 +5624,16 @@
         <v>430</v>
       </c>
       <c r="T45" t="s">
-        <v>280</v>
+        <v>683</v>
       </c>
       <c r="U45" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="s">
+        <v>595</v>
+      </c>
       <c r="C46" t="s">
         <v>233</v>
       </c>
@@ -4365,6 +5646,12 @@
       <c r="F46" t="s">
         <v>428</v>
       </c>
+      <c r="G46" t="s">
+        <v>619</v>
+      </c>
+      <c r="M46" t="s">
+        <v>237</v>
+      </c>
       <c r="N46" t="s">
         <v>237</v>
       </c>
@@ -4375,7 +5662,7 @@
         <v>430</v>
       </c>
       <c r="T46" t="s">
-        <v>246</v>
+        <v>684</v>
       </c>
       <c r="U46" t="s">
         <v>376</v>
@@ -4385,6 +5672,9 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="s">
+        <v>595</v>
+      </c>
       <c r="C47" t="s">
         <v>233</v>
       </c>
@@ -4397,6 +5687,12 @@
       <c r="F47" t="s">
         <v>423</v>
       </c>
+      <c r="G47" t="s">
+        <v>685</v>
+      </c>
+      <c r="M47" t="s">
+        <v>686</v>
+      </c>
       <c r="N47" t="s">
         <v>237</v>
       </c>
@@ -4404,16 +5700,19 @@
         <v>424</v>
       </c>
       <c r="P47" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T47" t="s">
-        <v>246</v>
+        <v>687</v>
       </c>
       <c r="U47" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="s">
+        <v>595</v>
+      </c>
       <c r="C48" t="s">
         <v>233</v>
       </c>
@@ -4426,6 +5725,12 @@
       <c r="F48" t="s">
         <v>420</v>
       </c>
+      <c r="G48" t="s">
+        <v>649</v>
+      </c>
+      <c r="M48" t="s">
+        <v>237</v>
+      </c>
       <c r="N48" t="s">
         <v>237</v>
       </c>
@@ -4436,13 +5741,16 @@
         <v>237</v>
       </c>
       <c r="T48" t="s">
-        <v>277</v>
+        <v>688</v>
       </c>
       <c r="U48" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="s">
+        <v>595</v>
+      </c>
       <c r="C49" t="s">
         <v>233</v>
       </c>
@@ -4455,6 +5763,12 @@
       <c r="F49" t="s">
         <v>417</v>
       </c>
+      <c r="G49" t="s">
+        <v>689</v>
+      </c>
+      <c r="M49" t="s">
+        <v>237</v>
+      </c>
       <c r="N49" t="s">
         <v>237</v>
       </c>
@@ -4465,13 +5779,16 @@
         <v>237</v>
       </c>
       <c r="T49" t="s">
-        <v>280</v>
+        <v>690</v>
       </c>
       <c r="U49" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="s">
+        <v>595</v>
+      </c>
       <c r="C50" t="s">
         <v>233</v>
       </c>
@@ -4484,6 +5801,12 @@
       <c r="F50" t="s">
         <v>415</v>
       </c>
+      <c r="G50" t="s">
+        <v>316</v>
+      </c>
+      <c r="M50" t="s">
+        <v>237</v>
+      </c>
       <c r="N50" t="s">
         <v>237</v>
       </c>
@@ -4494,13 +5817,16 @@
         <v>237</v>
       </c>
       <c r="T50" t="s">
-        <v>287</v>
+        <v>691</v>
       </c>
       <c r="U50" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="s">
+        <v>595</v>
+      </c>
       <c r="C51" t="s">
         <v>233</v>
       </c>
@@ -4513,6 +5839,12 @@
       <c r="F51" t="s">
         <v>411</v>
       </c>
+      <c r="G51" t="s">
+        <v>316</v>
+      </c>
+      <c r="M51" t="s">
+        <v>692</v>
+      </c>
       <c r="N51" t="s">
         <v>237</v>
       </c>
@@ -4520,16 +5852,19 @@
         <v>412</v>
       </c>
       <c r="P51" t="s">
-        <v>320</v>
+        <v>604</v>
       </c>
       <c r="T51" t="s">
-        <v>287</v>
+        <v>693</v>
       </c>
       <c r="U51" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="s">
+        <v>595</v>
+      </c>
       <c r="C52" t="s">
         <v>233</v>
       </c>
@@ -4542,6 +5877,12 @@
       <c r="F52" t="s">
         <v>406</v>
       </c>
+      <c r="G52" t="s">
+        <v>316</v>
+      </c>
+      <c r="M52" t="s">
+        <v>694</v>
+      </c>
       <c r="N52" t="s">
         <v>237</v>
       </c>
@@ -4549,10 +5890,10 @@
         <v>407</v>
       </c>
       <c r="P52" t="s">
-        <v>320</v>
+        <v>604</v>
       </c>
       <c r="T52" t="s">
-        <v>287</v>
+        <v>695</v>
       </c>
       <c r="U52" t="s">
         <v>408</v>
@@ -4562,6 +5903,9 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="s">
+        <v>595</v>
+      </c>
       <c r="C53" t="s">
         <v>233</v>
       </c>
@@ -4574,6 +5918,12 @@
       <c r="F53" t="s">
         <v>260</v>
       </c>
+      <c r="G53" t="s">
+        <v>619</v>
+      </c>
+      <c r="M53" t="s">
+        <v>696</v>
+      </c>
       <c r="N53" t="s">
         <v>237</v>
       </c>
@@ -4581,16 +5931,19 @@
         <v>402</v>
       </c>
       <c r="P53" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T53" t="s">
-        <v>246</v>
+        <v>697</v>
       </c>
       <c r="U53" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="s">
+        <v>595</v>
+      </c>
       <c r="C54" t="s">
         <v>233</v>
       </c>
@@ -4603,6 +5956,12 @@
       <c r="F54" t="s">
         <v>397</v>
       </c>
+      <c r="G54" t="s">
+        <v>316</v>
+      </c>
+      <c r="M54" t="s">
+        <v>698</v>
+      </c>
       <c r="N54" t="s">
         <v>237</v>
       </c>
@@ -4610,16 +5969,19 @@
         <v>398</v>
       </c>
       <c r="P54" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T54" t="s">
-        <v>337</v>
+        <v>699</v>
       </c>
       <c r="U54" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="s">
+        <v>595</v>
+      </c>
       <c r="C55" t="s">
         <v>233</v>
       </c>
@@ -4632,6 +5994,12 @@
       <c r="F55" t="s">
         <v>389</v>
       </c>
+      <c r="G55" t="s">
+        <v>626</v>
+      </c>
+      <c r="M55" t="s">
+        <v>237</v>
+      </c>
       <c r="N55" t="s">
         <v>237</v>
       </c>
@@ -4639,10 +6007,10 @@
         <v>390</v>
       </c>
       <c r="P55" t="s">
-        <v>391</v>
+        <v>598</v>
       </c>
       <c r="T55" t="s">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="U55" t="s">
         <v>392</v>
@@ -4655,6 +6023,9 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="s">
+        <v>595</v>
+      </c>
       <c r="C56" t="s">
         <v>233</v>
       </c>
@@ -4667,6 +6038,12 @@
       <c r="F56" t="s">
         <v>382</v>
       </c>
+      <c r="G56" t="s">
+        <v>619</v>
+      </c>
+      <c r="M56" t="s">
+        <v>237</v>
+      </c>
       <c r="N56" t="s">
         <v>237</v>
       </c>
@@ -4674,10 +6051,10 @@
         <v>383</v>
       </c>
       <c r="P56" t="s">
-        <v>384</v>
+        <v>701</v>
       </c>
       <c r="T56" t="s">
-        <v>246</v>
+        <v>702</v>
       </c>
       <c r="U56" t="s">
         <v>385</v>
@@ -4687,6 +6064,9 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="s">
+        <v>595</v>
+      </c>
       <c r="C57" t="s">
         <v>233</v>
       </c>
@@ -4699,6 +6079,12 @@
       <c r="F57" t="s">
         <v>373</v>
       </c>
+      <c r="G57" t="s">
+        <v>619</v>
+      </c>
+      <c r="M57" t="s">
+        <v>703</v>
+      </c>
       <c r="N57" t="s">
         <v>237</v>
       </c>
@@ -4709,13 +6095,16 @@
         <v>375</v>
       </c>
       <c r="T57" t="s">
-        <v>246</v>
+        <v>704</v>
       </c>
       <c r="U57" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="s">
+        <v>595</v>
+      </c>
       <c r="C58" t="s">
         <v>233</v>
       </c>
@@ -4728,6 +6117,12 @@
       <c r="F58" t="s">
         <v>373</v>
       </c>
+      <c r="G58" t="s">
+        <v>619</v>
+      </c>
+      <c r="M58" t="s">
+        <v>705</v>
+      </c>
       <c r="N58" t="s">
         <v>237</v>
       </c>
@@ -4738,7 +6133,7 @@
         <v>375</v>
       </c>
       <c r="T58" t="s">
-        <v>246</v>
+        <v>706</v>
       </c>
       <c r="U58" t="s">
         <v>376</v>
@@ -4748,6 +6143,9 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="s">
+        <v>595</v>
+      </c>
       <c r="C59" t="s">
         <v>233</v>
       </c>
@@ -4760,6 +6158,12 @@
       <c r="F59" t="s">
         <v>367</v>
       </c>
+      <c r="G59" t="s">
+        <v>707</v>
+      </c>
+      <c r="M59" t="s">
+        <v>237</v>
+      </c>
       <c r="N59" t="s">
         <v>237</v>
       </c>
@@ -4770,13 +6174,16 @@
         <v>369</v>
       </c>
       <c r="T59" t="s">
-        <v>240</v>
+        <v>708</v>
       </c>
       <c r="U59" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="s">
+        <v>595</v>
+      </c>
       <c r="C60" t="s">
         <v>233</v>
       </c>
@@ -4789,6 +6196,12 @@
       <c r="F60" t="s">
         <v>361</v>
       </c>
+      <c r="G60" t="s">
+        <v>316</v>
+      </c>
+      <c r="M60" t="s">
+        <v>237</v>
+      </c>
       <c r="N60" t="s">
         <v>237</v>
       </c>
@@ -4799,13 +6212,16 @@
         <v>237</v>
       </c>
       <c r="T60" t="s">
-        <v>287</v>
+        <v>709</v>
       </c>
       <c r="U60" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="s">
+        <v>595</v>
+      </c>
       <c r="C61" t="s">
         <v>233</v>
       </c>
@@ -4818,6 +6234,12 @@
       <c r="F61" t="s">
         <v>361</v>
       </c>
+      <c r="G61" t="s">
+        <v>316</v>
+      </c>
+      <c r="M61" t="s">
+        <v>237</v>
+      </c>
       <c r="N61" t="s">
         <v>237</v>
       </c>
@@ -4828,13 +6250,16 @@
         <v>237</v>
       </c>
       <c r="T61" t="s">
-        <v>287</v>
+        <v>710</v>
       </c>
       <c r="U61" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="s">
+        <v>595</v>
+      </c>
       <c r="C62" t="s">
         <v>233</v>
       </c>
@@ -4847,6 +6272,12 @@
       <c r="F62" t="s">
         <v>356</v>
       </c>
+      <c r="G62" t="s">
+        <v>316</v>
+      </c>
+      <c r="M62" t="s">
+        <v>711</v>
+      </c>
       <c r="N62" t="s">
         <v>237</v>
       </c>
@@ -4854,16 +6285,19 @@
         <v>357</v>
       </c>
       <c r="P62" t="s">
-        <v>358</v>
+        <v>604</v>
       </c>
       <c r="T62" t="s">
-        <v>287</v>
+        <v>712</v>
       </c>
       <c r="U62" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="s">
+        <v>595</v>
+      </c>
       <c r="C63" t="s">
         <v>233</v>
       </c>
@@ -4876,6 +6310,12 @@
       <c r="F63" t="s">
         <v>352</v>
       </c>
+      <c r="G63" t="s">
+        <v>713</v>
+      </c>
+      <c r="M63" t="s">
+        <v>237</v>
+      </c>
       <c r="N63" t="s">
         <v>237</v>
       </c>
@@ -4886,13 +6326,16 @@
         <v>237</v>
       </c>
       <c r="T63" t="s">
-        <v>246</v>
+        <v>714</v>
       </c>
       <c r="U63" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="s">
+        <v>595</v>
+      </c>
       <c r="C64" t="s">
         <v>233</v>
       </c>
@@ -4905,6 +6348,12 @@
       <c r="F64" t="s">
         <v>350</v>
       </c>
+      <c r="G64" t="s">
+        <v>316</v>
+      </c>
+      <c r="M64" t="s">
+        <v>237</v>
+      </c>
       <c r="N64" t="s">
         <v>237</v>
       </c>
@@ -4915,13 +6364,16 @@
         <v>237</v>
       </c>
       <c r="T64" t="s">
-        <v>287</v>
+        <v>715</v>
       </c>
       <c r="U64" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="s">
+        <v>595</v>
+      </c>
       <c r="C65" t="s">
         <v>233</v>
       </c>
@@ -4934,6 +6386,12 @@
       <c r="F65" t="s">
         <v>345</v>
       </c>
+      <c r="G65" t="s">
+        <v>649</v>
+      </c>
+      <c r="M65" t="s">
+        <v>237</v>
+      </c>
       <c r="N65" t="s">
         <v>237</v>
       </c>
@@ -4941,16 +6399,19 @@
         <v>346</v>
       </c>
       <c r="P65" t="s">
-        <v>347</v>
+        <v>598</v>
       </c>
       <c r="T65" t="s">
-        <v>272</v>
+        <v>716</v>
       </c>
       <c r="U65" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="s">
+        <v>595</v>
+      </c>
       <c r="C66" t="s">
         <v>233</v>
       </c>
@@ -4963,6 +6424,12 @@
       <c r="F66" t="s">
         <v>318</v>
       </c>
+      <c r="G66" t="s">
+        <v>717</v>
+      </c>
+      <c r="M66" t="s">
+        <v>718</v>
+      </c>
       <c r="N66" t="s">
         <v>237</v>
       </c>
@@ -4970,16 +6437,19 @@
         <v>342</v>
       </c>
       <c r="P66" t="s">
-        <v>320</v>
+        <v>604</v>
       </c>
       <c r="T66" t="s">
-        <v>246</v>
+        <v>719</v>
       </c>
       <c r="U66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="s">
+        <v>595</v>
+      </c>
       <c r="C67" t="s">
         <v>233</v>
       </c>
@@ -4992,6 +6462,12 @@
       <c r="F67" t="s">
         <v>318</v>
       </c>
+      <c r="G67" t="s">
+        <v>316</v>
+      </c>
+      <c r="M67" t="s">
+        <v>720</v>
+      </c>
       <c r="N67" t="s">
         <v>237</v>
       </c>
@@ -4999,16 +6475,19 @@
         <v>339</v>
       </c>
       <c r="P67" t="s">
-        <v>320</v>
+        <v>604</v>
       </c>
       <c r="T67" t="s">
-        <v>287</v>
+        <v>721</v>
       </c>
       <c r="U67" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="s">
+        <v>595</v>
+      </c>
       <c r="C68" t="s">
         <v>233</v>
       </c>
@@ -5021,6 +6500,12 @@
       <c r="F68" t="s">
         <v>318</v>
       </c>
+      <c r="G68" t="s">
+        <v>316</v>
+      </c>
+      <c r="M68" t="s">
+        <v>722</v>
+      </c>
       <c r="N68" t="s">
         <v>237</v>
       </c>
@@ -5028,16 +6513,19 @@
         <v>319</v>
       </c>
       <c r="P68" t="s">
-        <v>320</v>
+        <v>604</v>
       </c>
       <c r="T68" t="s">
-        <v>337</v>
+        <v>723</v>
       </c>
       <c r="U68" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="s">
+        <v>595</v>
+      </c>
       <c r="C69" t="s">
         <v>233</v>
       </c>
@@ -5050,6 +6538,12 @@
       <c r="F69" t="s">
         <v>318</v>
       </c>
+      <c r="G69" t="s">
+        <v>619</v>
+      </c>
+      <c r="M69" t="s">
+        <v>724</v>
+      </c>
       <c r="N69" t="s">
         <v>237</v>
       </c>
@@ -5057,16 +6551,19 @@
         <v>319</v>
       </c>
       <c r="P69" t="s">
-        <v>320</v>
+        <v>604</v>
       </c>
       <c r="T69" t="s">
-        <v>246</v>
+        <v>725</v>
       </c>
       <c r="U69" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="s">
+        <v>595</v>
+      </c>
       <c r="C70" t="s">
         <v>233</v>
       </c>
@@ -5079,23 +6576,32 @@
       <c r="F70" t="s">
         <v>318</v>
       </c>
+      <c r="G70" t="s">
+        <v>619</v>
+      </c>
+      <c r="M70" t="s">
+        <v>237</v>
+      </c>
       <c r="N70" t="s">
         <v>237</v>
       </c>
       <c r="O70" t="s">
-        <v>319</v>
+        <v>726</v>
       </c>
       <c r="P70" t="s">
-        <v>320</v>
+        <v>604</v>
       </c>
       <c r="T70" t="s">
-        <v>246</v>
+        <v>727</v>
       </c>
       <c r="U70" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="s">
+        <v>595</v>
+      </c>
       <c r="C71" t="s">
         <v>233</v>
       </c>
@@ -5108,6 +6614,12 @@
       <c r="F71" t="s">
         <v>318</v>
       </c>
+      <c r="G71" t="s">
+        <v>626</v>
+      </c>
+      <c r="M71" t="s">
+        <v>728</v>
+      </c>
       <c r="N71" t="s">
         <v>237</v>
       </c>
@@ -5115,16 +6627,19 @@
         <v>319</v>
       </c>
       <c r="P71" t="s">
-        <v>320</v>
+        <v>604</v>
       </c>
       <c r="T71" t="s">
-        <v>280</v>
+        <v>729</v>
       </c>
       <c r="U71" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="s">
+        <v>595</v>
+      </c>
       <c r="C72" t="s">
         <v>233</v>
       </c>
@@ -5137,6 +6652,12 @@
       <c r="F72" t="s">
         <v>318</v>
       </c>
+      <c r="G72" t="s">
+        <v>644</v>
+      </c>
+      <c r="M72" t="s">
+        <v>730</v>
+      </c>
       <c r="N72" t="s">
         <v>237</v>
       </c>
@@ -5144,16 +6665,19 @@
         <v>319</v>
       </c>
       <c r="P72" t="s">
-        <v>320</v>
+        <v>604</v>
       </c>
       <c r="T72" t="s">
-        <v>256</v>
+        <v>731</v>
       </c>
       <c r="U72" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="s">
+        <v>595</v>
+      </c>
       <c r="C73" t="s">
         <v>233</v>
       </c>
@@ -5166,6 +6690,12 @@
       <c r="F73" t="s">
         <v>318</v>
       </c>
+      <c r="G73" t="s">
+        <v>732</v>
+      </c>
+      <c r="M73" t="s">
+        <v>733</v>
+      </c>
       <c r="N73" t="s">
         <v>237</v>
       </c>
@@ -5173,16 +6703,19 @@
         <v>329</v>
       </c>
       <c r="P73" t="s">
-        <v>320</v>
+        <v>604</v>
       </c>
       <c r="T73" t="s">
-        <v>256</v>
+        <v>734</v>
       </c>
       <c r="U73" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="s">
+        <v>595</v>
+      </c>
       <c r="C74" t="s">
         <v>233</v>
       </c>
@@ -5195,6 +6728,12 @@
       <c r="F74" t="s">
         <v>318</v>
       </c>
+      <c r="G74" t="s">
+        <v>637</v>
+      </c>
+      <c r="M74" t="s">
+        <v>735</v>
+      </c>
       <c r="N74" t="s">
         <v>237</v>
       </c>
@@ -5202,16 +6741,19 @@
         <v>326</v>
       </c>
       <c r="P74" t="s">
-        <v>320</v>
+        <v>604</v>
       </c>
       <c r="T74" t="s">
-        <v>287</v>
+        <v>736</v>
       </c>
       <c r="U74" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="s">
+        <v>595</v>
+      </c>
       <c r="C75" t="s">
         <v>233</v>
       </c>
@@ -5224,6 +6766,12 @@
       <c r="F75" t="s">
         <v>318</v>
       </c>
+      <c r="G75" t="s">
+        <v>619</v>
+      </c>
+      <c r="M75" t="s">
+        <v>737</v>
+      </c>
       <c r="N75" t="s">
         <v>237</v>
       </c>
@@ -5231,16 +6779,19 @@
         <v>324</v>
       </c>
       <c r="P75" t="s">
-        <v>320</v>
+        <v>604</v>
       </c>
       <c r="T75" t="s">
-        <v>246</v>
+        <v>738</v>
       </c>
       <c r="U75" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="s">
+        <v>595</v>
+      </c>
       <c r="C76" t="s">
         <v>233</v>
       </c>
@@ -5253,6 +6804,12 @@
       <c r="F76" t="s">
         <v>318</v>
       </c>
+      <c r="G76" t="s">
+        <v>739</v>
+      </c>
+      <c r="M76" t="s">
+        <v>740</v>
+      </c>
       <c r="N76" t="s">
         <v>237</v>
       </c>
@@ -5260,16 +6817,19 @@
         <v>319</v>
       </c>
       <c r="P76" t="s">
-        <v>320</v>
+        <v>604</v>
       </c>
       <c r="T76" t="s">
-        <v>321</v>
+        <v>741</v>
       </c>
       <c r="U76" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="s">
+        <v>595</v>
+      </c>
       <c r="C77" t="s">
         <v>233</v>
       </c>
@@ -5282,6 +6842,12 @@
       <c r="F77" t="s">
         <v>318</v>
       </c>
+      <c r="G77" t="s">
+        <v>316</v>
+      </c>
+      <c r="M77" t="s">
+        <v>742</v>
+      </c>
       <c r="N77" t="s">
         <v>237</v>
       </c>
@@ -5289,16 +6855,19 @@
         <v>319</v>
       </c>
       <c r="P77" t="s">
-        <v>320</v>
+        <v>604</v>
       </c>
       <c r="T77" t="s">
-        <v>287</v>
+        <v>743</v>
       </c>
       <c r="U77" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="s">
+        <v>595</v>
+      </c>
       <c r="C78" t="s">
         <v>233</v>
       </c>
@@ -5311,6 +6880,12 @@
       <c r="F78" t="s">
         <v>260</v>
       </c>
+      <c r="G78" t="s">
+        <v>316</v>
+      </c>
+      <c r="M78" t="s">
+        <v>237</v>
+      </c>
       <c r="N78" t="s">
         <v>237</v>
       </c>
@@ -5321,7 +6896,7 @@
         <v>309</v>
       </c>
       <c r="T78" t="s">
-        <v>287</v>
+        <v>744</v>
       </c>
       <c r="U78" t="s">
         <v>314</v>
@@ -5331,6 +6906,9 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="s">
+        <v>595</v>
+      </c>
       <c r="C79" t="s">
         <v>233</v>
       </c>
@@ -5343,6 +6921,12 @@
       <c r="F79" t="s">
         <v>260</v>
       </c>
+      <c r="G79" t="s">
+        <v>316</v>
+      </c>
+      <c r="M79" t="s">
+        <v>745</v>
+      </c>
       <c r="N79" t="s">
         <v>237</v>
       </c>
@@ -5353,7 +6937,7 @@
         <v>309</v>
       </c>
       <c r="T79" t="s">
-        <v>287</v>
+        <v>746</v>
       </c>
       <c r="U79" t="s">
         <v>310</v>
@@ -5363,6 +6947,9 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="s">
+        <v>595</v>
+      </c>
       <c r="C80" t="s">
         <v>233</v>
       </c>
@@ -5375,6 +6962,12 @@
       <c r="F80" t="s">
         <v>304</v>
       </c>
+      <c r="G80" t="s">
+        <v>316</v>
+      </c>
+      <c r="M80" t="s">
+        <v>237</v>
+      </c>
       <c r="N80" t="s">
         <v>237</v>
       </c>
@@ -5385,7 +6978,7 @@
         <v>237</v>
       </c>
       <c r="T80" t="s">
-        <v>287</v>
+        <v>747</v>
       </c>
       <c r="U80" t="s">
         <v>288</v>
@@ -5401,6 +6994,9 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="s">
+        <v>595</v>
+      </c>
       <c r="C81" t="s">
         <v>233</v>
       </c>
@@ -5413,6 +7009,12 @@
       <c r="F81" t="s">
         <v>299</v>
       </c>
+      <c r="G81" t="s">
+        <v>748</v>
+      </c>
+      <c r="M81" t="s">
+        <v>749</v>
+      </c>
       <c r="N81" t="s">
         <v>237</v>
       </c>
@@ -5423,13 +7025,16 @@
         <v>237</v>
       </c>
       <c r="T81" t="s">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="U81" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="s">
+        <v>595</v>
+      </c>
       <c r="C82" t="s">
         <v>233</v>
       </c>
@@ -5442,6 +7047,12 @@
       <c r="F82" t="s">
         <v>293</v>
       </c>
+      <c r="G82" t="s">
+        <v>316</v>
+      </c>
+      <c r="M82" t="s">
+        <v>652</v>
+      </c>
       <c r="N82" t="s">
         <v>237</v>
       </c>
@@ -5449,16 +7060,19 @@
         <v>294</v>
       </c>
       <c r="P82" t="s">
-        <v>295</v>
+        <v>633</v>
       </c>
       <c r="T82" t="s">
-        <v>287</v>
+        <v>751</v>
       </c>
       <c r="U82" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="s">
+        <v>595</v>
+      </c>
       <c r="C83" t="s">
         <v>233</v>
       </c>
@@ -5471,6 +7085,12 @@
       <c r="F83" t="s">
         <v>284</v>
       </c>
+      <c r="G83" t="s">
+        <v>316</v>
+      </c>
+      <c r="M83" t="s">
+        <v>752</v>
+      </c>
       <c r="N83" t="s">
         <v>237</v>
       </c>
@@ -5481,7 +7101,7 @@
         <v>286</v>
       </c>
       <c r="T83" t="s">
-        <v>287</v>
+        <v>753</v>
       </c>
       <c r="U83" t="s">
         <v>288</v>
@@ -5494,6 +7114,9 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="s">
+        <v>595</v>
+      </c>
       <c r="C84" t="s">
         <v>233</v>
       </c>
@@ -5506,6 +7129,12 @@
       <c r="F84" t="s">
         <v>271</v>
       </c>
+      <c r="G84" t="s">
+        <v>754</v>
+      </c>
+      <c r="M84" t="s">
+        <v>755</v>
+      </c>
       <c r="N84" t="s">
         <v>237</v>
       </c>
@@ -5513,16 +7142,19 @@
         <v>267</v>
       </c>
       <c r="P84" t="s">
-        <v>268</v>
+        <v>701</v>
       </c>
       <c r="T84" t="s">
-        <v>280</v>
+        <v>756</v>
       </c>
       <c r="U84" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="s">
+        <v>595</v>
+      </c>
       <c r="C85" t="s">
         <v>233</v>
       </c>
@@ -5535,6 +7167,12 @@
       <c r="F85" t="s">
         <v>276</v>
       </c>
+      <c r="G85" t="s">
+        <v>316</v>
+      </c>
+      <c r="M85" t="s">
+        <v>749</v>
+      </c>
       <c r="N85" t="s">
         <v>237</v>
       </c>
@@ -5542,16 +7180,19 @@
         <v>267</v>
       </c>
       <c r="P85" t="s">
-        <v>268</v>
+        <v>701</v>
       </c>
       <c r="T85" t="s">
-        <v>277</v>
+        <v>757</v>
       </c>
       <c r="U85" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="s">
+        <v>595</v>
+      </c>
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -5564,6 +7205,12 @@
       <c r="F86" t="s">
         <v>266</v>
       </c>
+      <c r="G86" t="s">
+        <v>758</v>
+      </c>
+      <c r="M86" t="s">
+        <v>749</v>
+      </c>
       <c r="N86" t="s">
         <v>237</v>
       </c>
@@ -5571,16 +7218,19 @@
         <v>267</v>
       </c>
       <c r="P86" t="s">
-        <v>268</v>
+        <v>701</v>
       </c>
       <c r="T86" t="s">
-        <v>240</v>
+        <v>759</v>
       </c>
       <c r="U86" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="s">
+        <v>595</v>
+      </c>
       <c r="C87" t="s">
         <v>233</v>
       </c>
@@ -5593,6 +7243,12 @@
       <c r="F87" t="s">
         <v>271</v>
       </c>
+      <c r="G87" t="s">
+        <v>760</v>
+      </c>
+      <c r="M87" t="s">
+        <v>749</v>
+      </c>
       <c r="N87" t="s">
         <v>237</v>
       </c>
@@ -5600,10 +7256,10 @@
         <v>267</v>
       </c>
       <c r="P87" t="s">
-        <v>268</v>
+        <v>701</v>
       </c>
       <c r="T87" t="s">
-        <v>272</v>
+        <v>761</v>
       </c>
       <c r="U87" t="s">
         <v>273</v>
@@ -5613,6 +7269,9 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="s">
+        <v>595</v>
+      </c>
       <c r="C88" t="s">
         <v>233</v>
       </c>
@@ -5625,6 +7284,12 @@
       <c r="F88" t="s">
         <v>266</v>
       </c>
+      <c r="G88" t="s">
+        <v>619</v>
+      </c>
+      <c r="M88" t="s">
+        <v>762</v>
+      </c>
       <c r="N88" t="s">
         <v>237</v>
       </c>
@@ -5632,16 +7297,19 @@
         <v>267</v>
       </c>
       <c r="P88" t="s">
-        <v>268</v>
+        <v>701</v>
       </c>
       <c r="T88" t="s">
-        <v>246</v>
+        <v>763</v>
       </c>
       <c r="U88" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="s">
+        <v>595</v>
+      </c>
       <c r="C89" t="s">
         <v>233</v>
       </c>
@@ -5654,6 +7322,12 @@
       <c r="F89" t="s">
         <v>260</v>
       </c>
+      <c r="G89" t="s">
+        <v>685</v>
+      </c>
+      <c r="M89" t="s">
+        <v>237</v>
+      </c>
       <c r="N89" t="s">
         <v>237</v>
       </c>
@@ -5664,13 +7338,16 @@
         <v>262</v>
       </c>
       <c r="T89" t="s">
-        <v>246</v>
+        <v>764</v>
       </c>
       <c r="U89" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="s">
+        <v>595</v>
+      </c>
       <c r="C90" t="s">
         <v>233</v>
       </c>
@@ -5683,6 +7360,12 @@
       <c r="F90" t="s">
         <v>255</v>
       </c>
+      <c r="G90" t="s">
+        <v>644</v>
+      </c>
+      <c r="M90" t="s">
+        <v>237</v>
+      </c>
       <c r="N90" t="s">
         <v>237</v>
       </c>
@@ -5693,13 +7376,16 @@
         <v>237</v>
       </c>
       <c r="T90" t="s">
-        <v>256</v>
+        <v>765</v>
       </c>
       <c r="U90" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="s">
+        <v>595</v>
+      </c>
       <c r="C91" t="s">
         <v>233</v>
       </c>
@@ -5712,6 +7398,12 @@
       <c r="F91" t="s">
         <v>251</v>
       </c>
+      <c r="G91" t="s">
+        <v>619</v>
+      </c>
+      <c r="M91" t="s">
+        <v>766</v>
+      </c>
       <c r="N91" t="s">
         <v>237</v>
       </c>
@@ -5719,16 +7411,19 @@
         <v>252</v>
       </c>
       <c r="P91" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T91" t="s">
-        <v>246</v>
+        <v>767</v>
       </c>
       <c r="U91" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="s">
+        <v>595</v>
+      </c>
       <c r="C92" t="s">
         <v>233</v>
       </c>
@@ -5741,6 +7436,12 @@
       <c r="F92" t="s">
         <v>243</v>
       </c>
+      <c r="G92" t="s">
+        <v>619</v>
+      </c>
+      <c r="M92" t="s">
+        <v>237</v>
+      </c>
       <c r="N92" t="s">
         <v>237</v>
       </c>
@@ -5748,10 +7449,10 @@
         <v>244</v>
       </c>
       <c r="P92" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="T92" t="s">
-        <v>246</v>
+        <v>768</v>
       </c>
       <c r="U92" t="s">
         <v>247</v>
@@ -5760,665 +7461,1493 @@
         <v>248</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="93">
-      <c r="A93" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B93" s="1" t="s">
+    <row r="93">
+      <c r="A93" t="s">
+        <v>595</v>
+      </c>
+      <c r="C93" t="s">
+        <v>769</v>
+      </c>
+      <c r="D93" t="s">
+        <v>237</v>
+      </c>
+      <c r="E93" t="s">
+        <v>890</v>
+      </c>
+      <c r="F93" t="s">
+        <v>237</v>
+      </c>
+      <c r="G93" t="s">
+        <v>772</v>
+      </c>
+      <c r="M93" t="s">
+        <v>237</v>
+      </c>
+      <c r="N93" t="s">
+        <v>237</v>
+      </c>
+      <c r="O93" t="s">
+        <v>237</v>
+      </c>
+      <c r="P93" t="s">
+        <v>237</v>
+      </c>
+      <c r="T93" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>595</v>
+      </c>
+      <c r="C94" t="s">
+        <v>769</v>
+      </c>
+      <c r="D94" t="s">
+        <v>237</v>
+      </c>
+      <c r="E94" t="s">
+        <v>889</v>
+      </c>
+      <c r="F94" t="s">
+        <v>237</v>
+      </c>
+      <c r="G94" t="s">
+        <v>772</v>
+      </c>
+      <c r="M94" t="s">
+        <v>237</v>
+      </c>
+      <c r="N94" t="s">
+        <v>237</v>
+      </c>
+      <c r="O94" t="s">
+        <v>237</v>
+      </c>
+      <c r="P94" t="s">
+        <v>237</v>
+      </c>
+      <c r="T94" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>595</v>
+      </c>
+      <c r="C95" t="s">
+        <v>769</v>
+      </c>
+      <c r="D95" t="s">
+        <v>237</v>
+      </c>
+      <c r="E95" t="s">
+        <v>887</v>
+      </c>
+      <c r="F95" t="s">
+        <v>771</v>
+      </c>
+      <c r="G95" t="s">
+        <v>772</v>
+      </c>
+      <c r="M95" t="s">
+        <v>773</v>
+      </c>
+      <c r="N95" t="s">
+        <v>888</v>
+      </c>
+      <c r="O95" t="s">
+        <v>775</v>
+      </c>
+      <c r="P95" t="s">
+        <v>701</v>
+      </c>
+      <c r="T95" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>595</v>
+      </c>
+      <c r="C96" t="s">
+        <v>769</v>
+      </c>
+      <c r="D96" t="s">
+        <v>237</v>
+      </c>
+      <c r="E96" t="s">
+        <v>886</v>
+      </c>
+      <c r="F96" t="s">
+        <v>237</v>
+      </c>
+      <c r="G96" t="s">
+        <v>772</v>
+      </c>
+      <c r="M96" t="s">
+        <v>237</v>
+      </c>
+      <c r="N96" t="s">
+        <v>237</v>
+      </c>
+      <c r="O96" t="s">
+        <v>237</v>
+      </c>
+      <c r="P96" t="s">
+        <v>237</v>
+      </c>
+      <c r="T96" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>595</v>
+      </c>
+      <c r="C97" t="s">
+        <v>769</v>
+      </c>
+      <c r="D97" t="s">
+        <v>237</v>
+      </c>
+      <c r="E97" t="s">
+        <v>885</v>
+      </c>
+      <c r="F97" t="s">
+        <v>237</v>
+      </c>
+      <c r="G97" t="s">
+        <v>772</v>
+      </c>
+      <c r="M97" t="s">
+        <v>237</v>
+      </c>
+      <c r="N97" t="s">
+        <v>237</v>
+      </c>
+      <c r="O97" t="s">
+        <v>237</v>
+      </c>
+      <c r="P97" t="s">
+        <v>237</v>
+      </c>
+      <c r="T97" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>595</v>
+      </c>
+      <c r="C98" t="s">
+        <v>769</v>
+      </c>
+      <c r="D98" t="s">
+        <v>237</v>
+      </c>
+      <c r="E98" t="s">
+        <v>884</v>
+      </c>
+      <c r="F98" t="s">
+        <v>237</v>
+      </c>
+      <c r="G98" t="s">
+        <v>772</v>
+      </c>
+      <c r="M98" t="s">
+        <v>237</v>
+      </c>
+      <c r="N98" t="s">
+        <v>237</v>
+      </c>
+      <c r="O98" t="s">
+        <v>237</v>
+      </c>
+      <c r="P98" t="s">
+        <v>237</v>
+      </c>
+      <c r="T98" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>595</v>
+      </c>
+      <c r="C99" t="s">
+        <v>769</v>
+      </c>
+      <c r="D99" t="s">
+        <v>237</v>
+      </c>
+      <c r="E99" t="s">
+        <v>785</v>
+      </c>
+      <c r="F99" t="s">
+        <v>771</v>
+      </c>
+      <c r="G99" t="s">
+        <v>772</v>
+      </c>
+      <c r="M99" t="s">
+        <v>773</v>
+      </c>
+      <c r="N99" t="s">
+        <v>883</v>
+      </c>
+      <c r="O99" t="s">
+        <v>775</v>
+      </c>
+      <c r="P99" t="s">
+        <v>701</v>
+      </c>
+      <c r="T99" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>595</v>
+      </c>
+      <c r="C100" t="s">
+        <v>769</v>
+      </c>
+      <c r="D100" t="s">
+        <v>237</v>
+      </c>
+      <c r="E100" t="s">
+        <v>882</v>
+      </c>
+      <c r="F100" t="s">
+        <v>237</v>
+      </c>
+      <c r="G100" t="s">
+        <v>772</v>
+      </c>
+      <c r="M100" t="s">
+        <v>237</v>
+      </c>
+      <c r="N100" t="s">
+        <v>237</v>
+      </c>
+      <c r="O100" t="s">
+        <v>237</v>
+      </c>
+      <c r="P100" t="s">
+        <v>237</v>
+      </c>
+      <c r="T100" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>595</v>
+      </c>
+      <c r="C101" t="s">
+        <v>769</v>
+      </c>
+      <c r="D101" t="s">
+        <v>237</v>
+      </c>
+      <c r="E101" t="s">
+        <v>880</v>
+      </c>
+      <c r="F101" t="s">
+        <v>771</v>
+      </c>
+      <c r="G101" t="s">
+        <v>772</v>
+      </c>
+      <c r="M101" t="s">
+        <v>773</v>
+      </c>
+      <c r="N101" t="s">
+        <v>881</v>
+      </c>
+      <c r="O101" t="s">
+        <v>775</v>
+      </c>
+      <c r="P101" t="s">
+        <v>701</v>
+      </c>
+      <c r="T101" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>595</v>
+      </c>
+      <c r="C102" t="s">
+        <v>769</v>
+      </c>
+      <c r="D102" t="s">
+        <v>237</v>
+      </c>
+      <c r="E102" t="s">
+        <v>879</v>
+      </c>
+      <c r="F102" t="s">
+        <v>237</v>
+      </c>
+      <c r="G102" t="s">
+        <v>772</v>
+      </c>
+      <c r="M102" t="s">
+        <v>237</v>
+      </c>
+      <c r="N102" t="s">
+        <v>237</v>
+      </c>
+      <c r="O102" t="s">
+        <v>237</v>
+      </c>
+      <c r="P102" t="s">
+        <v>237</v>
+      </c>
+      <c r="T102" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>595</v>
+      </c>
+      <c r="C103" t="s">
+        <v>769</v>
+      </c>
+      <c r="D103" t="s">
+        <v>237</v>
+      </c>
+      <c r="E103" t="s">
+        <v>877</v>
+      </c>
+      <c r="F103" t="s">
+        <v>771</v>
+      </c>
+      <c r="G103" t="s">
+        <v>772</v>
+      </c>
+      <c r="M103" t="s">
+        <v>773</v>
+      </c>
+      <c r="N103" t="s">
+        <v>878</v>
+      </c>
+      <c r="O103" t="s">
+        <v>775</v>
+      </c>
+      <c r="P103" t="s">
+        <v>701</v>
+      </c>
+      <c r="T103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>595</v>
+      </c>
+      <c r="C104" t="s">
+        <v>769</v>
+      </c>
+      <c r="D104" t="s">
+        <v>237</v>
+      </c>
+      <c r="E104" t="s">
+        <v>875</v>
+      </c>
+      <c r="F104" t="s">
+        <v>771</v>
+      </c>
+      <c r="G104" t="s">
+        <v>772</v>
+      </c>
+      <c r="M104" t="s">
+        <v>773</v>
+      </c>
+      <c r="N104" t="s">
+        <v>876</v>
+      </c>
+      <c r="O104" t="s">
+        <v>775</v>
+      </c>
+      <c r="P104" t="s">
+        <v>701</v>
+      </c>
+      <c r="T104" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>595</v>
+      </c>
+      <c r="C105" t="s">
+        <v>769</v>
+      </c>
+      <c r="D105" t="s">
+        <v>237</v>
+      </c>
+      <c r="E105" t="s">
+        <v>874</v>
+      </c>
+      <c r="F105" t="s">
+        <v>237</v>
+      </c>
+      <c r="G105" t="s">
+        <v>772</v>
+      </c>
+      <c r="M105" t="s">
+        <v>237</v>
+      </c>
+      <c r="N105" t="s">
+        <v>237</v>
+      </c>
+      <c r="O105" t="s">
+        <v>237</v>
+      </c>
+      <c r="P105" t="s">
+        <v>237</v>
+      </c>
+      <c r="T105" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>595</v>
+      </c>
+      <c r="C106" t="s">
+        <v>769</v>
+      </c>
+      <c r="D106" t="s">
+        <v>237</v>
+      </c>
+      <c r="E106" t="s">
+        <v>872</v>
+      </c>
+      <c r="F106" t="s">
+        <v>771</v>
+      </c>
+      <c r="G106" t="s">
+        <v>772</v>
+      </c>
+      <c r="M106" t="s">
+        <v>773</v>
+      </c>
+      <c r="N106" t="s">
+        <v>873</v>
+      </c>
+      <c r="O106" t="s">
+        <v>775</v>
+      </c>
+      <c r="P106" t="s">
+        <v>701</v>
+      </c>
+      <c r="T106" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>595</v>
+      </c>
+      <c r="C107" t="s">
+        <v>769</v>
+      </c>
+      <c r="D107" t="s">
+        <v>237</v>
+      </c>
+      <c r="E107" t="s">
+        <v>870</v>
+      </c>
+      <c r="F107" t="s">
+        <v>771</v>
+      </c>
+      <c r="G107" t="s">
+        <v>772</v>
+      </c>
+      <c r="M107" t="s">
+        <v>773</v>
+      </c>
+      <c r="N107" t="s">
+        <v>871</v>
+      </c>
+      <c r="O107" t="s">
+        <v>775</v>
+      </c>
+      <c r="P107" t="s">
+        <v>701</v>
+      </c>
+      <c r="T107" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>595</v>
+      </c>
+      <c r="C108" t="s">
+        <v>769</v>
+      </c>
+      <c r="D108" t="s">
+        <v>237</v>
+      </c>
+      <c r="E108" t="s">
+        <v>869</v>
+      </c>
+      <c r="F108" t="s">
+        <v>237</v>
+      </c>
+      <c r="G108" t="s">
+        <v>772</v>
+      </c>
+      <c r="M108" t="s">
+        <v>237</v>
+      </c>
+      <c r="N108" t="s">
+        <v>237</v>
+      </c>
+      <c r="O108" t="s">
+        <v>237</v>
+      </c>
+      <c r="P108" t="s">
+        <v>237</v>
+      </c>
+      <c r="T108" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>595</v>
+      </c>
+      <c r="C109" t="s">
+        <v>769</v>
+      </c>
+      <c r="D109" t="s">
+        <v>237</v>
+      </c>
+      <c r="E109" t="s">
+        <v>868</v>
+      </c>
+      <c r="F109" t="s">
+        <v>237</v>
+      </c>
+      <c r="G109" t="s">
+        <v>772</v>
+      </c>
+      <c r="M109" t="s">
+        <v>237</v>
+      </c>
+      <c r="N109" t="s">
+        <v>237</v>
+      </c>
+      <c r="O109" t="s">
+        <v>237</v>
+      </c>
+      <c r="P109" t="s">
+        <v>237</v>
+      </c>
+      <c r="T109" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>595</v>
+      </c>
+      <c r="C110" t="s">
+        <v>769</v>
+      </c>
+      <c r="D110" t="s">
+        <v>237</v>
+      </c>
+      <c r="E110" t="s">
+        <v>867</v>
+      </c>
+      <c r="F110" t="s">
+        <v>237</v>
+      </c>
+      <c r="G110" t="s">
+        <v>772</v>
+      </c>
+      <c r="M110" t="s">
+        <v>237</v>
+      </c>
+      <c r="N110" t="s">
+        <v>237</v>
+      </c>
+      <c r="O110" t="s">
+        <v>237</v>
+      </c>
+      <c r="P110" t="s">
+        <v>237</v>
+      </c>
+      <c r="T110" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>595</v>
+      </c>
+      <c r="C111" t="s">
+        <v>769</v>
+      </c>
+      <c r="D111" t="s">
+        <v>237</v>
+      </c>
+      <c r="E111" t="s">
+        <v>864</v>
+      </c>
+      <c r="F111" t="s">
+        <v>771</v>
+      </c>
+      <c r="G111" t="s">
+        <v>772</v>
+      </c>
+      <c r="M111" t="s">
+        <v>773</v>
+      </c>
+      <c r="N111" t="s">
+        <v>865</v>
+      </c>
+      <c r="O111" t="s">
+        <v>866</v>
+      </c>
+      <c r="P111" t="s">
+        <v>701</v>
+      </c>
+      <c r="T111" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>595</v>
+      </c>
+      <c r="C112" t="s">
+        <v>769</v>
+      </c>
+      <c r="D112" t="s">
+        <v>237</v>
+      </c>
+      <c r="E112" t="s">
+        <v>863</v>
+      </c>
+      <c r="F112" t="s">
+        <v>237</v>
+      </c>
+      <c r="G112" t="s">
+        <v>772</v>
+      </c>
+      <c r="M112" t="s">
+        <v>237</v>
+      </c>
+      <c r="N112" t="s">
+        <v>237</v>
+      </c>
+      <c r="O112" t="s">
+        <v>237</v>
+      </c>
+      <c r="P112" t="s">
+        <v>237</v>
+      </c>
+      <c r="T112" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>595</v>
+      </c>
+      <c r="C113" t="s">
+        <v>769</v>
+      </c>
+      <c r="D113" t="s">
+        <v>237</v>
+      </c>
+      <c r="E113" t="s">
+        <v>862</v>
+      </c>
+      <c r="F113" t="s">
+        <v>237</v>
+      </c>
+      <c r="G113" t="s">
+        <v>772</v>
+      </c>
+      <c r="M113" t="s">
+        <v>237</v>
+      </c>
+      <c r="N113" t="s">
+        <v>237</v>
+      </c>
+      <c r="O113" t="s">
+        <v>237</v>
+      </c>
+      <c r="P113" t="s">
+        <v>237</v>
+      </c>
+      <c r="T113" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>595</v>
+      </c>
+      <c r="C114" t="s">
+        <v>769</v>
+      </c>
+      <c r="D114" t="s">
+        <v>237</v>
+      </c>
+      <c r="E114" t="s">
+        <v>857</v>
+      </c>
+      <c r="F114" t="s">
+        <v>858</v>
+      </c>
+      <c r="G114" t="s">
+        <v>772</v>
+      </c>
+      <c r="M114" t="s">
+        <v>859</v>
+      </c>
+      <c r="N114" t="s">
+        <v>860</v>
+      </c>
+      <c r="O114" t="s">
+        <v>861</v>
+      </c>
+      <c r="P114" t="s">
+        <v>237</v>
+      </c>
+      <c r="T114" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>595</v>
+      </c>
+      <c r="C115" t="s">
+        <v>769</v>
+      </c>
+      <c r="D115" t="s">
+        <v>237</v>
+      </c>
+      <c r="E115" t="s">
+        <v>852</v>
+      </c>
+      <c r="F115" t="s">
+        <v>853</v>
+      </c>
+      <c r="G115" t="s">
+        <v>772</v>
+      </c>
+      <c r="M115" t="s">
+        <v>237</v>
+      </c>
+      <c r="N115" t="s">
+        <v>854</v>
+      </c>
+      <c r="O115" t="s">
+        <v>855</v>
+      </c>
+      <c r="P115" t="s">
+        <v>701</v>
+      </c>
+      <c r="T115" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>595</v>
+      </c>
+      <c r="C116" t="s">
+        <v>769</v>
+      </c>
+      <c r="D116" t="s">
+        <v>237</v>
+      </c>
+      <c r="E116" t="s">
+        <v>847</v>
+      </c>
+      <c r="F116" t="s">
+        <v>848</v>
+      </c>
+      <c r="G116" t="s">
+        <v>772</v>
+      </c>
+      <c r="M116" t="s">
+        <v>237</v>
+      </c>
+      <c r="N116" t="s">
+        <v>849</v>
+      </c>
+      <c r="O116" t="s">
+        <v>850</v>
+      </c>
+      <c r="P116" t="s">
+        <v>701</v>
+      </c>
+      <c r="T116" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>595</v>
+      </c>
+      <c r="C117" t="s">
+        <v>769</v>
+      </c>
+      <c r="D117" t="s">
+        <v>237</v>
+      </c>
+      <c r="E117" t="s">
+        <v>842</v>
+      </c>
+      <c r="F117" t="s">
+        <v>843</v>
+      </c>
+      <c r="G117" t="s">
+        <v>772</v>
+      </c>
+      <c r="M117" t="s">
+        <v>237</v>
+      </c>
+      <c r="N117" t="s">
+        <v>844</v>
+      </c>
+      <c r="O117" t="s">
+        <v>845</v>
+      </c>
+      <c r="P117" t="s">
+        <v>846</v>
+      </c>
+      <c r="T117" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>595</v>
+      </c>
+      <c r="C118" t="s">
+        <v>769</v>
+      </c>
+      <c r="D118" t="s">
+        <v>237</v>
+      </c>
+      <c r="E118" t="s">
+        <v>838</v>
+      </c>
+      <c r="F118" t="s">
+        <v>839</v>
+      </c>
+      <c r="G118" t="s">
+        <v>772</v>
+      </c>
+      <c r="M118" t="s">
+        <v>237</v>
+      </c>
+      <c r="N118" t="s">
+        <v>840</v>
+      </c>
+      <c r="O118" t="s">
+        <v>841</v>
+      </c>
+      <c r="P118" t="s">
+        <v>701</v>
+      </c>
+      <c r="T118" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>595</v>
+      </c>
+      <c r="C119" t="s">
+        <v>769</v>
+      </c>
+      <c r="D119" t="s">
+        <v>237</v>
+      </c>
+      <c r="E119" t="s">
+        <v>835</v>
+      </c>
+      <c r="F119" t="s">
+        <v>828</v>
+      </c>
+      <c r="G119" t="s">
+        <v>772</v>
+      </c>
+      <c r="M119" t="s">
+        <v>237</v>
+      </c>
+      <c r="N119" t="s">
+        <v>836</v>
+      </c>
+      <c r="O119" t="s">
+        <v>837</v>
+      </c>
+      <c r="P119" t="s">
+        <v>701</v>
+      </c>
+      <c r="T119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>595</v>
+      </c>
+      <c r="C120" t="s">
+        <v>769</v>
+      </c>
+      <c r="D120" t="s">
+        <v>237</v>
+      </c>
+      <c r="E120" t="s">
+        <v>831</v>
+      </c>
+      <c r="F120" t="s">
+        <v>832</v>
+      </c>
+      <c r="G120" t="s">
+        <v>772</v>
+      </c>
+      <c r="M120" t="s">
+        <v>237</v>
+      </c>
+      <c r="N120" t="s">
+        <v>833</v>
+      </c>
+      <c r="O120" t="s">
+        <v>834</v>
+      </c>
+      <c r="P120" t="s">
+        <v>701</v>
+      </c>
+      <c r="T120" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>595</v>
+      </c>
+      <c r="C121" t="s">
+        <v>769</v>
+      </c>
+      <c r="D121" t="s">
+        <v>237</v>
+      </c>
+      <c r="E121" t="s">
+        <v>827</v>
+      </c>
+      <c r="F121" t="s">
+        <v>828</v>
+      </c>
+      <c r="G121" t="s">
+        <v>772</v>
+      </c>
+      <c r="M121" t="s">
+        <v>237</v>
+      </c>
+      <c r="N121" t="s">
+        <v>829</v>
+      </c>
+      <c r="O121" t="s">
+        <v>830</v>
+      </c>
+      <c r="P121" t="s">
+        <v>701</v>
+      </c>
+      <c r="T121" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>595</v>
+      </c>
+      <c r="C122" t="s">
+        <v>769</v>
+      </c>
+      <c r="D122" t="s">
+        <v>237</v>
+      </c>
+      <c r="E122" t="s">
+        <v>823</v>
+      </c>
+      <c r="F122" t="s">
+        <v>824</v>
+      </c>
+      <c r="G122" t="s">
+        <v>772</v>
+      </c>
+      <c r="M122" t="s">
+        <v>237</v>
+      </c>
+      <c r="N122" t="s">
+        <v>825</v>
+      </c>
+      <c r="O122" t="s">
+        <v>826</v>
+      </c>
+      <c r="P122" t="s">
+        <v>701</v>
+      </c>
+      <c r="T122" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>595</v>
+      </c>
+      <c r="C123" t="s">
+        <v>769</v>
+      </c>
+      <c r="D123" t="s">
+        <v>237</v>
+      </c>
+      <c r="E123" t="s">
+        <v>818</v>
+      </c>
+      <c r="F123" t="s">
+        <v>819</v>
+      </c>
+      <c r="G123" t="s">
+        <v>772</v>
+      </c>
+      <c r="M123" t="s">
+        <v>237</v>
+      </c>
+      <c r="N123" t="s">
+        <v>820</v>
+      </c>
+      <c r="O123" t="s">
+        <v>821</v>
+      </c>
+      <c r="P123" t="s">
+        <v>822</v>
+      </c>
+      <c r="T123" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>595</v>
+      </c>
+      <c r="C124" t="s">
+        <v>769</v>
+      </c>
+      <c r="D124" t="s">
+        <v>237</v>
+      </c>
+      <c r="E124" t="s">
+        <v>813</v>
+      </c>
+      <c r="F124" t="s">
+        <v>814</v>
+      </c>
+      <c r="G124" t="s">
+        <v>772</v>
+      </c>
+      <c r="M124" t="s">
+        <v>815</v>
+      </c>
+      <c r="N124" t="s">
+        <v>816</v>
+      </c>
+      <c r="O124" t="s">
+        <v>817</v>
+      </c>
+      <c r="P124" t="s">
+        <v>701</v>
+      </c>
+      <c r="T124" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>595</v>
+      </c>
+      <c r="C125" t="s">
+        <v>769</v>
+      </c>
+      <c r="D125" t="s">
+        <v>237</v>
+      </c>
+      <c r="E125" t="s">
+        <v>808</v>
+      </c>
+      <c r="F125" t="s">
+        <v>809</v>
+      </c>
+      <c r="G125" t="s">
+        <v>772</v>
+      </c>
+      <c r="M125" t="s">
+        <v>810</v>
+      </c>
+      <c r="N125" t="s">
+        <v>811</v>
+      </c>
+      <c r="O125" t="s">
+        <v>812</v>
+      </c>
+      <c r="P125" t="s">
+        <v>701</v>
+      </c>
+      <c r="T125" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>595</v>
+      </c>
+      <c r="C126" t="s">
+        <v>769</v>
+      </c>
+      <c r="D126" t="s">
+        <v>237</v>
+      </c>
+      <c r="E126" t="s">
+        <v>804</v>
+      </c>
+      <c r="F126" t="s">
+        <v>805</v>
+      </c>
+      <c r="G126" t="s">
+        <v>772</v>
+      </c>
+      <c r="M126" t="s">
+        <v>237</v>
+      </c>
+      <c r="N126" t="s">
+        <v>806</v>
+      </c>
+      <c r="O126" t="s">
+        <v>807</v>
+      </c>
+      <c r="P126" t="s">
+        <v>701</v>
+      </c>
+      <c r="T126" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>595</v>
+      </c>
+      <c r="C127" t="s">
+        <v>769</v>
+      </c>
+      <c r="D127" t="s">
+        <v>237</v>
+      </c>
+      <c r="E127" t="s">
+        <v>799</v>
+      </c>
+      <c r="F127" t="s">
+        <v>800</v>
+      </c>
+      <c r="G127" t="s">
+        <v>772</v>
+      </c>
+      <c r="M127" t="s">
+        <v>237</v>
+      </c>
+      <c r="N127" t="s">
+        <v>801</v>
+      </c>
+      <c r="O127" t="s">
+        <v>802</v>
+      </c>
+      <c r="P127" t="s">
+        <v>604</v>
+      </c>
+      <c r="T127" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>595</v>
+      </c>
+      <c r="C128" t="s">
+        <v>769</v>
+      </c>
+      <c r="D128" t="s">
+        <v>237</v>
+      </c>
+      <c r="E128" t="s">
+        <v>790</v>
+      </c>
+      <c r="F128" t="s">
+        <v>795</v>
+      </c>
+      <c r="G128" t="s">
+        <v>772</v>
+      </c>
+      <c r="M128" t="s">
+        <v>796</v>
+      </c>
+      <c r="N128" t="s">
+        <v>797</v>
+      </c>
+      <c r="O128" t="s">
+        <v>798</v>
+      </c>
+      <c r="P128" t="s">
+        <v>604</v>
+      </c>
+      <c r="T128" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>595</v>
+      </c>
+      <c r="C129" t="s">
+        <v>769</v>
+      </c>
+      <c r="D129" t="s">
+        <v>237</v>
+      </c>
+      <c r="E129" t="s">
+        <v>791</v>
+      </c>
+      <c r="F129" t="s">
+        <v>792</v>
+      </c>
+      <c r="G129" t="s">
+        <v>772</v>
+      </c>
+      <c r="M129" t="s">
+        <v>237</v>
+      </c>
+      <c r="N129" t="s">
+        <v>793</v>
+      </c>
+      <c r="O129" t="s">
+        <v>794</v>
+      </c>
+      <c r="P129" t="s">
+        <v>701</v>
+      </c>
+      <c r="T129" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>595</v>
+      </c>
+      <c r="C130" t="s">
+        <v>769</v>
+      </c>
+      <c r="D130" t="s">
+        <v>237</v>
+      </c>
+      <c r="E130" t="s">
+        <v>786</v>
+      </c>
+      <c r="F130" t="s">
+        <v>787</v>
+      </c>
+      <c r="G130" t="s">
+        <v>772</v>
+      </c>
+      <c r="M130" t="s">
+        <v>237</v>
+      </c>
+      <c r="N130" t="s">
+        <v>788</v>
+      </c>
+      <c r="O130" t="s">
+        <v>789</v>
+      </c>
+      <c r="P130" t="s">
+        <v>701</v>
+      </c>
+      <c r="T130" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>595</v>
+      </c>
+      <c r="C131" t="s">
+        <v>769</v>
+      </c>
+      <c r="D131" t="s">
+        <v>237</v>
+      </c>
+      <c r="E131" t="s">
+        <v>781</v>
+      </c>
+      <c r="F131" t="s">
+        <v>782</v>
+      </c>
+      <c r="G131" t="s">
+        <v>772</v>
+      </c>
+      <c r="M131" t="s">
+        <v>237</v>
+      </c>
+      <c r="N131" t="s">
+        <v>783</v>
+      </c>
+      <c r="O131" t="s">
+        <v>784</v>
+      </c>
+      <c r="P131" t="s">
+        <v>604</v>
+      </c>
+      <c r="T131" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>595</v>
+      </c>
+      <c r="C132" t="s">
+        <v>769</v>
+      </c>
+      <c r="D132" t="s">
+        <v>237</v>
+      </c>
+      <c r="E132" t="s">
+        <v>776</v>
+      </c>
+      <c r="F132" t="s">
+        <v>777</v>
+      </c>
+      <c r="G132" t="s">
+        <v>772</v>
+      </c>
+      <c r="M132" t="s">
+        <v>237</v>
+      </c>
+      <c r="N132" t="s">
+        <v>778</v>
+      </c>
+      <c r="O132" t="s">
+        <v>779</v>
+      </c>
+      <c r="P132" t="s">
+        <v>701</v>
+      </c>
+      <c r="T132" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="133">
+      <c r="A133" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D93"/>
-      <c r="E93" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J93" s="1" t="s">
+      <c r="C133" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D133" t="s">
+        <v>237</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="J133" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K93" s="1" t="s">
+      <c r="K133" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L93" s="14" t="s">
+      <c r="L133" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M93" s="1"/>
-      <c r="N93" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q93" s="1"/>
-      <c r="S93" s="1" t="s">
+      <c r="M133" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="N133" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q133" s="1"/>
+      <c r="S133" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="94">
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N94" s="17"/>
-      <c r="O94" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="95">
-      <c r="G95" s="15"/>
-      <c r="K95" s="16"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="96">
-      <c r="G96" s="15"/>
-      <c r="K96" s="16"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="97">
-      <c r="G97" s="15"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="98">
-      <c r="G98" s="15"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="99">
-      <c r="A99" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F99" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G99" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K99" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L99" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="M99" s="1"/>
-      <c r="N99" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O99" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="P99" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S99" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="100">
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="K100" s="16"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N100" s="17"/>
-      <c r="O100" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="101">
-      <c r="G101" s="15"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="102">
-      <c r="G102" s="15"/>
-      <c r="K102" s="16"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="103">
-      <c r="G103" s="15"/>
-      <c r="K103" s="16"/>
-      <c r="L103" s="16"/>
-      <c r="M103" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="104">
-      <c r="G104" s="15"/>
-      <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
-      <c r="M104" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="105">
-      <c r="A105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F105" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K105" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L105" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="M105" s="1"/>
-      <c r="N105" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="O105" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="P105" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S105" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="106">
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="K106" s="16"/>
-      <c r="L106" s="16"/>
-      <c r="M106" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N106" s="17"/>
-      <c r="O106" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="107">
-      <c r="G107" s="15"/>
-      <c r="K107" s="16"/>
-      <c r="L107" s="16"/>
-      <c r="M107" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="108">
-      <c r="G108" s="15"/>
-      <c r="K108" s="16"/>
-      <c r="L108" s="16"/>
-      <c r="M108" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="109">
-      <c r="G109" s="15"/>
-      <c r="K109" s="16"/>
-      <c r="L109" s="16"/>
-      <c r="M109" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="110">
-      <c r="G110" s="15"/>
-      <c r="K110" s="16"/>
-      <c r="L110" s="16"/>
-      <c r="M110" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="111">
-      <c r="A111" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F111" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G111" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K111" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="L111" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="M111" s="1"/>
-      <c r="N111" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="O111" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="P111" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S111" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="112">
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="K112" s="16"/>
-      <c r="L112" s="16"/>
-      <c r="M112" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N112" s="17"/>
-      <c r="O112" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="113">
-      <c r="G113" s="15"/>
-      <c r="K113" s="16"/>
-      <c r="L113" s="16"/>
-      <c r="M113" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="114">
-      <c r="G114" s="15"/>
-      <c r="K114" s="16"/>
-      <c r="L114" s="16"/>
-      <c r="M114" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="115">
-      <c r="G115" s="15"/>
-      <c r="K115" s="16"/>
-      <c r="L115" s="16"/>
-      <c r="M115" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="116">
-      <c r="G116" s="15"/>
-      <c r="K116" s="16"/>
-      <c r="L116" s="16"/>
-      <c r="M116" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="117">
-      <c r="A117" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F117" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G117" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K117" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="L117" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M117" s="1"/>
-      <c r="N117" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="O117" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="P117" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S117" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="118">
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="K118" s="16"/>
-      <c r="L118" s="16"/>
-      <c r="M118" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N118" s="17"/>
-      <c r="O118" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="119">
-      <c r="G119" s="15"/>
-      <c r="K119" s="16"/>
-      <c r="L119" s="16"/>
-      <c r="M119" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="120">
-      <c r="G120" s="15"/>
-      <c r="K120" s="16"/>
-      <c r="L120" s="16"/>
-      <c r="M120" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="121">
-      <c r="G121" s="15"/>
-      <c r="K121" s="16"/>
-      <c r="L121" s="16"/>
-      <c r="M121" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="122">
-      <c r="G122" s="15"/>
-      <c r="K122" s="16"/>
-      <c r="L122" s="16"/>
-      <c r="M122" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="123">
-      <c r="A123" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F123" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G123" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K123" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L123" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="M123" s="1"/>
-      <c r="N123" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="O123" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="P123" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S123" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="124">
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="K124" s="16"/>
-      <c r="L124" s="16"/>
-      <c r="M124" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N124" s="17"/>
-      <c r="O124" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="125">
-      <c r="G125" s="15"/>
-      <c r="K125" s="16"/>
-      <c r="L125" s="16"/>
-      <c r="M125" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="126">
-      <c r="G126" s="15"/>
-      <c r="K126" s="16"/>
-      <c r="L126" s="16"/>
-      <c r="M126" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="127">
-      <c r="G127" s="15"/>
-      <c r="K127" s="16"/>
-      <c r="L127" s="16"/>
-      <c r="M127" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="128">
-      <c r="G128" s="15"/>
-      <c r="K128" s="16"/>
-      <c r="L128" s="16"/>
-      <c r="M128" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="129">
-      <c r="A129" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F129" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G129" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J129" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K129" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="L129" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="M129" s="1"/>
-      <c r="N129" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="O129" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="P129" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S129" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="130">
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="K130" s="16"/>
-      <c r="L130" s="16"/>
-      <c r="M130" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N130" s="17"/>
-      <c r="O130" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="131">
-      <c r="G131" s="15"/>
-      <c r="K131" s="16"/>
-      <c r="L131" s="16"/>
-      <c r="M131" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="132">
-      <c r="G132" s="15"/>
-      <c r="K132" s="16"/>
-      <c r="L132" s="16"/>
-      <c r="M132" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="133">
-      <c r="G133" s="15"/>
-      <c r="K133" s="16"/>
-      <c r="L133" s="16"/>
-      <c r="M133" s="6" t="s">
-        <v>48</v>
+      <c r="T133" t="s">
+        <v>237</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="134">
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134" s="15"/>
       <c r="G134" s="15"/>
       <c r="K134" s="16"/>
       <c r="L134" s="16"/>
       <c r="M134" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="N134" s="17"/>
+      <c r="O134" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="135">
-      <c r="A135" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C135" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F135" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G135" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K135" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="L135" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M135" s="1"/>
-      <c r="N135" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="O135" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="P135" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S135" s="7" t="s">
-        <v>44</v>
+      <c r="G135" s="15"/>
+      <c r="K135" s="16"/>
+      <c r="L135" s="16"/>
+      <c r="M135" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="136">
-      <c r="F136" s="15"/>
       <c r="G136" s="15"/>
       <c r="K136" s="16"/>
       <c r="L136" s="16"/>
       <c r="M136" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N136" s="17"/>
-      <c r="O136" s="18"/>
+        <v>47</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="137">
       <c r="G137" s="15"/>
       <c r="K137" s="16"/>
       <c r="L137" s="16"/>
       <c r="M137" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="138">
@@ -6426,84 +8955,84 @@
       <c r="K138" s="16"/>
       <c r="L138" s="16"/>
       <c r="M138" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="139">
-      <c r="G139" s="15"/>
-      <c r="K139" s="16"/>
-      <c r="L139" s="16"/>
-      <c r="M139" s="6" t="s">
-        <v>48</v>
+      <c r="A139" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F139" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G139" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K139" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L139" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M139" s="1"/>
+      <c r="N139" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O139" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P139" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S139" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="140">
+      <c r="F140" s="15"/>
       <c r="G140" s="15"/>
       <c r="K140" s="16"/>
       <c r="L140" s="16"/>
       <c r="M140" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="N140" s="17"/>
+      <c r="O140" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="141">
-      <c r="A141" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C141" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F141" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G141" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K141" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L141" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="M141" s="1"/>
-      <c r="N141" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="O141" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="P141" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S141" s="7" t="s">
-        <v>44</v>
+      <c r="G141" s="15"/>
+      <c r="K141" s="16"/>
+      <c r="L141" s="16"/>
+      <c r="M141" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="142">
-      <c r="F142" s="15"/>
       <c r="G142" s="15"/>
       <c r="K142" s="16"/>
       <c r="L142" s="16"/>
       <c r="M142" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N142" s="17"/>
-      <c r="O142" s="18"/>
+        <v>47</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="143">
       <c r="G143" s="15"/>
       <c r="K143" s="16"/>
       <c r="L143" s="16"/>
       <c r="M143" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="144">
@@ -6511,161 +9040,93 @@
       <c r="K144" s="16"/>
       <c r="L144" s="16"/>
       <c r="M144" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="145">
-      <c r="G145" s="15"/>
-      <c r="K145" s="16"/>
-      <c r="L145" s="16"/>
-      <c r="M145" s="6" t="s">
-        <v>48</v>
+      <c r="A145" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F145" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K145" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L145" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="M145" s="1"/>
+      <c r="N145" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="O145" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P145" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S145" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="146">
+      <c r="F146" s="15"/>
       <c r="G146" s="15"/>
       <c r="K146" s="16"/>
       <c r="L146" s="16"/>
       <c r="M146" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N146" s="17"/>
+      <c r="O146" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="147">
+      <c r="G147" s="15"/>
+      <c r="K147" s="16"/>
+      <c r="L147" s="16"/>
+      <c r="M147" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="148">
+      <c r="G148" s="15"/>
+      <c r="K148" s="16"/>
+      <c r="L148" s="16"/>
+      <c r="M148" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="149">
+      <c r="G149" s="15"/>
+      <c r="K149" s="16"/>
+      <c r="L149" s="16"/>
+      <c r="M149" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="150">
+      <c r="G150" s="15"/>
+      <c r="K150" s="16"/>
+      <c r="L150" s="16"/>
+      <c r="M150" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="147">
-      <c r="A147" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C147" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G147" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J147" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K147" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L147" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="N147" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="O147" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="P147" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S147" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="148">
-      <c r="A148" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C148" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G148" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J148" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K148" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L148" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="N148" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="O148" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="P148" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q148" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="S148" s="23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="149">
-      <c r="A149" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C149" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G149" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J149" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K149" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L149" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="M149" s="1"/>
-      <c r="N149" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="O149" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="P149" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S149" s="23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="150">
-      <c r="C150" s="19"/>
-      <c r="G150" s="15"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="N150" s="22"/>
-      <c r="S150" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="151">
       <c r="A151" s="1" t="s">
@@ -6678,240 +9139,78 @@
         <v>34</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>107</v>
+        <v>58</v>
+      </c>
+      <c r="F151" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="G151" s="15" t="s">
         <v>37</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K151" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="L151" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="N151" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="O151" s="6" t="s">
-        <v>111</v>
+        <v>38</v>
+      </c>
+      <c r="K151" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L151" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M151" s="1"/>
+      <c r="N151" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O151" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="P151" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S151" s="23" t="s">
-        <v>112</v>
+      <c r="S151" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="152">
-      <c r="A152" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C152" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G152" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J152" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K152" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L152" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="N152" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="O152" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="P152" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S152" s="23" t="s">
-        <v>119</v>
-      </c>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="K152" s="16"/>
+      <c r="L152" s="16"/>
+      <c r="M152" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N152" s="17"/>
+      <c r="O152" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="153">
-      <c r="A153" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C153" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G153" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J153" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K153" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L153" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="N153" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O153" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="P153" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S153" s="23" t="s">
-        <v>125</v>
+      <c r="G153" s="15"/>
+      <c r="K153" s="16"/>
+      <c r="L153" s="16"/>
+      <c r="M153" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="154">
-      <c r="A154" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G154" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J154" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K154" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="L154" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="M154" s="1"/>
-      <c r="N154" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="O154" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="P154" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S154" s="23" t="s">
-        <v>132</v>
+      <c r="G154" s="15"/>
+      <c r="K154" s="16"/>
+      <c r="L154" s="16"/>
+      <c r="M154" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="155">
-      <c r="A155" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G155" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J155" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K155" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="L155" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="N155" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="O155" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="P155" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="S155" s="7" t="s">
-        <v>140</v>
+      <c r="G155" s="15"/>
+      <c r="K155" s="16"/>
+      <c r="L155" s="16"/>
+      <c r="M155" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="156">
-      <c r="A156" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G156" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J156" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K156" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="L156" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="N156" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="O156" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="P156" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="S156" s="7" t="s">
-        <v>149</v>
+      <c r="G156" s="15"/>
+      <c r="K156" s="16"/>
+      <c r="L156" s="16"/>
+      <c r="M156" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="157">
@@ -6925,191 +9224,78 @@
         <v>34</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>151</v>
+        <v>61</v>
+      </c>
+      <c r="F157" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="G157" s="15" t="s">
         <v>37</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="K157" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L157" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="N157" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="O157" s="25" t="s">
-        <v>156</v>
+        <v>38</v>
+      </c>
+      <c r="K157" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L157" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="M157" s="1"/>
+      <c r="N157" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="O157" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="P157" s="6" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="S157" s="7" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="158">
+      <c r="F158" s="15"/>
       <c r="G158" s="15"/>
-      <c r="L158" s="4"/>
+      <c r="K158" s="16"/>
+      <c r="L158" s="16"/>
       <c r="M158" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="O158" s="25"/>
+        <v>45</v>
+      </c>
+      <c r="N158" s="17"/>
+      <c r="O158" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="159">
-      <c r="A159" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C159" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G159" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J159" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K159" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="L159" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="N159" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="O159" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="P159" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S159" s="7" t="s">
-        <v>166</v>
+      <c r="G159" s="15"/>
+      <c r="K159" s="16"/>
+      <c r="L159" s="16"/>
+      <c r="M159" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="160">
-      <c r="A160" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C160" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G160" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J160" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K160" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="L160" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="N160" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="O160" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="P160" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S160" s="23" t="s">
-        <v>172</v>
+      <c r="G160" s="15"/>
+      <c r="K160" s="16"/>
+      <c r="L160" s="16"/>
+      <c r="M160" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="161">
-      <c r="A161" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C161" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G161" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="L161" s="21"/>
-      <c r="N161" s="22"/>
-      <c r="O161" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="S161" s="23"/>
+      <c r="G161" s="15"/>
+      <c r="K161" s="16"/>
+      <c r="L161" s="16"/>
+      <c r="M161" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="162">
-      <c r="A162" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C162" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="J162" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="K162" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L162" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="N162" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="O162" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="P162" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S162" s="23" t="s">
-        <v>187</v>
+      <c r="G162" s="15"/>
+      <c r="K162" s="16"/>
+      <c r="L162" s="16"/>
+      <c r="M162" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="163">
@@ -7123,263 +9309,1185 @@
         <v>34</v>
       </c>
       <c r="E163" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F163" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G163" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K163" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L163" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M163" s="1"/>
+      <c r="N163" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="O163" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P163" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S163" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="164">
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="K164" s="16"/>
+      <c r="L164" s="16"/>
+      <c r="M164" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N164" s="17"/>
+      <c r="O164" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="165">
+      <c r="G165" s="15"/>
+      <c r="K165" s="16"/>
+      <c r="L165" s="16"/>
+      <c r="M165" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="166">
+      <c r="G166" s="15"/>
+      <c r="K166" s="16"/>
+      <c r="L166" s="16"/>
+      <c r="M166" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="167">
+      <c r="G167" s="15"/>
+      <c r="K167" s="16"/>
+      <c r="L167" s="16"/>
+      <c r="M167" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="168">
+      <c r="G168" s="15"/>
+      <c r="K168" s="16"/>
+      <c r="L168" s="16"/>
+      <c r="M168" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="169">
+      <c r="A169" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F169" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G169" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K169" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L169" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="M169" s="1"/>
+      <c r="N169" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O169" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P169" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S169" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="170">
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="K170" s="16"/>
+      <c r="L170" s="16"/>
+      <c r="M170" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N170" s="17"/>
+      <c r="O170" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="171">
+      <c r="G171" s="15"/>
+      <c r="K171" s="16"/>
+      <c r="L171" s="16"/>
+      <c r="M171" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="172">
+      <c r="G172" s="15"/>
+      <c r="K172" s="16"/>
+      <c r="L172" s="16"/>
+      <c r="M172" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="173">
+      <c r="G173" s="15"/>
+      <c r="K173" s="16"/>
+      <c r="L173" s="16"/>
+      <c r="M173" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="174">
+      <c r="G174" s="15"/>
+      <c r="K174" s="16"/>
+      <c r="L174" s="16"/>
+      <c r="M174" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="175">
+      <c r="A175" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F175" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G175" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K175" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L175" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M175" s="1"/>
+      <c r="N175" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O175" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P175" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S175" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="176">
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+      <c r="K176" s="16"/>
+      <c r="L176" s="16"/>
+      <c r="M176" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N176" s="17"/>
+      <c r="O176" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="177">
+      <c r="G177" s="15"/>
+      <c r="K177" s="16"/>
+      <c r="L177" s="16"/>
+      <c r="M177" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="178">
+      <c r="G178" s="15"/>
+      <c r="K178" s="16"/>
+      <c r="L178" s="16"/>
+      <c r="M178" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="179">
+      <c r="G179" s="15"/>
+      <c r="K179" s="16"/>
+      <c r="L179" s="16"/>
+      <c r="M179" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="180">
+      <c r="G180" s="15"/>
+      <c r="K180" s="16"/>
+      <c r="L180" s="16"/>
+      <c r="M180" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="181">
+      <c r="A181" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F181" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G181" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K181" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L181" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="M181" s="1"/>
+      <c r="N181" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="O181" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P181" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S181" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="182">
+      <c r="F182" s="15"/>
+      <c r="G182" s="15"/>
+      <c r="K182" s="16"/>
+      <c r="L182" s="16"/>
+      <c r="M182" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N182" s="17"/>
+      <c r="O182" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="183">
+      <c r="G183" s="15"/>
+      <c r="K183" s="16"/>
+      <c r="L183" s="16"/>
+      <c r="M183" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="184">
+      <c r="G184" s="15"/>
+      <c r="K184" s="16"/>
+      <c r="L184" s="16"/>
+      <c r="M184" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="185">
+      <c r="G185" s="15"/>
+      <c r="K185" s="16"/>
+      <c r="L185" s="16"/>
+      <c r="M185" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="186">
+      <c r="G186" s="15"/>
+      <c r="K186" s="16"/>
+      <c r="L186" s="16"/>
+      <c r="M186" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="187">
+      <c r="A187" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C187" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G187" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K187" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L187" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="N187" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="O187" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P187" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S187" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="188">
+      <c r="A188" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G188" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K188" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L188" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N188" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O188" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P188" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q188" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="S188" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="189">
+      <c r="A189" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C189" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G189" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K189" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L189" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="M189" s="1"/>
+      <c r="N189" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="O189" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P189" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S189" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="190">
+      <c r="C190" s="19"/>
+      <c r="G190" s="15"/>
+      <c r="L190" s="4"/>
+      <c r="M190" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N190" s="22"/>
+      <c r="S190" s="23"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="191">
+      <c r="A191" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G191" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J191" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K191" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L191" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="N191" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="O191" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="P191" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S191" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="192">
+      <c r="A192" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C192" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G192" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K192" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L192" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="N192" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="O192" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="P192" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S192" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="193">
+      <c r="A193" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C193" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G193" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K193" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L193" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="N193" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="O193" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P193" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S193" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="194">
+      <c r="A194" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C194" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G194" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K194" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L194" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="M194" s="1"/>
+      <c r="N194" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="O194" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="P194" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S194" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="195">
+      <c r="A195" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G195" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K195" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L195" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="N195" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="O195" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="P195" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="S195" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="196">
+      <c r="A196" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G196" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K196" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L196" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="N196" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="O196" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="P196" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="S196" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="197">
+      <c r="A197" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C197" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G197" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K197" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L197" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="N197" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="O197" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="P197" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="S197" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="198">
+      <c r="G198" s="15"/>
+      <c r="L198" s="4"/>
+      <c r="M198" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O198" s="25"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="199">
+      <c r="A199" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C199" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G199" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K199" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L199" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="N199" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="O199" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="P199" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S199" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="200">
+      <c r="A200" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C200" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G200" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K200" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="L200" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="N200" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="O200" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="P200" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S200" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="201">
+      <c r="A201" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C201" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G201" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="L201" s="21"/>
+      <c r="N201" s="22"/>
+      <c r="O201" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="S201" s="23"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="202">
+      <c r="A202" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C202" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K202" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L202" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="N202" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O202" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="P202" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="S202" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="203">
+      <c r="A203" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C203" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E203" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F163" s="2" t="s">
+      <c r="F203" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G163" s="2" t="s">
+      <c r="G203" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="J163" s="3" t="s">
+      <c r="J203" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K163" s="4" t="s">
+      <c r="K203" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="L163" s="21" t="s">
+      <c r="L203" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="N163" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="O163" s="6" t="s">
+      <c r="O203" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="S163" s="23" t="s">
+      <c r="S203" s="23" t="s">
         <v>195</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="164">
-      <c r="A164" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="204">
+      <c r="A204" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C164" s="19" t="s">
+      <c r="C204" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E204" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F164" s="2" t="s">
+      <c r="F204" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G164" s="2" t="s">
+      <c r="G204" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="J164" s="3" t="s">
+      <c r="J204" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K164" s="26" t="s">
+      <c r="K204" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="L164" s="21"/>
-      <c r="N164" s="1" t="s">
+      <c r="L204" s="21"/>
+      <c r="N204" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="O164" s="6" t="s">
+      <c r="O204" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="P164" s="6" t="s">
+      <c r="P204" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S164" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="165">
-      <c r="A165" s="1" t="s">
+      <c r="S204" s="23"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="205">
+      <c r="A205" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C165" s="19" t="s">
+      <c r="C205" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E205" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F165" s="2" t="s">
+      <c r="F205" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G165" s="2" t="s">
+      <c r="G205" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="J165" s="3" t="s">
+      <c r="J205" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K165" s="26" t="s">
+      <c r="K205" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="L165" s="21" t="s">
+      <c r="L205" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="S165" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="166">
-      <c r="A166" s="1" t="s">
+      <c r="S205" s="23"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="206">
+      <c r="A206" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C166" s="19" t="s">
+      <c r="C206" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E206" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F166" s="2" t="s">
+      <c r="F206" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G166" s="2" t="s">
+      <c r="G206" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="J166" s="3" t="s">
+      <c r="J206" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="K166" s="4" t="s">
+      <c r="K206" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="L166" s="21" t="s">
+      <c r="L206" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="N166" s="22" t="s">
+      <c r="N206" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="O166" s="6" t="s">
+      <c r="O206" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="P166" s="6" t="s">
+      <c r="P206" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="S166" s="7" t="s">
+      <c r="S206" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="167">
-      <c r="A167" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="207">
+      <c r="A207" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C167" s="19" t="s">
+      <c r="C207" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F167" s="27" t="s">
+      <c r="F207" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="G167" s="2" t="s">
+      <c r="G207" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="J167" s="3" t="s">
+      <c r="J207" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="K167" s="4" t="s">
+      <c r="K207" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="L167" s="21" t="s">
+      <c r="L207" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="N167" s="22" t="s">
+      <c r="N207" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="O167" s="25" t="s">
+      <c r="O207" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="P167" s="6" t="s">
+      <c r="P207" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S167" s="23" t="s">
+      <c r="S207" s="23" t="s">
         <v>221</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="168">
-      <c r="A168" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="208">
+      <c r="A208" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C168" s="19" t="s">
+      <c r="C208" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E208" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F168" s="27" t="s">
+      <c r="F208" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="G168" s="2" t="s">
+      <c r="G208" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="J168" s="28" t="s">
+      <c r="J208" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="K168" s="6" t="s">
+      <c r="K208" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="L168" s="24" t="s">
+      <c r="L208" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="M168" s="1"/>
-      <c r="N168" s="22" t="s">
+      <c r="M208" s="1"/>
+      <c r="N208" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="O168" s="6" t="s">
+      <c r="O208" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="P168" s="6" t="s">
+      <c r="P208" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S168" s="23" t="s">
+      <c r="S208" s="23" t="s">
         <v>228</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://github.com/angular/angular/tree/4.3.5/packages/animations " r:id="rId1" ref="N93"/>
-    <hyperlink display="https://angular.io" r:id="rId2" ref="O93"/>
-    <hyperlink display="https://github.com/angular/angular/tree/4.3.5/packages/common" r:id="rId3" ref="N99"/>
-    <hyperlink display="https://angular.io" r:id="rId4" ref="O99"/>
-    <hyperlink display="https://github.com/angular/angular/tree/4.3.5/packages/compiler" r:id="rId5" ref="N105"/>
-    <hyperlink display="https://angular.io" r:id="rId6" ref="O105"/>
-    <hyperlink display="https://github.com/angular/angular/tree/4.3.5/packages/core" r:id="rId7" ref="N111"/>
-    <hyperlink display="https://angular.io" r:id="rId8" ref="O111"/>
-    <hyperlink display="https://github.com/angular/angular/tree/4.3.5/packages/forms" r:id="rId9" ref="N117"/>
-    <hyperlink display="https://angular.io" r:id="rId10" ref="O117"/>
-    <hyperlink display="https://github.com/angular/angular/tree/4.3.5/packages/" r:id="rId11" ref="N123"/>
-    <hyperlink display="https://angular.io" r:id="rId12" ref="O123"/>
-    <hyperlink display="https://github.com/angular/angular/tree/4.3.5/packages/platform-browser" r:id="rId13" ref="N129"/>
-    <hyperlink display="https://angular.io" r:id="rId14" ref="O129"/>
-    <hyperlink display="https://github.com/angular/angular/tree/4.3.5/packages/platform-browser-dynamic" r:id="rId15" ref="N135"/>
-    <hyperlink display="https://angular.io" r:id="rId16" ref="O135"/>
-    <hyperlink display="https://github.com/angular/angular/tree/4.3.5/packages/router" r:id="rId17" ref="N141"/>
-    <hyperlink display="https://angular.io" r:id="rId18" ref="O141"/>
-    <hyperlink display="https://github.com/zloirock/core-js" r:id="rId19" ref="N147"/>
-    <hyperlink display="https://github.com/zloirock/core-js" r:id="rId20" ref="O147"/>
-    <hyperlink display="https://github.com/FortAwesome/Font-Awesome" r:id="rId21" ref="N148"/>
-    <hyperlink display="http://fontawesome.io/" r:id="rId22" ref="O148"/>
-    <hyperlink display="http://fontawesome.io/license/" r:id="rId23" ref="Q148"/>
-    <hyperlink display="https://github.com/valor-software/ngx-bootstrap" r:id="rId24" ref="N149"/>
-    <hyperlink display="https://github.com/valor-software/ng2-file-upload/" r:id="rId25" ref="N151"/>
-    <hyperlink display="https://github.com/michaelbromley/ngx-pagination" r:id="rId26" ref="N152"/>
-    <hyperlink display="https://github.com/valor-software/ng2-select" r:id="rId27" ref="N153"/>
-    <hyperlink display="https://github.com/valor-software/ng2-table" r:id="rId28" ref="N154"/>
-    <hyperlink display="https://github.com/PointInside/ng2-toastr" r:id="rId29" ref="N155"/>
-    <hyperlink display="https://github.com/rbuckton/reflect-metadata" r:id="rId30" ref="N156"/>
-    <hyperlink display="https://github.com/ReactiveX/rxjs" r:id="rId31" ref="N157"/>
-    <hyperlink display="http://reactivex.io/rxjs" r:id="rId32" ref="O157"/>
-    <hyperlink display="https://github.com/tobiasahlin/SpinKit" r:id="rId33" ref="N159"/>
-    <hyperlink display="https://github.com/angular/zone.js" r:id="rId34" ref="N160"/>
-    <hyperlink display="https://github.com/bootprint/bootprint-openapi" r:id="rId35" ref="O161"/>
-    <hyperlink display="https://github.com/wulfsolter/angular2-uuid/issues/11" r:id="rId36" ref="K164"/>
-    <hyperlink display="https://github.com/Microsoft/tslib" r:id="rId37" ref="N166"/>
-    <hyperlink display="https://github.com/moment/moment" r:id="rId38" ref="N167"/>
-    <hyperlink display="http://momentjs.com" r:id="rId39" ref="O167"/>
-    <hyperlink display="https://github.com/benlesh/symbol-observable" r:id="rId40" ref="N168"/>
+    <hyperlink display="https://github.com/angular/angular/tree/4.3.5/packages/animations " r:id="rId1" ref="N133"/>
+    <hyperlink display="https://angular.io" r:id="rId2" ref="O133"/>
+    <hyperlink display="https://github.com/angular/angular/tree/4.3.5/packages/common" r:id="rId3" ref="N139"/>
+    <hyperlink display="https://angular.io" r:id="rId4" ref="O139"/>
+    <hyperlink display="https://github.com/angular/angular/tree/4.3.5/packages/compiler" r:id="rId5" ref="N145"/>
+    <hyperlink display="https://angular.io" r:id="rId6" ref="O145"/>
+    <hyperlink display="https://github.com/angular/angular/tree/4.3.5/packages/core" r:id="rId7" ref="N151"/>
+    <hyperlink display="https://angular.io" r:id="rId8" ref="O151"/>
+    <hyperlink display="https://github.com/angular/angular/tree/4.3.5/packages/forms" r:id="rId9" ref="N157"/>
+    <hyperlink display="https://angular.io" r:id="rId10" ref="O157"/>
+    <hyperlink display="https://github.com/angular/angular/tree/4.3.5/packages/" r:id="rId11" ref="N163"/>
+    <hyperlink display="https://angular.io" r:id="rId12" ref="O163"/>
+    <hyperlink display="https://github.com/angular/angular/tree/4.3.5/packages/platform-browser" r:id="rId13" ref="N169"/>
+    <hyperlink display="https://angular.io" r:id="rId14" ref="O169"/>
+    <hyperlink display="https://github.com/angular/angular/tree/4.3.5/packages/platform-browser-dynamic" r:id="rId15" ref="N175"/>
+    <hyperlink display="https://angular.io" r:id="rId16" ref="O175"/>
+    <hyperlink display="https://github.com/angular/angular/tree/4.3.5/packages/router" r:id="rId17" ref="N181"/>
+    <hyperlink display="https://angular.io" r:id="rId18" ref="O181"/>
+    <hyperlink display="https://github.com/zloirock/core-js" r:id="rId19" ref="N187"/>
+    <hyperlink display="https://github.com/zloirock/core-js" r:id="rId20" ref="O187"/>
+    <hyperlink display="https://github.com/FortAwesome/Font-Awesome" r:id="rId21" ref="N188"/>
+    <hyperlink display="http://fontawesome.io/" r:id="rId22" ref="O188"/>
+    <hyperlink display="http://fontawesome.io/license/" r:id="rId23" ref="Q188"/>
+    <hyperlink display="https://github.com/valor-software/ngx-bootstrap" r:id="rId24" ref="N189"/>
+    <hyperlink display="https://github.com/valor-software/ng2-file-upload/" r:id="rId25" ref="N191"/>
+    <hyperlink display="https://github.com/michaelbromley/ngx-pagination" r:id="rId26" ref="N192"/>
+    <hyperlink display="https://github.com/valor-software/ng2-select" r:id="rId27" ref="N193"/>
+    <hyperlink display="https://github.com/valor-software/ng2-table" r:id="rId28" ref="N194"/>
+    <hyperlink display="https://github.com/PointInside/ng2-toastr" r:id="rId29" ref="N195"/>
+    <hyperlink display="https://github.com/rbuckton/reflect-metadata" r:id="rId30" ref="N196"/>
+    <hyperlink display="https://github.com/ReactiveX/rxjs" r:id="rId31" ref="N197"/>
+    <hyperlink display="http://reactivex.io/rxjs" r:id="rId32" ref="O197"/>
+    <hyperlink display="https://github.com/tobiasahlin/SpinKit" r:id="rId33" ref="N199"/>
+    <hyperlink display="https://github.com/angular/zone.js" r:id="rId34" ref="N200"/>
+    <hyperlink display="https://github.com/bootprint/bootprint-openapi" r:id="rId35" ref="O201"/>
+    <hyperlink display="https://github.com/wulfsolter/angular2-uuid/issues/11" r:id="rId36" ref="K204"/>
+    <hyperlink display="https://github.com/Microsoft/tslib" r:id="rId37" ref="N206"/>
+    <hyperlink display="https://github.com/moment/moment" r:id="rId38" ref="N207"/>
+    <hyperlink display="http://momentjs.com" r:id="rId39" ref="O207"/>
+    <hyperlink display="https://github.com/benlesh/symbol-observable" r:id="rId40" ref="N208"/>
   </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>

--- a/docs/third-party-content/third-party-libraries.xlsx
+++ b/docs/third-party-content/third-party-libraries.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-repositories\winery\winery\docs\third-party-content\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="overview" r:id="rId2" sheetId="1" state="visible"/>
-    <sheet name="references" r:id="rId3" sheetId="2" state="visible"/>
+    <sheet name="overview" sheetId="1" r:id="rId1"/>
+    <sheet name="references" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterate="false" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,2295 +25,2295 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="769">
-  <si>
-    <t xml:space="preserve">Branch/Tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buildtime/Runtime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CQ status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filename of source zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Removed files and directories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subdependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licenses (SPDX identifier if possible)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">License information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mailinglist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breadcrumbs</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="771">
+  <si>
+    <t>Branch/Tag</t>
+  </si>
+  <si>
+    <t>Buildtime/Runtime</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>CQ</t>
+  </si>
+  <si>
+    <t>CQ status</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Filename of source zip</t>
+  </si>
+  <si>
+    <t>Removed files and directories</t>
+  </si>
+  <si>
+    <t>Subdependencies</t>
+  </si>
+  <si>
+    <t>Source URL</t>
+  </si>
+  <si>
+    <t>Project URL</t>
+  </si>
+  <si>
+    <t>Licenses (SPDX identifier if possible)</t>
+  </si>
+  <si>
+    <t>License information</t>
+  </si>
+  <si>
+    <t>Mailinglist</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Breadcrumbs</t>
   </si>
   <si>
     <t xml:space="preserve">master </t>
   </si>
   <si>
-    <t xml:space="preserve">Logback: Logback Classic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch.qos.logback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logback-classic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.common; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.bpmn4tosca.converter.tobpel; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler; org.eclipse.winery.highlevelrestapi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch.qos.logback:logback-core:1.1.1; org.fusesource.jansi:jansi:1.9; org.slf4j:slf4j-api:1.7.6; org.slf4j:slf4j-ext:1.7.6; ch.qos.cal10n:cal10n-api:0.8.1; org.slf4j:slf4j-api:1.7.6; org.slf4j:log4j-over-slf4j:1.7.6; org.slf4j:jul-to-slf4j:1.7.6; dom4j:dom4j:1.6.1; xml-apis:xml-apis:1.0.b2; hsqldb:hsqldb:1.8.0.7; com.h2database:h2:1.2.132; postgresql:postgresql:8.4-701.jdbc4; mysql:mysql-connector-java:5.1.9; javax.mail:mail:1.4; javax.activation:activation:1.1; org.codehaus.janino:janino:2.6.1; org.codehaus.janino:commons-compiler:2.6.1; org.codehaus.groovy:groovy-all:2.0.7; ch.qos.logback:logback-core:1.1.1; org.slf4j:integration:1.7.6; ant:ant-junit:1.6.5; org.apache.geronimo.specs:geronimo-jms_1.1_spec:1.0; javax.servlet:servlet-api:2.5; com.icegreen:greenmail:1.3; org.subethamail:subethasmtp:2.1.0; org.apache.mina:mina-filter-ssl:1.1.7; org.apache.mina:mina-core:1.1.7; org.apache.mina:mina-integration-jmx:1.1.7; org.apache.felix:org.apache.felix.main:2.0.2; org.apache.felix:org.apache.felix.framework:2.0.2; org.apache.felix:org.apache.felix.shell:1.4.1; org.apache.felix:org.apache.felix.shell.tui:1.4.1; org.apache.felix:org.apache.felix.bundlerepository:1.4.2; junit:junit:4.10; org.hamcrest:hamcrest-core:1.1; org.easytesting:fest-assert:1.2; org.easytesting:fest-util:1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://logback.qos.ch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPL-1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:jar:2.0.0-SNAPSHOT &gt; ch.qos.logback:logback-classic:jar:1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch.qos.logback:logback-classic:jar:1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logback: Logback Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logback-core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.codehaus.janino:janino:2.6.1; org.codehaus.janino:commons-compiler:2.6.1; org.fusesource.jansi:jansi:1.9; javax.mail:mail:1.4; javax.activation:activation:1.1; org.apache.geronimo.specs:geronimo-jms_1.1_spec:1.0; org.mockito:mockito-core:1.9.0; org.hamcrest:hamcrest-core:1.1; org.objenesis:objenesis:1.0; javax.servlet:servlet-api:2.5; junit:junit:4.10; org.easytesting:fest-assert:1.2; org.easytesting:fest-util:1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:jar:2.0.0-SNAPSHOT &gt; ch.qos.logback:logback-classic:jar:1.1.1 &gt; ch.qos.logback:logback-core:jar:1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch.qos.logback:logback-core:jar:1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jackson Annoations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jackson-annotations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.model.tosca; org.eclipse.winery.model.tosca.yaml; org.eclipse.winery.common; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.bpmn4tosca.converter.tobpel; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">junit:junit:4.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://github.com/FasterXML/jackson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache-2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.model.bpmn4tosca:jar:2.0.0-SNAPSHOT &gt; com.fasterxml.jackson.core:jackson-annotations:jar:2.8.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.core:jackson-annotations:jar:2.8.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jackson Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jackson-core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.bpmn4tosca.converter.tobpel; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/FasterXML/jackson-core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; com.fasterxml.jackson.core:jackson-core:jar:2.8.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.core:jackson-core:jar:2.8.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jackson Databind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jackson-databind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.core:jackson-annotations:2.8.0; com.fasterxml.jackson.core:jackson-core:2.8.6; junit:junit:4.12; org.powermock:powermock-module-junit4:1.6.5; org.powermock:powermock-module-junit4-common:1.6.5; org.powermock:powermock-core:1.6.5; org.javassist:javassist:3.20.0-GA; org.powermock:powermock-reflect:1.6.5; org.powermock:powermock-api-mockito:1.6.5; org.mockito:mockito-core:1.10.19; org.objenesis:objenesis:2.1; org.hamcrest:hamcrest-core:1.3; org.powermock:powermock-api-mockito-common:1.6.5; org.powermock:powermock-api-support:1.6.5; javax.measure:jsr-275:0.9.1; com.google.jimfs:jimfs:1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; com.fasterxml.jackson.core:jackson-databind:jar:2.8.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.core:jackson-databind:jar:2.8.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jackson Databind: Yaml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.dataformat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jackson-dataformat-yaml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.core:jackson-core:2.8.9; com.fasterxml.jackson.core:jackson-databind:2.8.9; org.yaml:snakeyaml:1.17; com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.ops4j.pax.exam:pax-exam-container-native:4.3.0; org.ops4j.pax.exam:pax-exam:4.3.0; org.ops4j.base:ops4j-base-store:1.5.0; org.ops4j.base:ops4j-base-io:1.5.0; org.ops4j.base:ops4j-base-util-property:1.5.0; org.ops4j.pax.exam:pax-exam-spi:4.3.0; org.ops4j.base:ops4j-base-spi:1.5.0; org.ops4j.pax.tinybundles:tinybundles:2.1.0; biz.aQute.bnd:bndlib:2.3.0; org.osgi:org.osgi.core:4.3.1; org.ops4j.pax.swissbox:pax-swissbox-core:1.8.0; org.ops4j.pax.swissbox:pax-swissbox-lifecycle:1.8.0; org.ops4j.pax.swissbox:pax-swissbox-tracker:1.8.0; org.ops4j.base:ops4j-base-lang:1.5.0; org.ops4j.base:ops4j-base-net:1.5.0; org.ops4j.base:ops4j-base-monitors:1.5.0; org.ops4j.pax.url:pax-url-link:2.2.0; org.ops4j.pax.url:pax-url-classpath:2.2.0; org.ops4j.pax.exam:pax-exam-junit4:4.3.0; org.ops4j.pax.exam:pax-exam-link-mvn:4.3.0; org.ops4j.pax.url:pax-url-aether:2.2.0; org.apache.felix:org.apache.felix.framework:4.0.3; org.slf4j:slf4j-log4j12:1.6.6; org.slf4j:slf4j-api:1.6.6; log4j:log4j:1.2.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/FasterXML/jackson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-core:jar:1.5.16 &gt; com.fasterxml.jackson.dataformat:jackson-dataformat-yaml:jar:2.8.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">io.swagger:swagger-jersey-jaxrs:jar:1.5.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">io.swagger:swagger-jaxrs:jar:1.5.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">io.swagger:swagger-core:jar:1.5.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.dataformat:jackson-dataformat-yaml:jar:2.8.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jackson JAX-RS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.jaxrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jackson-jaxrs-base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.core:jackson-core:2.7.7; com.fasterxml.jackson.core:jackson-databind:2.7.7; com.fasterxml.jackson.core:jackson-annotations:2.7.0; javax.ws.rs:jsr311-api:1.1.1; org.eclipse.jetty:jetty-server:8.1.10.v20130312; org.eclipse.jetty:jetty-servlet:8.1.10.v20130312; com.sun.jersey:jersey-core:1.17.1; com.sun.jersey:jersey-server:1.17.1; asm:asm:3.1; com.sun.jersey:jersey-servlet:1.17.1; junit:junit:4.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://wiki.fasterxml.com/JacksonHome/jackson-jaxrs-base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:jar:2.7.7 &gt; com.fasterxml.jackson.jaxrs:jackson-jaxrs-base:jar:2.7.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:jar:2.7.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.jaxrs:jackson-jaxrs-base:jar:2.7.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jackson JAX-RS: JSON Provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jackson-jaxrs-json-provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.jaxrs:jackson-jaxrs-base:2.7.7; com.fasterxml.jackson.core:jackson-core:2.7.7; com.fasterxml.jackson.core:jackson-databind:2.7.7; com.fasterxml.jackson.core:jackson-annotations:2.7.0; com.fasterxml.jackson.module:jackson-module-jaxb-annotations:2.7.7; org.jboss.resteasy:resteasy-jackson2-provider:3.0.6.Final; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:2.2.1; javax.ws.rs:jsr311-api:1.1.1; org.eclipse.jetty:jetty-server:8.1.10.v20130312; org.eclipse.jetty:jetty-servlet:8.1.10.v20130312; com.sun.jersey:jersey-core:1.17.1; com.sun.jersey:jersey-server:1.17.1; asm:asm:3.1; com.sun.jersey:jersey-servlet:1.17.1; junit:junit:4.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://wiki.fasterxml.com/JacksonHome/jackson-jaxrs-json-provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:jar:2.7.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jackson Annoations: JAXB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jackson-module-jaxb-annotations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.core:jackson-core:2.7.7; com.fasterxml.jackson.core:jackson-annotations:2.7.0; com.fasterxml.jackson.core:jackson-databind:2.7.7; javax.xml.bind:jaxb-api:2.2; javax.xml.stream:stax-api:1.0-2; javax.activation:activation:1.1; javax.ws.rs:jsr311-api:1.1.1; junit:junit:4.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://github.com/FasterXML/jackson-module-jaxb-annotations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:jar:2.7.7 &gt; com.fasterxml.jackson.module:jackson-module-jaxb-annotations:jar:2.7.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.module:jackson-module-jaxb-annotations:jar:2.7.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Findbugs JSR305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.google.code.findbugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jsr305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.rest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://findbugs.sourceforge.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.google.guava:guava:jar:23.0 &gt; com.google.code.findbugs:jsr305:jar:1.3.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.google.guava:guava:jar:23.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.google.code.findbugs:jsr305:jar:1.3.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google Errorprone Annotations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.google.errorprone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">error_prone_annotations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">junit:junit-dep:4.10; org.hamcrest:hamcrest-core:1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://nexus.sonatype.org/oss-repository-hosting.html/error_prone_parent/error_prone_annotations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.google.guava:guava:jar:23.0 &gt; com.google.errorprone:error_prone_annotations:jar:2.0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.google.errorprone:error_prone_annotations:jar:2.0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google Guava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.google.guava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.google.code.findbugs:jsr305:1.3.9; com.google.errorprone:error_prone_annotations:2.0.18; com.google.j2objc:j2objc-annotations:1.1; org.codehaus.mojo:animal-sniffer-annotations:1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/google/guava/guava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.google.guava:guava:jar:23.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2ObjC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.google.j2objc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j2objc-annotations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/google/j2objc/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.google.guava:guava:jar:23.0 &gt; com.google.j2objc:j2objc-annotations:jar:1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.google.j2objc:j2objc-annotations:jar:1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JCABI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.jcabi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jcabi-aspects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.jcabi:jcabi-log:0.15; log4j:log4j:1.2.17; org.slf4j:slf4j-api:1.7.5; org.aspectj:aspectjrt:1.8.4; javax.validation:validation-api:1.1.0.Final; org.hibernate:hibernate-validator:5.0.0.Final; org.jboss.logging:jboss-logging:3.1.1.GA; com.fasterxml:classmate:0.8.0; org.glassfish.web:javax.el:2.2.4; javax.el:javax.el-api:3.0.1-b04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.jcabi.com/jcabi-aspects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; com.jcabi:jcabi-log:jar:0.17.1 &gt; com.jcabi:jcabi-aspects:jar:0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.jcabi:jcabi-log:jar:0.17.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.jcabi:jcabi-aspects:jar:0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JCABI Logging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jcabi-log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.projectlombok:lombok:1.16.6; log4j:log4j:1.2.17; org.slf4j:slf4j-api:1.7.5; com.jcabi:jcabi-aspects:0.22; org.aspectj:aspectjrt:1.8.7; javax.validation:validation-api:1.1.0.Final; org.apache.commons:commons-lang3:3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.jcabi.com/jcabi-log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; com.jcabi:jcabi-log:jar:0.17.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jersey Client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.sun.jersey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jersey-client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">junit:junit:4.8.2; com.sun.net.httpserver:http:20070405; org.osgi:osgi_R4_core:1.0; com.sun.jersey:jersey-core:1.19.3; javax.ws.rs:jsr311-api:1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://jersey.java.net/jersey-client/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDDL-1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.client:jar:2.0.0-SNAPSHOT &gt; com.sun.jersey:jersey-client:jar:1.19.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.sun.jersey:jersey-client:jar:1.19.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jersey Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jersey-core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javax.ws.rs:jsr311-api:1.1.1; javax.mail:mail:1.4; javax.activation:activation:1.1; javax.xml.bind:jaxb-api:2.1; javax.xml.stream:stax-api:1.0-2; org.osgi:org.osgi.core:4.2.0; junit:junit:4.8.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://jersey.java.net/jersey-core/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.client:jar:2.0.0-SNAPSHOT &gt; com.sun.jersey:jersey-core:jar:1.19.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.sun.jersey:jersey-core:jar:1.19.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jersey Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jersey-server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.topologymodeler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javax.mail:mail:1.4; javax.activation:activation:1.1; javax.xml.bind:jaxb-api:2.1; javax.xml.stream:stax-api:1.0-2; javax.annotation:jsr250-api:1.0; org.osgi:osgi_R4_core:1.0; junit:junit:4.8.2; commons-io:commons-io:1.3.2; com.sun.jersey:jersey-core:1.19.3; javax.ws.rs:jsr311-api:1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://jersey.java.net/jersey-server/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; com.sun.jersey:jersey-server:jar:1.19.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.sun.jersey:jersey-server:jar:1.19.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jersey Servlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jersey-servlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javax.servlet:javax.servlet-api:3.0.1; javax.servlet:jsp-api:2.0; javax.servlet:servlet-api:2.4; org.glassfish:javax.ejb:3.1; org.glassfish:javax.transaction:3.1; org.glassfish:javax.annotation:3.1; org.jboss.weld:weld-osgi-bundle:1.1.4.Final; javax.enterprise:cdi-api:1.0-SP4; org.jboss.spec.javax.interceptor:jboss-interceptors-api_1.1_spec:1.0.0.Beta1; javax.annotation:jsr250-api:1.0; org.jboss.weld:weld-api:1.1.Final; org.jboss.weld:weld-core:1.1.4.Final; org.jboss.weld:weld-spi:1.1.Final; org.javassist:javassist:3.14.0-GA; com.google.guava:guava:r06; javax.inject:javax.inject:1; org.jboss.interceptor:jboss-interceptor-spi:2.0.0.CR1; org.jboss.interceptor:jboss-interceptor-core:2.0.0.CR1; org.slf4j:slf4j-api:1.5.6; javassist:javassist:3.12.0.GA; org.jboss.weld:weld-build-config:1.1.4.Final; javax.persistence:persistence-api:1.0; ant:ant:1.6.5; org.osgi:osgi_R4_core:1.0; junit:junit:4.8.2; commons-io:commons-io:1.3.2; com.sun.jersey:jersey-server:1.19.3; com.sun.jersey:jersey-core:1.19.3; javax.ws.rs:jsr311-api:1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://jersey.java.net/jersey-servlet/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; com.sun.jersey:jersey-servlet:jar:1.19.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.sun.jersey:jersey-servlet:jar:1.19.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jersey Multipart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.sun.jersey.contribs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jersey-multipart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.jvnet.mimepull:mimepull:1.9.3; com.sun.xml.bind:jaxb-impl:2.2.3-1; javax.xml.bind:jaxb-api:2.2.2; javax.xml.stream:stax-api:1.0-2; javax.activation:activation:1.1; junit:junit:4.8.2; com.sun.jersey:jersey-core:1.19.3; javax.ws.rs:jsr311-api:1.1.1; com.sun.jersey:jersey-grizzly2:1.19.3; org.glassfish.grizzly:grizzly-http:2.2.16; org.glassfish.grizzly:grizzly-framework:2.2.16; org.glassfish.grizzly:grizzly-http-server:2.2.16; org.glassfish.grizzly:grizzly-rcm:2.2.16; com.sun.jersey:jersey-server:1.19.3; com.sun.jersey:jersey-client:1.19.3; com.sun.jersey.contribs:jersey-apache-client:1.19.3; commons-httpclient:commons-httpclient:3.1; commons-logging:commons-logging:1.0.4; commons-codec:commons-codec:1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://jersey.java.net/jersey-contribs/jersey-multipart/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; com.sun.jersey.contribs:jersey-multipart:jar:1.19.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.sun.jersey.contribs:jersey-multipart:jar:1.19.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAXB Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.sun.xml.bind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jaxb-core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.yaml.converter; org.eclipse.winery.repository.rest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT &gt; com.sun.xml.bind:jaxb-core:jar:2.2.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.sun.xml.bind:jaxb-core:jar:2.2.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAXB Impl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jaxb-impl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT &gt; com.sun.xml.bind:jaxb-impl:jar:2.2.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.sun.xml.bind:jaxb-impl:jar:2.2.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.cli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://jaxb.java.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.sun.xml.bind:jaxb-impl:jar:2.2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.sun.xml.bind:jaxb-impl:jar:2.2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Commons: Beanutils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-beanutils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.rest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.configuration:jar:2.0.0-SNAPSHOT &gt; commons-beanutils:commons-beanutils:jar:1.9.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-beanutils:commons-beanutils:jar:1.9.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Commons: CLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-cli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.cli:jar:2.0.0-SNAPSHOT &gt; commons-cli:commons-cli:jar:1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-cli:commons-cli:jar:1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Commons: Codec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-codec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">junit:junit:3.8.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://jakarta.apache.org/commons/codec/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.highlevelrestapi:jar:2.0.0-SNAPSHOT &gt; commons-codec:commons-codec:jar:1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-codec:commons-codec:jar:1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">junit:junit:4.11; org.hamcrest:hamcrest-core:1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://commons.apache.org/proper/commons-codec/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.apache.httpcomponents:httpclient:jar:4.5.2 &gt; commons-codec:commons-codec:jar:1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.apache.httpcomponents:httpclient:jar:4.5.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-codec:commons-codec:jar:1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Commons: Collections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-collections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://commons.apache.org/collections/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.bpmn4tosca.converter.tobpel:jar:2.0.0-SNAPSHOT &gt; org.apache.velocity:velocity:jar:1.7 &gt; commons-collections:commons-collections:jar:3.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.apache.velocity:velocity:jar:1.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-collections:commons-collections:jar:3.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Commons: Configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; commons-configuration:commons-configuration:jar:1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-configuration:commons-configuration:jar:1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Commons: HTTPClient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-httpclient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://jakarta.apache.org/httpcomponents/httpclient-3.x/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache License</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.highlevelrestapi:jar:2.0.0-SNAPSHOT &gt; commons-httpclient:commons-httpclient:jar:3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-httpclient:commons-httpclient:jar:3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Commons: IO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-io</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; commons-io:commons-io:jar:2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-io:commons-io:jar:2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Commons: Commons-Lang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-lang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://commons.apache.org/lang/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.bpmn4tosca.converter.tobpel:jar:2.0.0-SNAPSHOT &gt; org.apache.velocity:velocity:jar:1.7 &gt; commons-lang:commons-lang:jar:2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-lang:commons-lang:jar:2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Commons: Commons-Logging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-logging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">junit:junit:3.8.1; log4j:log4j:1.2.17; logkit:logkit:1.0.1; avalon-framework:avalon-framework:4.1.5; javax.servlet:servlet-api:2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://commons.apache.org/proper/commons-logging/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.apache.httpcomponents:httpclient:jar:4.5.2 &gt; commons-logging:commons-logging:jar:1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-logging:commons-logging:jar:1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runtime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">io.github.adr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e-adr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.model.tosca.yaml; org.eclipse.winery.common; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new</t>
-  </si>
-  <si>
-    <t xml:space="preserve">koppor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/adr/e-adr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPL-2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/adr/e-adr/blob/master/LICENSE.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.model.tosca:jar:2.0.0-SNAPSHOT &gt; io.github.adr:e-adr:jar:1.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">io.github.adr:e-adr:jar:1.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swagger Annotations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">io.swagger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">swagger-annotations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/swagger-api/swagger-core/modules/swagger-annotations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache License 2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-core:jar:1.5.16 &gt; io.swagger:swagger-models:jar:1.5.16 &gt; io.swagger:swagger-annotations:jar:1.5.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">io.swagger:swagger-models:jar:1.5.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">io.swagger:swagger-annotations:jar:1.5.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swagger Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">swagger-core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.apache.commons:commons-lang3:3.2.1; org.slf4j:slf4j-api:1.7.22; com.fasterxml.jackson.core:jackson-annotations:2.8.9; com.fasterxml.jackson.core:jackson-databind:2.8.9; com.fasterxml.jackson.core:jackson-core:2.8.9; com.fasterxml.jackson.dataformat:jackson-dataformat-yaml:2.8.9; org.yaml:snakeyaml:1.17; io.swagger:swagger-models:1.5.16; io.swagger:swagger-annotations:1.5.16; joda-time:joda-time:2.9.1; com.google.guava:guava:20.0; org.joda:joda-convert:1.8.1; ch.qos.logback:logback-classic:1.2.3; org.slf4j:slf4j-ext:1.7.22; ch.qos.cal10n:cal10n-api:0.8.1; ch.qos.logback:logback-core:1.2.3; javax.validation:validation-api:1.1.0.Final; org.immutables:value:2.4.4; org.testng:testng:6.10; com.beust:jcommander:1.48; commons-io:commons-io:2.5; javax.ws.rs:jsr311-api:1.1.1; org.glassfish.hk2.external:javax.inject:2.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/swagger-api/swagger-core/modules/swagger-core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-core:jar:1.5.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swagger JAX-RS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">swagger-jaxrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.core:jackson-databind:2.8.9; com.fasterxml.jackson.core:jackson-core:2.8.9; io.swagger:swagger-core:1.5.16; org.apache.commons:commons-lang3:3.2.1; org.slf4j:slf4j-api:1.7.22; com.fasterxml.jackson.core:jackson-annotations:2.8.9; com.fasterxml.jackson.dataformat:jackson-dataformat-yaml:2.8.9; org.yaml:snakeyaml:1.17; io.swagger:swagger-models:1.5.16; io.swagger:swagger-annotations:1.5.16; javax.validation:validation-api:1.1.0.Final; io.swagger:swagger-core:1.5.16; javax.servlet:servlet-api:2.5; javax.ws.rs:jsr311-api:1.1.1; org.reflections:reflections:0.9.11; org.javassist:javassist:3.21.0-GA; com.google.guava:guava:20.0; ch.qos.logback:logback-classic:1.2.3; org.slf4j:slf4j-ext:1.7.22; ch.qos.cal10n:cal10n-api:0.8.1; ch.qos.logback:logback-core:1.2.3; org.testng:testng:6.10; com.beust:jcommander:1.48; com.jayway.restassured:rest-assured:2.8.0; org.codehaus.groovy:groovy:2.4.4; org.codehaus.groovy:groovy-xml:2.4.4; org.apache.httpcomponents:httpclient:4.5.1; org.apache.httpcomponents:httpcore:4.4.3; commons-logging:commons-logging:1.2; commons-codec:commons-codec:1.9; org.apache.httpcomponents:httpmime:4.5.1; org.hamcrest:hamcrest-core:1.3; org.hamcrest:hamcrest-library:1.3; org.ccil.cowan.tagsoup:tagsoup:1.2.1; com.jayway.restassured:json-path:2.8.0; org.codehaus.groovy:groovy-json:2.4.4; com.jayway.restassured:rest-assured-common:2.8.0; com.jayway.restassured:xml-path:2.8.0; org.mockito:mockito-all:1.9.5; commons-io:commons-io:2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/swagger-api/swagger-core/modules/swagger-jaxrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swagger Jersey/JAX-RS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">swagger-jersey-jaxrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">io.swagger:swagger-jaxrs:1.5.16; com.fasterxml.jackson.core:jackson-databind:2.8.9; com.fasterxml.jackson.core:jackson-core:2.8.9; io.swagger:swagger-core:1.5.16; org.apache.commons:commons-lang3:3.2.1; org.slf4j:slf4j-api:1.7.22; com.fasterxml.jackson.core:jackson-annotations:2.8.9; com.fasterxml.jackson.dataformat:jackson-dataformat-yaml:2.8.9; org.yaml:snakeyaml:1.17; io.swagger:swagger-models:1.5.16; io.swagger:swagger-annotations:1.5.16; javax.validation:validation-api:1.1.0.Final; javax.ws.rs:jsr311-api:1.1.1; org.reflections:reflections:0.9.11; org.javassist:javassist:3.21.0-GA; com.google.guava:guava:20.0; com.sun.jersey.contribs:jersey-multipart:1.13; org.jvnet:mimepull:1.6; com.sun.jersey:jersey-core:1.13; org.testng:testng:6.10; com.beust:jcommander:1.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/swagger-api/swagger-core/modules/swagger-jersey-jaxrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swagger Models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">swagger-models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.core:jackson-annotations:2.8.9; org.slf4j:slf4j-api:1.7.22; io.swagger:swagger-annotations:1.5.16; org.testng:testng:6.10; com.beust:jcommander:1.48; com.openpojo:openpojo:0.8.0; org.powermock:powermock-module-testng:1.6.4; org.powermock:powermock-core:1.6.4; org.powermock:powermock-reflect:1.6.4; org.javassist:javassist:3.21.0-GA; org.powermock:powermock-module-testng-common:1.6.4; org.powermock:powermock-api-mockito:1.6.4; org.powermock:powermock-api-support:1.6.4; org.mockito:mockito-core:1.10.19; org.hamcrest:hamcrest-core:1.1; org.objenesis:objenesis:2.1; asm:asm:3.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/swagger-api/swagger-core/modules/swagger-models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-core:jar:1.5.16 &gt; io.swagger:swagger-models:jar:1.5.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javax.servlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javax.servlet-api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://servlet-spec.java.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPL-2.0-with-classpath-exception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; javax.servlet:javax.servlet-api:jar:3.1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javax.servlet:javax.servlet-api:jar:3.1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javax.validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validation-api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.0.Final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.testng:testng:6.8; junit:junit:4.10; org.hamcrest:hamcrest-core:1.1; org.beanshell:bsh:2.0b4; com.beust:jcommander:1.27; org.yaml:snakeyaml:1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://beanvalidation.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; com.jcabi:jcabi-log:jar:0.17.1 &gt; com.jcabi:jcabi-aspects:jar:0.22 &gt; javax.validation:validation-api:jar:1.1.0.Final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javax.validation:validation-api:jar:1.1.0.Final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javax.websocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javax.websocket-api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javax.websocket:javax.websocket-client-api:1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://websocket-spec.java.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDDL-1.1 AND GPL-2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; javax.websocket:javax.websocket-api:jar:1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javax.websocket:javax.websocket-api:jar:1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javax.ws.rs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jsr311-api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://jsr311.dev.java.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDDL License</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.client:jar:2.0.0-SNAPSHOT &gt; com.sun.jersey:jersey-core:jar:1.19.3 &gt; javax.ws.rs:jsr311-api:jar:1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javax.ws.rs:jsr311-api:jar:1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jstl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no url defined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown license</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; jstl:jstl:jar:1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jstl:jstl:jar:1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JCIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net.jcip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jcip-annotations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://jcip.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.collections:eclipse-collections:jar:8.2.0 &gt; net.jcip:jcip-annotations:jar:1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.collections:eclipse-collections:jar:8.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net.jcip:jcip-annotations:jar:1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Commons: Commons-Compress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.apache.commons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-compress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">junit:junit:4.11; org.hamcrest:hamcrest-core:1.3; org.tukaani:xz:1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://commons.apache.org/proper/commons-compress/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.apache.commons:commons-compress:jar:1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.apache.commons:commons-compress:jar:1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Commons: Configuration2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-configuration2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.configuration:jar:2.0.0-SNAPSHOT &gt; org.apache.commons:commons-configuration2:jar:2.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.apache.commons:commons-configuration2:jar:2.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Commons: Commons-Lang 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-lang3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.topologymodeler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; org.apache.commons:commons-lang3:jar:3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.apache.commons:commons-lang3:jar:3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.apache.commons:commons-lang3:jar:3.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.apache.commons:commons-lang3:jar:3.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ApacheHTTP Client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.apache.httpcomponents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">httpclient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.apache.httpcomponents:httpcore:4.4.4; commons-logging:commons-logging:1.2; commons-codec:commons-codec:1.9; junit:junit:4.11; org.hamcrest:hamcrest-core:1.3; org.mockito:mockito-core:1.8.5; org.objenesis:objenesis:1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hc.apache.org/httpcomponents-client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.apache.httpcomponents:httpclient:jar:4.5.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ApacheHTTP Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">httpcore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">junit:junit:4.11; org.hamcrest:hamcrest-core:1.3; org.mockito:mockito-core:1.8.5; org.objenesis:objenesis:1.0; commons-logging:commons-logging:1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hc.apache.org/httpcomponents-core-ga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.apache.httpcomponents:httpclient:jar:4.5.2 &gt; org.apache.httpcomponents:httpcore:jar:4.4.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.apache.httpcomponents:httpcore:jar:4.4.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tika Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.apache.tika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tika-core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.osgi:org.osgi.core:4.0.0; org.osgi:org.osgi.compendium:4.0.0; biz.aQute:bndlib:1.43.0; junit:junit:4.10; org.hamcrest:hamcrest-core:1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://tika.apache.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.apache.tika:tika-core:jar:1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.apache.tika:tika-core:jar:1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.apache.velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-collections:commons-collections:3.2.1; commons-lang:commons-lang:2.4; oro:oro:2.0.8; jdom:jdom:1.0; commons-logging:commons-logging:1.1; log4j:log4j:1.2.12; javax.servlet:servlet-api:2.3; logkit:logkit:2.0; ant:ant:1.6; werken-xpath:werken-xpath:0.9.4; junit:junit:3.8.1; hsqldb:hsqldb:1.7.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://velocity.apache.org/engine/devel/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.bpmn4tosca.converter.tobpel:jar:2.0.0-SNAPSHOT &gt; org.apache.velocity:velocity:jar:1.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AspectJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.aspectj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aspectjrt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.aspectj.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; com.jcabi:jcabi-log:jar:0.17.1 &gt; com.jcabi:jcabi-aspects:jar:0.22 &gt; org.aspectj:aspectjrt:jar:1.8.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.aspectj:aspectjrt:jar:1.8.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maven Animal-Sniffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.codehaus.mojo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animal-sniffer-annotations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://mojo.codehaus.org/animal-sniffer/animal-sniffer-annotations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.google.guava:guava:jar:23.0 &gt; org.codehaus.mojo:animal-sniffer-annotations:jar:1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.codehaus.mojo:animal-sniffer-annotations:jar:1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse Collections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.collections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eclipse-collections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.collections:eclipse-collections-api:8.2.0; net.jcip:jcip-annotations:1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/eclipse/eclipse-collections/eclipse-collections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse Distribution License - v 1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.collections:eclipse-collections:jar:8.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse Collections-API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eclipse-collections-api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net.jcip:jcip-annotations:1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/eclipse/eclipse-collections/eclipse-collections-api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.collections:eclipse-collections:jar:8.2.0 &gt; org.eclipse.collections:eclipse-collections-api:jar:8.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.collections:eclipse-collections-api:jar:8.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse JDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.jdt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.jdt.annotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.model.tosca.yaml; org.eclipse.winery.common; org.eclipse.winery.repository.configuration; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.eclipse.org/jdt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse Public License</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.model.tosca:jar:2.0.0-SNAPSHOT &gt; org.eclipse.jdt:org.eclipse.jdt.annotation:jar:2.1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.jdt:org.eclipse.jdt.annotation:jar:2.1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jetty Servlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.jetty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jetty-servlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4.2.v20170220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.jetty:jetty-servlet:jar:9.4.2.v20170220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.jetty:jetty-servlet:jar:9.4.2.v20170220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jetty Servlets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jetty-servlets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.jetty:jetty-servlets:jar:9.4.2.v20170220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.jetty:jetty-servlets:jar:9.4.2.v20170220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jetty TestHelper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.jetty.toolchain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jetty-test-helper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">junit:junit:4.12; org.hamcrest:hamcrest-library:1.3; org.hamcrest:hamcrest-core:1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.eclipse.org/jetty/jetty-toolchain/jetty-test-helper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.jetty.toolchain:jetty-test-helper:jar:4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.jetty.toolchain:jetty-test-helper:jar:4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.jgit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8.0.201706111038-r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.jgit:org.eclipse.jgit:jar:4.8.0.201706111038-r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.jgit:org.eclipse.jgit:jar:4.8.0.201706111038-r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9.0.201710071750-r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.jgit:org.eclipse.jgit:jar:4.9.0.201710071750-r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.jgit:org.eclipse.jgit:jar:4.9.0.201710071750-r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse Virgo Parser Manifest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.virgo.util</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.virgo.util.parser.manifest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5.0.RELEASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.eclipse.org/virgo/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:jar:2.0.0-SNAPSHOT &gt; org.eclipse.virgo.util:org.eclipse.virgo.util.parser.manifest:jar:3.5.0.RELEASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.virgo.util:org.eclipse.virgo.util.parser.manifest:jar:3.5.0.RELEASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winery Common</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery.common</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch.qos.logback:logback-classic:1.1.1; ch.qos.logback:logback-core:1.1.1; org.slf4j:slf4j-api:1.7.6; com.jcabi:jcabi-log:0.17.1; com.jcabi:jcabi-aspects:0.22; org.aspectj:aspectjrt:1.8.4; javax.validation:validation-api:1.1.0.Final; com.fasterxml.jackson.core:jackson-core:2.8.6; com.fasterxml.jackson.core:jackson-annotations:2.8.0; com.fasterxml.jackson.core:jackson-databind:2.8.6; org.eclipse.winery:org.eclipse.winery.model.tosca:2.0.0-SNAPSHOT; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; io.github.adr:e-adr:1.0.0; org.slf4j:jcl-over-slf4j:1.7.6; jstl:jstl:1.2; commons-io:commons-io:2.4; org.apache.commons:commons-lang3:3.1; junit:junit:4.11; org.hamcrest:hamcrest-core:1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eclipse.github.io/winery/org.eclipse.winery.common</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winery Generators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery.generators.ia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.common:2.0.0-SNAPSHOT; com.jcabi:jcabi-log:0.17.1; com.jcabi:jcabi-aspects:0.22; org.aspectj:aspectjrt:1.8.4; javax.validation:validation-api:1.1.0.Final; com.fasterxml.jackson.core:jackson-core:2.8.6; com.fasterxml.jackson.core:jackson-annotations:2.8.0; com.fasterxml.jackson.core:jackson-databind:2.8.6; jstl:jstl:1.2; org.apache.commons:commons-lang3:3.1; ch.qos.logback:logback-classic:1.1.1; ch.qos.logback:logback-core:1.1.1; org.slf4j:slf4j-api:1.7.6; org.slf4j:jcl-over-slf4j:1.7.6; org.eclipse.winery:org.eclipse.winery.model.tosca:2.0.0-SNAPSHOT; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; io.github.adr:e-adr:1.0.0; org.apache.commons:commons-compress:1.6; org.tukaani:xz:1.3; commons-io:commons-io:2.4; junit:junit:4.11; org.hamcrest:hamcrest-core:1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eclipse.github.io/winery/org.eclipse.winery.generators.ia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.generators.ia:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.generators.ia:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winery BPMN4Tosca Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery.model.bpmn4tosca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.jgrapht:jgrapht-core:0.9.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.eclipse.org/winery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.bpmn4tosca.converter.tobpel:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.model.bpmn4tosca:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.model.bpmn4tosca:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winery CSAR Toscametafile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery.model.csar.toscametafile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch.qos.logback:logback-classic:1.1.1; ch.qos.logback:logback-core:1.1.1; org.slf4j:slf4j-api:1.7.6; org.eclipse.virgo.util:org.eclipse.virgo.util.parser.manifest:3.5.0.RELEASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winery Selfservice Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery.model.selfservice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eclipse.github.io/winery/org.eclipse.winery.model.selfservice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.model.selfservice:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.model.selfservice:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winery Tosca Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery.model.tosca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; io.github.adr:e-adr:1.0.0; org.slf4j:slf4j-api:1.7.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.model.tosca:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.model.tosca:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winery Tosca Yaml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery.model.tosca.yaml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; io.github.adr:e-adr:1.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.model.tosca.yaml:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.model.tosca.yaml:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winery Repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery.repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.rest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch.qos.logback:logback-classic:1.1.1; ch.qos.logback:logback-core:1.1.1; org.slf4j:slf4j-api:1.7.6; com.fasterxml.jackson.core:jackson-databind:2.8.6; com.fasterxml.jackson.core:jackson-core:2.8.6; com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.apache.commons:commons-compress:1.6; org.tukaani:xz:1.3; commons-io:commons-io:2.4; xerces:xercesImpl:2.9.1; xml-apis:xml-apis:1.3.04; org.apache.tika:tika-core:1.3; org.apache.commons:commons-lang3:3.1; org.eclipse.winery:org.eclipse.winery.model.selfservice:2.0.0-SNAPSHOT; org.slf4j:jcl-over-slf4j:1.7.6; org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:2.0.0-SNAPSHOT; org.eclipse.virgo.util:org.eclipse.virgo.util.parser.manifest:3.5.0.RELEASE; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:2.7.7; com.fasterxml.jackson.jaxrs:jackson-jaxrs-base:2.7.7; com.fasterxml.jackson.module:jackson-module-jaxb-annotations:2.7.7; org.slf4j:slf4j-ext:1.7.2; org.eclipse.winery:org.eclipse.winery.common:2.0.0-SNAPSHOT; com.jcabi:jcabi-log:0.17.1; com.jcabi:jcabi-aspects:0.22; org.aspectj:aspectjrt:1.8.4; javax.validation:validation-api:1.1.0.Final; org.eclipse.winery:org.eclipse.winery.model.tosca:2.0.0-SNAPSHOT; io.github.adr:e-adr:1.0.0; jstl:jstl:1.2; commons-configuration:commons-configuration:1.9; org.eclipse.jgit:org.eclipse.jgit:4.8.0.201706111038-r; com.sun.xml.bind:jaxb-impl:2.2.5; junit:junit:4.11; org.hamcrest:hamcrest-core:1.3; com.google.guava:guava:23.0; com.google.code.findbugs:jsr305:1.3.9; com.google.errorprone:error_prone_annotations:2.0.18; com.google.j2objc:j2objc-annotations:1.1; org.codehaus.mojo:animal-sniffer-annotations:1.14; org.xmlunit:xmlunit-core:2.3.0; org.xmlunit:xmlunit-matchers:2.3.0; org.skyscreamer:jsonassert:1.4.0; com.vaadin.external.google:android-json:0.0.20131108.vaadin1; org.eclipse.winery:org.eclipse.winery.repository.configuration:2.0.0-SNAPSHOT; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; org.apache.commons:commons-configuration2:2.1.1; commons-beanutils:commons-beanutils:1.9.3; org.eclipse.collections:eclipse-collections:8.2.0; org.eclipse.collections:eclipse-collections-api:8.2.0; net.jcip:jcip-annotations:1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eclipse.github.io/winery/org.eclipse.winery.repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winery Repository Client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery.repository.client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">junit:junit:4.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eclipse.github.io/winery/org.eclipse.winery.repository.client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.repository.client:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.client:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winery Repository Configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery.repository.configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.slf4j:slf4j-api:1.7.13; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; org.apache.commons:commons-configuration2:2.1.1; commons-beanutils:commons-beanutils:1.9.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eclipse.github.io/winery/org.eclipse.winery.repository.configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.repository.configuration:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.configuration:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winery Yaml Common</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery.yaml.common</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.repository.rest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.yaml:snakeyaml:1.17; junit:junit:4.11; org.hamcrest:hamcrest-core:1.3; org.eclipse.winery:org.eclipse.winery.model.tosca:2.0.0-SNAPSHOT; com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; io.github.adr:e-adr:1.0.0; org.slf4j:slf4j-api:1.7.2; org.eclipse.winery:org.eclipse.winery.model.tosca.yaml:2.0.0-SNAPSHOT; com.sun.xml.bind:jaxb-impl:2.2.11; com.sun.xml.bind:jaxb-core:2.2.11; org.eclipse.winery:org.eclipse.winery.repository:2.0.0-SNAPSHOT; ch.qos.logback:logback-classic:1.1.1; ch.qos.logback:logback-core:1.1.1; com.fasterxml.jackson.core:jackson-databind:2.8.6; com.fasterxml.jackson.core:jackson-core:2.8.6; org.apache.commons:commons-compress:1.6; org.tukaani:xz:1.3; commons-io:commons-io:2.4; xerces:xercesImpl:2.9.1; xml-apis:xml-apis:1.3.04; org.apache.tika:tika-core:1.3; org.apache.commons:commons-lang3:3.1; org.eclipse.winery:org.eclipse.winery.model.selfservice:2.0.0-SNAPSHOT; org.slf4j:jcl-over-slf4j:1.7.6; org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:2.0.0-SNAPSHOT; org.eclipse.virgo.util:org.eclipse.virgo.util.parser.manifest:3.5.0.RELEASE; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:2.7.7; com.fasterxml.jackson.jaxrs:jackson-jaxrs-base:2.7.7; com.fasterxml.jackson.module:jackson-module-jaxb-annotations:2.7.7; org.slf4j:slf4j-ext:1.7.2; org.eclipse.winery:org.eclipse.winery.common:2.0.0-SNAPSHOT; com.jcabi:jcabi-log:0.17.1; com.jcabi:jcabi-aspects:0.22; org.aspectj:aspectjrt:1.8.4; javax.validation:validation-api:1.1.0.Final; jstl:jstl:1.2; commons-configuration:commons-configuration:1.9; org.eclipse.jgit:org.eclipse.jgit:4.8.0.201706111038-r; com.google.guava:guava:23.0; com.google.code.findbugs:jsr305:1.3.9; com.google.errorprone:error_prone_annotations:2.0.18; com.google.j2objc:j2objc-annotations:1.1; org.codehaus.mojo:animal-sniffer-annotations:1.14; org.eclipse.winery:org.eclipse.winery.repository.configuration:2.0.0-SNAPSHOT; org.apache.commons:commons-configuration2:2.1.1; commons-beanutils:commons-beanutils:1.9.3; org.eclipse.collections:eclipse-collections:8.2.0; org.eclipse.collections:eclipse-collections-api:8.2.0; net.jcip:jcip-annotations:1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.yaml.converter:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winery Yaml Converter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery.yaml.converter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.yaml:snakeyaml:1.17; junit:junit:4.11; org.hamcrest:hamcrest-core:1.3; org.eclipse.winery:org.eclipse.winery.model.tosca:2.0.0-SNAPSHOT; com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; io.github.adr:e-adr:1.0.0; org.slf4j:slf4j-api:1.7.2; org.eclipse.winery:org.eclipse.winery.model.tosca.yaml:2.0.0-SNAPSHOT; org.eclipse.winery:org.eclipse.winery.yaml.common:2.0.0-SNAPSHOT; com.sun.xml.bind:jaxb-impl:2.2.11; com.sun.xml.bind:jaxb-core:2.2.11; org.eclipse.winery:org.eclipse.winery.repository:2.0.0-SNAPSHOT; org.apache.commons:commons-compress:1.6; org.tukaani:xz:1.3; xerces:xercesImpl:2.9.1; xml-apis:xml-apis:1.3.04; org.apache.tika:tika-core:1.3; org.eclipse.winery:org.eclipse.winery.model.selfservice:2.0.0-SNAPSHOT; org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:2.0.0-SNAPSHOT; org.eclipse.virgo.util:org.eclipse.virgo.util.parser.manifest:3.5.0.RELEASE; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:2.7.7; com.fasterxml.jackson.jaxrs:jackson-jaxrs-base:2.7.7; com.fasterxml.jackson.module:jackson-module-jaxb-annotations:2.7.7; org.slf4j:slf4j-ext:1.7.2; commons-configuration:commons-configuration:1.9; org.eclipse.jgit:org.eclipse.jgit:4.8.0.201706111038-r; com.google.guava:guava:23.0; com.google.code.findbugs:jsr305:1.3.9; com.google.errorprone:error_prone_annotations:2.0.18; com.google.j2objc:j2objc-annotations:1.1; org.codehaus.mojo:animal-sniffer-annotations:1.14; org.eclipse.winery:org.eclipse.winery.repository.configuration:2.0.0-SNAPSHOT; org.apache.commons:commons-configuration2:2.1.1; commons-beanutils:commons-beanutils:1.9.3; org.eclipse.collections:eclipse-collections:8.2.0; org.eclipse.collections:eclipse-collections-api:8.2.0; net.jcip:jcip-annotations:1.0; org.eclipse.winery:org.eclipse.winery.common:2.0.0-SNAPSHOT; ch.qos.logback:logback-classic:1.1.1; ch.qos.logback:logback-core:1.1.1; com.jcabi:jcabi-log:0.17.1; com.jcabi:jcabi-aspects:0.22; org.aspectj:aspectjrt:1.8.4; javax.validation:validation-api:1.1.0.Final; com.fasterxml.jackson.core:jackson-core:2.8.6; com.fasterxml.jackson.core:jackson-databind:2.8.6; org.slf4j:jcl-over-slf4j:1.7.6; jstl:jstl:1.2; commons-io:commons-io:2.4; org.apache.commons:commons-lang3:3.1; org.xmlunit:xmlunit-core:2.3.0; org.xmlunit:xmlunit-matchers:2.3.0; org.skyscreamer:jsonassert:1.4.0; com.vaadin.external.google:android-json:0.0.20131108.vaadin1; io.rest-assured:rest-assured:3.0.2; org.codehaus.groovy:groovy:2.4.6; org.codehaus.groovy:groovy-xml:2.4.6; org.apache.httpcomponents:httpclient:4.5.2; org.apache.httpcomponents:httpcore:4.4.4; commons-logging:commons-logging:1.2; commons-codec:commons-codec:1.9; org.apache.httpcomponents:httpmime:4.5.1; org.hamcrest:hamcrest-library:1.3; org.ccil.cowan.tagsoup:tagsoup:1.2.1; io.rest-assured:json-path:3.0.2; org.codehaus.groovy:groovy-json:2.4.6; io.rest-assured:rest-assured-common:3.0.2; io.rest-assured:xml-path:3.0.2; org.eclipse.jetty:jetty-servlet:9.4.2.v20170220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.yaml.converter:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.yaml.converter:jar:2.0.0-SNAPSHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamcrest Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.hamcrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hamcrest-core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/hamcrest/JavaHamcrest/hamcrest-core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New BSD License</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; junit:junit:jar:4.11 &gt; org.hamcrest:hamcrest-core:jar:1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">junit:junit:jar:4.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.hamcrest:hamcrest-core:jar:1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamcrest Library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hamcrest-library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.hamcrest:hamcrest-core:1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/hamcrest/JavaHamcrest/hamcrest-library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.jetty.toolchain:jetty-test-helper:jar:4.2 &gt; org.hamcrest:hamcrest-library:jar:1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.hamcrest:hamcrest-library:jar:1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javassist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.javassist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javassist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21.0-GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16 &gt; org.reflections:reflections:jar:0.9.11 &gt; org.javassist:javassist:jar:3.21.0-GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.reflections:reflections:jar:0.9.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.javassist:javassist:jar:3.21.0-GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.jgrapht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jgrapht-core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.bpmn4tosca.converter.tobpel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">junit:junit:4.10; org.hamcrest:hamcrest-core:1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.model.bpmn4tosca:jar:2.0.0-SNAPSHOT &gt; org.jgrapht:jgrapht-core:jar:0.9.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.jgrapht:jgrapht-core:jar:0.9.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.jvnet.mimepull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mimepull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://mimepull.java.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.jvnet.mimepull:mimepull:jar:1.9.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.jvnet.mimepull:mimepull:jar:1.9.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.reflections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reflections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.google.guava:guava:20.0; org.javassist:javassist:3.21.0-GA; org.slf4j:slf4j-api:1.7.24; dom4j:dom4j:1.6.1; xml-apis:xml-apis:1.0.b2; com.google.code.gson:gson:2.8.0; javax.servlet:servlet-api:2.5; org.slf4j:slf4j-simple:1.7.24; com.google.code.findbugs:jsr305:3.0.1; junit:junit:4.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://github.com/ronmamo/reflections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The New BSD License</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16 &gt; org.reflections:reflections:jar:0.9.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLF4J JCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.slf4j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jcl-over-slf4j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler; org.eclipse.winery.highlevelrestapi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.slf4j:slf4j-api:1.7.6; org.slf4j:slf4j-jdk14:1.7.6; junit:junit:4.10; org.hamcrest:hamcrest-core:1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.slf4j.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; org.slf4j:jcl-over-slf4j:jar:1.7.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.slf4j:jcl-over-slf4j:jar:1.7.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLF4J API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slf4j-api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository.configuration:jar:2.0.0-SNAPSHOT &gt; org.slf4j:slf4j-api:jar:1.7.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.slf4j:slf4j-api:jar:1.7.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.model.tosca:jar:2.0.0-SNAPSHOT &gt; org.slf4j:slf4j-api:jar:1.7.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.slf4j:slf4j-api:jar:1.7.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery; org.eclipse.winery.common; org.eclipse.winery.repository; org.eclipse.winery.cli; org.eclipse.winery.bpmn4tosca.converter.tobpel; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler; org.eclipse.winery.highlevelrestapi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:jar:2.0.0-SNAPSHOT &gt; ch.qos.logback:logback-classic:jar:1.1.1 &gt; org.slf4j:slf4j-api:jar:1.7.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.slf4j:slf4j-api:jar:1.7.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLF4J EXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slf4j-ext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.slf4j:slf4j-api:1.7.2; org.slf4j:slf4j-log4j12:1.7.2; log4j:log4j:1.2.17; ch.qos.cal10n:cal10n-api:0.7.4; javassist:javassist:3.4.GA; commons-lang:commons-lang:2.4; junit:junit:4.10; org.hamcrest:hamcrest-core:1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.slf4j:slf4j-ext:jar:1.7.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.slf4j:slf4j-ext:jar:1.7.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.tukaani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://tukaani.org/xz/java.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.tukaani:xz:jar:1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.tukaani:xz:jar:1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snakeyaml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.yaml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snakeyaml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT &gt; org.yaml:snakeyaml:jar:1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.yaml:snakeyaml:jar:1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xerces Impl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xerces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xercesImpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xml-apis:xml-apis:1.3.04; xml-resolver:xml-resolver:1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://xerces.apache.org/xerces2-j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; xerces:xercesImpl:jar:2.9.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xerces:xercesImpl:jar:2.9.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XML-Apis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xml-apis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://xml.apache.org/commons/components/external/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; xerces:xercesImpl:jar:2.9.1 &gt; xml-apis:xml-apis:jar:1.3.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xml-apis:xml-apis:jar:1.3.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular Browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">npm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/animations/browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WineryUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/animations/browser/testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular Common</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/common</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tslib:^1.7.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/@angular/common/-/common-4.3.5.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/angular/angular#readme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular Common HTTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/common/http</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/common/http/testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/common/testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular Compiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/compiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/@angular/compiler/-/compiler-4.3.5.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/compiler/testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/@angular/core/-/core-4.3.5.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/core/testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular Forms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/forms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/@angular/forms/-/forms-4.3.5.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular HTTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/http</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/@angular/http/-/http-4.3.5.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/http/testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular Platform-Browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/platform-browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/@angular/platform-browser/-/platform-browser-4.3.5.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular Platform-Browser Dynamic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/platform-browser-dynamic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/@angular/platform-browser-dynamic/-/platform-browser-dynamic-4.3.5.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/platform-browser-dynamic/testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular Platform-Browser Animations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/platform-browser/animations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/platform-browser/testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular Router</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/router</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/@angular/router/-/router-4.3.5.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/angular/angular/tree/master/packages/router</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/router/testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/router/upgrade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular2 Websocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angular2-websocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bluebird:^3.4.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/angular2-websocket/-/angular2-websocket-0.9.3.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/afrad/angular2-websocket#readme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bluebird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/bluebird/-/bluebird-3.5.0.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/petkaantonov/bluebird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/cli/html-webpack-plugin &gt; angular2-websocket &gt; karma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">core-js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/core-js/-/core-js-2.5.0.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/zloirock/core-js#readme</t>
+    <t>Logback: Logback Classic</t>
+  </si>
+  <si>
+    <t>maven</t>
+  </si>
+  <si>
+    <t>ch.qos.logback</t>
+  </si>
+  <si>
+    <t>logback-classic</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.common; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.bpmn4tosca.converter.tobpel; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler; org.eclipse.winery.highlevelrestapi</t>
+  </si>
+  <si>
+    <t>ch.qos.logback:logback-core:1.1.1; org.fusesource.jansi:jansi:1.9; org.slf4j:slf4j-api:1.7.6; org.slf4j:slf4j-ext:1.7.6; ch.qos.cal10n:cal10n-api:0.8.1; org.slf4j:slf4j-api:1.7.6; org.slf4j:log4j-over-slf4j:1.7.6; org.slf4j:jul-to-slf4j:1.7.6; dom4j:dom4j:1.6.1; xml-apis:xml-apis:1.0.b2; hsqldb:hsqldb:1.8.0.7; com.h2database:h2:1.2.132; postgresql:postgresql:8.4-701.jdbc4; mysql:mysql-connector-java:5.1.9; javax.mail:mail:1.4; javax.activation:activation:1.1; org.codehaus.janino:janino:2.6.1; org.codehaus.janino:commons-compiler:2.6.1; org.codehaus.groovy:groovy-all:2.0.7; ch.qos.logback:logback-core:1.1.1; org.slf4j:integration:1.7.6; ant:ant-junit:1.6.5; org.apache.geronimo.specs:geronimo-jms_1.1_spec:1.0; javax.servlet:servlet-api:2.5; com.icegreen:greenmail:1.3; org.subethamail:subethasmtp:2.1.0; org.apache.mina:mina-filter-ssl:1.1.7; org.apache.mina:mina-core:1.1.7; org.apache.mina:mina-integration-jmx:1.1.7; org.apache.felix:org.apache.felix.main:2.0.2; org.apache.felix:org.apache.felix.framework:2.0.2; org.apache.felix:org.apache.felix.shell:1.4.1; org.apache.felix:org.apache.felix.shell.tui:1.4.1; org.apache.felix:org.apache.felix.bundlerepository:1.4.2; junit:junit:4.10; org.hamcrest:hamcrest-core:1.1; org.easytesting:fest-assert:1.2; org.easytesting:fest-util:1.1</t>
+  </si>
+  <si>
+    <t>http://logback.qos.ch</t>
+  </si>
+  <si>
+    <t>EPL-1.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:jar:2.0.0-SNAPSHOT &gt; ch.qos.logback:logback-classic:jar:1.1.1</t>
+  </si>
+  <si>
+    <t>ch.qos.logback:logback-classic:jar:1.1.1</t>
+  </si>
+  <si>
+    <t>Logback: Logback Core</t>
+  </si>
+  <si>
+    <t>logback-core</t>
+  </si>
+  <si>
+    <t>org.codehaus.janino:janino:2.6.1; org.codehaus.janino:commons-compiler:2.6.1; org.fusesource.jansi:jansi:1.9; javax.mail:mail:1.4; javax.activation:activation:1.1; org.apache.geronimo.specs:geronimo-jms_1.1_spec:1.0; org.mockito:mockito-core:1.9.0; org.hamcrest:hamcrest-core:1.1; org.objenesis:objenesis:1.0; javax.servlet:servlet-api:2.5; junit:junit:4.10; org.easytesting:fest-assert:1.2; org.easytesting:fest-util:1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:jar:2.0.0-SNAPSHOT &gt; ch.qos.logback:logback-classic:jar:1.1.1 &gt; ch.qos.logback:logback-core:jar:1.1.1</t>
+  </si>
+  <si>
+    <t>ch.qos.logback:logback-core:jar:1.1.1</t>
+  </si>
+  <si>
+    <t>Jackson Annoations</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core</t>
+  </si>
+  <si>
+    <t>jackson-annotations</t>
+  </si>
+  <si>
+    <t>2.8.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.model.tosca; org.eclipse.winery.model.tosca.yaml; org.eclipse.winery.common; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.bpmn4tosca.converter.tobpel; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>junit:junit:4.12</t>
+  </si>
+  <si>
+    <t>http://github.com/FasterXML/jackson</t>
+  </si>
+  <si>
+    <t>Apache-2.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.bpmn4tosca:jar:2.0.0-SNAPSHOT &gt; com.fasterxml.jackson.core:jackson-annotations:jar:2.8.0</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-annotations:jar:2.8.0</t>
+  </si>
+  <si>
+    <t>Jackson Core</t>
+  </si>
+  <si>
+    <t>jackson-core</t>
+  </si>
+  <si>
+    <t>2.8.6</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.bpmn4tosca.converter.tobpel; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>https://github.com/FasterXML/jackson-core</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; com.fasterxml.jackson.core:jackson-core:jar:2.8.6</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-core:jar:2.8.6</t>
+  </si>
+  <si>
+    <t>Jackson Databind</t>
+  </si>
+  <si>
+    <t>jackson-databind</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-annotations:2.8.0; com.fasterxml.jackson.core:jackson-core:2.8.6; junit:junit:4.12; org.powermock:powermock-module-junit4:1.6.5; org.powermock:powermock-module-junit4-common:1.6.5; org.powermock:powermock-core:1.6.5; org.javassist:javassist:3.20.0-GA; org.powermock:powermock-reflect:1.6.5; org.powermock:powermock-api-mockito:1.6.5; org.mockito:mockito-core:1.10.19; org.objenesis:objenesis:2.1; org.hamcrest:hamcrest-core:1.3; org.powermock:powermock-api-mockito-common:1.6.5; org.powermock:powermock-api-support:1.6.5; javax.measure:jsr-275:0.9.1; com.google.jimfs:jimfs:1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; com.fasterxml.jackson.core:jackson-databind:jar:2.8.6</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-databind:jar:2.8.6</t>
+  </si>
+  <si>
+    <t>Jackson Databind: Yaml</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.dataformat</t>
+  </si>
+  <si>
+    <t>jackson-dataformat-yaml</t>
+  </si>
+  <si>
+    <t>2.8.9</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-core:2.8.9; com.fasterxml.jackson.core:jackson-databind:2.8.9; org.yaml:snakeyaml:1.17; com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.ops4j.pax.exam:pax-exam-container-native:4.3.0; org.ops4j.pax.exam:pax-exam:4.3.0; org.ops4j.base:ops4j-base-store:1.5.0; org.ops4j.base:ops4j-base-io:1.5.0; org.ops4j.base:ops4j-base-util-property:1.5.0; org.ops4j.pax.exam:pax-exam-spi:4.3.0; org.ops4j.base:ops4j-base-spi:1.5.0; org.ops4j.pax.tinybundles:tinybundles:2.1.0; biz.aQute.bnd:bndlib:2.3.0; org.osgi:org.osgi.core:4.3.1; org.ops4j.pax.swissbox:pax-swissbox-core:1.8.0; org.ops4j.pax.swissbox:pax-swissbox-lifecycle:1.8.0; org.ops4j.pax.swissbox:pax-swissbox-tracker:1.8.0; org.ops4j.base:ops4j-base-lang:1.5.0; org.ops4j.base:ops4j-base-net:1.5.0; org.ops4j.base:ops4j-base-monitors:1.5.0; org.ops4j.pax.url:pax-url-link:2.2.0; org.ops4j.pax.url:pax-url-classpath:2.2.0; org.ops4j.pax.exam:pax-exam-junit4:4.3.0; org.ops4j.pax.exam:pax-exam-link-mvn:4.3.0; org.ops4j.pax.url:pax-url-aether:2.2.0; org.apache.felix:org.apache.felix.framework:4.0.3; org.slf4j:slf4j-log4j12:1.6.6; org.slf4j:slf4j-api:1.6.6; log4j:log4j:1.2.17</t>
+  </si>
+  <si>
+    <t>https://github.com/FasterXML/jackson</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-core:jar:1.5.16 &gt; com.fasterxml.jackson.dataformat:jackson-dataformat-yaml:jar:2.8.9</t>
+  </si>
+  <si>
+    <t>io.swagger:swagger-jersey-jaxrs:jar:1.5.16</t>
+  </si>
+  <si>
+    <t>io.swagger:swagger-jaxrs:jar:1.5.16</t>
+  </si>
+  <si>
+    <t>io.swagger:swagger-core:jar:1.5.16</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.dataformat:jackson-dataformat-yaml:jar:2.8.9</t>
+  </si>
+  <si>
+    <t>Jackson JAX-RS</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.jaxrs</t>
+  </si>
+  <si>
+    <t>jackson-jaxrs-base</t>
+  </si>
+  <si>
+    <t>2.7.7</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-core:2.7.7; com.fasterxml.jackson.core:jackson-databind:2.7.7; com.fasterxml.jackson.core:jackson-annotations:2.7.0; javax.ws.rs:jsr311-api:1.1.1; org.eclipse.jetty:jetty-server:8.1.10.v20130312; org.eclipse.jetty:jetty-servlet:8.1.10.v20130312; com.sun.jersey:jersey-core:1.17.1; com.sun.jersey:jersey-server:1.17.1; asm:asm:3.1; com.sun.jersey:jersey-servlet:1.17.1; junit:junit:4.12</t>
+  </si>
+  <si>
+    <t>http://wiki.fasterxml.com/JacksonHome/jackson-jaxrs-base</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:jar:2.7.7 &gt; com.fasterxml.jackson.jaxrs:jackson-jaxrs-base:jar:2.7.7</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:jar:2.7.7</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.jaxrs:jackson-jaxrs-base:jar:2.7.7</t>
+  </si>
+  <si>
+    <t>Jackson JAX-RS: JSON Provider</t>
+  </si>
+  <si>
+    <t>jackson-jaxrs-json-provider</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.jaxrs:jackson-jaxrs-base:2.7.7; com.fasterxml.jackson.core:jackson-core:2.7.7; com.fasterxml.jackson.core:jackson-databind:2.7.7; com.fasterxml.jackson.core:jackson-annotations:2.7.0; com.fasterxml.jackson.module:jackson-module-jaxb-annotations:2.7.7; org.jboss.resteasy:resteasy-jackson2-provider:3.0.6.Final; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:2.2.1; javax.ws.rs:jsr311-api:1.1.1; org.eclipse.jetty:jetty-server:8.1.10.v20130312; org.eclipse.jetty:jetty-servlet:8.1.10.v20130312; com.sun.jersey:jersey-core:1.17.1; com.sun.jersey:jersey-server:1.17.1; asm:asm:3.1; com.sun.jersey:jersey-servlet:1.17.1; junit:junit:4.12</t>
+  </si>
+  <si>
+    <t>http://wiki.fasterxml.com/JacksonHome/jackson-jaxrs-json-provider</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:jar:2.7.7</t>
+  </si>
+  <si>
+    <t>Jackson Annoations: JAXB</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.module</t>
+  </si>
+  <si>
+    <t>jackson-module-jaxb-annotations</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-core:2.7.7; com.fasterxml.jackson.core:jackson-annotations:2.7.0; com.fasterxml.jackson.core:jackson-databind:2.7.7; javax.xml.bind:jaxb-api:2.2; javax.xml.stream:stax-api:1.0-2; javax.activation:activation:1.1; javax.ws.rs:jsr311-api:1.1.1; junit:junit:4.12</t>
+  </si>
+  <si>
+    <t>http://github.com/FasterXML/jackson-module-jaxb-annotations</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:jar:2.7.7 &gt; com.fasterxml.jackson.module:jackson-module-jaxb-annotations:jar:2.7.7</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.module:jackson-module-jaxb-annotations:jar:2.7.7</t>
+  </si>
+  <si>
+    <t>Findbugs JSR305</t>
+  </si>
+  <si>
+    <t>com.google.code.findbugs</t>
+  </si>
+  <si>
+    <t>jsr305</t>
+  </si>
+  <si>
+    <t>1.3.9</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.rest</t>
+  </si>
+  <si>
+    <t>http://findbugs.sourceforge.net/</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.google.guava:guava:jar:23.0 &gt; com.google.code.findbugs:jsr305:jar:1.3.9</t>
+  </si>
+  <si>
+    <t>com.google.guava:guava:jar:23.0</t>
+  </si>
+  <si>
+    <t>com.google.code.findbugs:jsr305:jar:1.3.9</t>
+  </si>
+  <si>
+    <t>Google Errorprone Annotations</t>
+  </si>
+  <si>
+    <t>com.google.errorprone</t>
+  </si>
+  <si>
+    <t>error_prone_annotations</t>
+  </si>
+  <si>
+    <t>2.0.18</t>
+  </si>
+  <si>
+    <t>junit:junit-dep:4.10; org.hamcrest:hamcrest-core:1.1</t>
+  </si>
+  <si>
+    <t>http://nexus.sonatype.org/oss-repository-hosting.html/error_prone_parent/error_prone_annotations</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.google.guava:guava:jar:23.0 &gt; com.google.errorprone:error_prone_annotations:jar:2.0.18</t>
+  </si>
+  <si>
+    <t>com.google.errorprone:error_prone_annotations:jar:2.0.18</t>
+  </si>
+  <si>
+    <t>Google Guava</t>
+  </si>
+  <si>
+    <t>com.google.guava</t>
+  </si>
+  <si>
+    <t>guava</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>com.google.code.findbugs:jsr305:1.3.9; com.google.errorprone:error_prone_annotations:2.0.18; com.google.j2objc:j2objc-annotations:1.1; org.codehaus.mojo:animal-sniffer-annotations:1.14</t>
+  </si>
+  <si>
+    <t>https://github.com/google/guava/guava</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.google.guava:guava:jar:23.0</t>
+  </si>
+  <si>
+    <t>J2ObjC</t>
+  </si>
+  <si>
+    <t>com.google.j2objc</t>
+  </si>
+  <si>
+    <t>j2objc-annotations</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>https://github.com/google/j2objc/</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.google.guava:guava:jar:23.0 &gt; com.google.j2objc:j2objc-annotations:jar:1.1</t>
+  </si>
+  <si>
+    <t>com.google.j2objc:j2objc-annotations:jar:1.1</t>
+  </si>
+  <si>
+    <t>JCABI</t>
+  </si>
+  <si>
+    <t>com.jcabi</t>
+  </si>
+  <si>
+    <t>jcabi-aspects</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>com.jcabi:jcabi-log:0.15; log4j:log4j:1.2.17; org.slf4j:slf4j-api:1.7.5; org.aspectj:aspectjrt:1.8.4; javax.validation:validation-api:1.1.0.Final; org.hibernate:hibernate-validator:5.0.0.Final; org.jboss.logging:jboss-logging:3.1.1.GA; com.fasterxml:classmate:0.8.0; org.glassfish.web:javax.el:2.2.4; javax.el:javax.el-api:3.0.1-b04</t>
+  </si>
+  <si>
+    <t>http://www.jcabi.com/jcabi-aspects</t>
+  </si>
+  <si>
+    <t>BSD</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; com.jcabi:jcabi-log:jar:0.17.1 &gt; com.jcabi:jcabi-aspects:jar:0.22</t>
+  </si>
+  <si>
+    <t>com.jcabi:jcabi-log:jar:0.17.1</t>
+  </si>
+  <si>
+    <t>com.jcabi:jcabi-aspects:jar:0.22</t>
+  </si>
+  <si>
+    <t>JCABI Logging</t>
+  </si>
+  <si>
+    <t>jcabi-log</t>
+  </si>
+  <si>
+    <t>0.17.1</t>
+  </si>
+  <si>
+    <t>org.projectlombok:lombok:1.16.6; log4j:log4j:1.2.17; org.slf4j:slf4j-api:1.7.5; com.jcabi:jcabi-aspects:0.22; org.aspectj:aspectjrt:1.8.7; javax.validation:validation-api:1.1.0.Final; org.apache.commons:commons-lang3:3.4</t>
+  </si>
+  <si>
+    <t>http://www.jcabi.com/jcabi-log</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; com.jcabi:jcabi-log:jar:0.17.1</t>
+  </si>
+  <si>
+    <t>Jersey Client</t>
+  </si>
+  <si>
+    <t>com.sun.jersey</t>
+  </si>
+  <si>
+    <t>jersey-client</t>
+  </si>
+  <si>
+    <t>1.19.3</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>junit:junit:4.8.2; com.sun.net.httpserver:http:20070405; org.osgi:osgi_R4_core:1.0; com.sun.jersey:jersey-core:1.19.3; javax.ws.rs:jsr311-api:1.1.1</t>
+  </si>
+  <si>
+    <t>https://jersey.java.net/jersey-client/</t>
+  </si>
+  <si>
+    <t>CDDL-1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.client:jar:2.0.0-SNAPSHOT &gt; com.sun.jersey:jersey-client:jar:1.19.3</t>
+  </si>
+  <si>
+    <t>com.sun.jersey:jersey-client:jar:1.19.3</t>
+  </si>
+  <si>
+    <t>Jersey Core</t>
+  </si>
+  <si>
+    <t>jersey-core</t>
+  </si>
+  <si>
+    <t>javax.ws.rs:jsr311-api:1.1.1; javax.mail:mail:1.4; javax.activation:activation:1.1; javax.xml.bind:jaxb-api:2.1; javax.xml.stream:stax-api:1.0-2; org.osgi:org.osgi.core:4.2.0; junit:junit:4.8.2</t>
+  </si>
+  <si>
+    <t>https://jersey.java.net/jersey-core/</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.client:jar:2.0.0-SNAPSHOT &gt; com.sun.jersey:jersey-core:jar:1.19.3</t>
+  </si>
+  <si>
+    <t>com.sun.jersey:jersey-core:jar:1.19.3</t>
+  </si>
+  <si>
+    <t>Jersey Server</t>
+  </si>
+  <si>
+    <t>jersey-server</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>javax.mail:mail:1.4; javax.activation:activation:1.1; javax.xml.bind:jaxb-api:2.1; javax.xml.stream:stax-api:1.0-2; javax.annotation:jsr250-api:1.0; org.osgi:osgi_R4_core:1.0; junit:junit:4.8.2; commons-io:commons-io:1.3.2; com.sun.jersey:jersey-core:1.19.3; javax.ws.rs:jsr311-api:1.1.1</t>
+  </si>
+  <si>
+    <t>https://jersey.java.net/jersey-server/</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; com.sun.jersey:jersey-server:jar:1.19.3</t>
+  </si>
+  <si>
+    <t>com.sun.jersey:jersey-server:jar:1.19.3</t>
+  </si>
+  <si>
+    <t>Jersey Servlet</t>
+  </si>
+  <si>
+    <t>jersey-servlet</t>
+  </si>
+  <si>
+    <t>javax.servlet:javax.servlet-api:3.0.1; javax.servlet:jsp-api:2.0; javax.servlet:servlet-api:2.4; org.glassfish:javax.ejb:3.1; org.glassfish:javax.transaction:3.1; org.glassfish:javax.annotation:3.1; org.jboss.weld:weld-osgi-bundle:1.1.4.Final; javax.enterprise:cdi-api:1.0-SP4; org.jboss.spec.javax.interceptor:jboss-interceptors-api_1.1_spec:1.0.0.Beta1; javax.annotation:jsr250-api:1.0; org.jboss.weld:weld-api:1.1.Final; org.jboss.weld:weld-core:1.1.4.Final; org.jboss.weld:weld-spi:1.1.Final; org.javassist:javassist:3.14.0-GA; com.google.guava:guava:r06; javax.inject:javax.inject:1; org.jboss.interceptor:jboss-interceptor-spi:2.0.0.CR1; org.jboss.interceptor:jboss-interceptor-core:2.0.0.CR1; org.slf4j:slf4j-api:1.5.6; javassist:javassist:3.12.0.GA; org.jboss.weld:weld-build-config:1.1.4.Final; javax.persistence:persistence-api:1.0; ant:ant:1.6.5; org.osgi:osgi_R4_core:1.0; junit:junit:4.8.2; commons-io:commons-io:1.3.2; com.sun.jersey:jersey-server:1.19.3; com.sun.jersey:jersey-core:1.19.3; javax.ws.rs:jsr311-api:1.1.1</t>
+  </si>
+  <si>
+    <t>https://jersey.java.net/jersey-servlet/</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; com.sun.jersey:jersey-servlet:jar:1.19.3</t>
+  </si>
+  <si>
+    <t>com.sun.jersey:jersey-servlet:jar:1.19.3</t>
+  </si>
+  <si>
+    <t>Jersey Multipart</t>
+  </si>
+  <si>
+    <t>com.sun.jersey.contribs</t>
+  </si>
+  <si>
+    <t>jersey-multipart</t>
+  </si>
+  <si>
+    <t>org.jvnet.mimepull:mimepull:1.9.3; com.sun.xml.bind:jaxb-impl:2.2.3-1; javax.xml.bind:jaxb-api:2.2.2; javax.xml.stream:stax-api:1.0-2; javax.activation:activation:1.1; junit:junit:4.8.2; com.sun.jersey:jersey-core:1.19.3; javax.ws.rs:jsr311-api:1.1.1; com.sun.jersey:jersey-grizzly2:1.19.3; org.glassfish.grizzly:grizzly-http:2.2.16; org.glassfish.grizzly:grizzly-framework:2.2.16; org.glassfish.grizzly:grizzly-http-server:2.2.16; org.glassfish.grizzly:grizzly-rcm:2.2.16; com.sun.jersey:jersey-server:1.19.3; com.sun.jersey:jersey-client:1.19.3; com.sun.jersey.contribs:jersey-apache-client:1.19.3; commons-httpclient:commons-httpclient:3.1; commons-logging:commons-logging:1.0.4; commons-codec:commons-codec:1.2</t>
+  </si>
+  <si>
+    <t>https://jersey.java.net/jersey-contribs/jersey-multipart/</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; com.sun.jersey.contribs:jersey-multipart:jar:1.19.3</t>
+  </si>
+  <si>
+    <t>com.sun.jersey.contribs:jersey-multipart:jar:1.19.3</t>
+  </si>
+  <si>
+    <t>JAXB Core</t>
+  </si>
+  <si>
+    <t>com.sun.xml.bind</t>
+  </si>
+  <si>
+    <t>jaxb-core</t>
+  </si>
+  <si>
+    <t>2.2.11</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.yaml.converter; org.eclipse.winery.repository.rest</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT &gt; com.sun.xml.bind:jaxb-core:jar:2.2.11</t>
+  </si>
+  <si>
+    <t>com.sun.xml.bind:jaxb-core:jar:2.2.11</t>
+  </si>
+  <si>
+    <t>JAXB Impl</t>
+  </si>
+  <si>
+    <t>jaxb-impl</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT &gt; com.sun.xml.bind:jaxb-impl:jar:2.2.11</t>
+  </si>
+  <si>
+    <t>com.sun.xml.bind:jaxb-impl:jar:2.2.11</t>
+  </si>
+  <si>
+    <t>2.2.5</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.cli</t>
+  </si>
+  <si>
+    <t>http://jaxb.java.net/</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.sun.xml.bind:jaxb-impl:jar:2.2.5</t>
+  </si>
+  <si>
+    <t>com.sun.xml.bind:jaxb-impl:jar:2.2.5</t>
+  </si>
+  <si>
+    <t>Apache Commons: Beanutils</t>
+  </si>
+  <si>
+    <t>commons-beanutils</t>
+  </si>
+  <si>
+    <t>1.9.3</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.rest</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.configuration:jar:2.0.0-SNAPSHOT &gt; commons-beanutils:commons-beanutils:jar:1.9.3</t>
+  </si>
+  <si>
+    <t>commons-beanutils:commons-beanutils:jar:1.9.3</t>
+  </si>
+  <si>
+    <t>Apache Commons: CLI</t>
+  </si>
+  <si>
+    <t>commons-cli</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.cli:jar:2.0.0-SNAPSHOT &gt; commons-cli:commons-cli:jar:1.4</t>
+  </si>
+  <si>
+    <t>commons-cli:commons-cli:jar:1.4</t>
+  </si>
+  <si>
+    <t>Apache Commons: Codec</t>
+  </si>
+  <si>
+    <t>commons-codec</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>junit:junit:3.8.1</t>
+  </si>
+  <si>
+    <t>http://jakarta.apache.org/commons/codec/</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.highlevelrestapi:jar:2.0.0-SNAPSHOT &gt; commons-codec:commons-codec:jar:1.3</t>
+  </si>
+  <si>
+    <t>commons-codec:commons-codec:jar:1.3</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>junit:junit:4.11; org.hamcrest:hamcrest-core:1.3</t>
+  </si>
+  <si>
+    <t>http://commons.apache.org/proper/commons-codec/</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.apache.httpcomponents:httpclient:jar:4.5.2 &gt; commons-codec:commons-codec:jar:1.9</t>
+  </si>
+  <si>
+    <t>org.apache.httpcomponents:httpclient:jar:4.5.2</t>
+  </si>
+  <si>
+    <t>commons-codec:commons-codec:jar:1.9</t>
+  </si>
+  <si>
+    <t>Apache Commons: Collections</t>
+  </si>
+  <si>
+    <t>commons-collections</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>http://commons.apache.org/collections/</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.bpmn4tosca.converter.tobpel:jar:2.0.0-SNAPSHOT &gt; org.apache.velocity:velocity:jar:1.7 &gt; commons-collections:commons-collections:jar:3.2.1</t>
+  </si>
+  <si>
+    <t>org.apache.velocity:velocity:jar:1.7</t>
+  </si>
+  <si>
+    <t>commons-collections:commons-collections:jar:3.2.1</t>
+  </si>
+  <si>
+    <t>Apache Commons: Configuration</t>
+  </si>
+  <si>
+    <t>commons-configuration</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; commons-configuration:commons-configuration:jar:1.9</t>
+  </si>
+  <si>
+    <t>commons-configuration:commons-configuration:jar:1.9</t>
+  </si>
+  <si>
+    <t>Apache Commons: HTTPClient</t>
+  </si>
+  <si>
+    <t>commons-httpclient</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>http://jakarta.apache.org/httpcomponents/httpclient-3.x/</t>
+  </si>
+  <si>
+    <t>Apache License</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.highlevelrestapi:jar:2.0.0-SNAPSHOT &gt; commons-httpclient:commons-httpclient:jar:3.1</t>
+  </si>
+  <si>
+    <t>commons-httpclient:commons-httpclient:jar:3.1</t>
+  </si>
+  <si>
+    <t>Apache Commons: IO</t>
+  </si>
+  <si>
+    <t>commons-io</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; commons-io:commons-io:jar:2.4</t>
+  </si>
+  <si>
+    <t>commons-io:commons-io:jar:2.4</t>
+  </si>
+  <si>
+    <t>Apache Commons: Commons-Lang</t>
+  </si>
+  <si>
+    <t>commons-lang</t>
+  </si>
+  <si>
+    <t>http://commons.apache.org/lang/</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.bpmn4tosca.converter.tobpel:jar:2.0.0-SNAPSHOT &gt; org.apache.velocity:velocity:jar:1.7 &gt; commons-lang:commons-lang:jar:2.4</t>
+  </si>
+  <si>
+    <t>commons-lang:commons-lang:jar:2.4</t>
+  </si>
+  <si>
+    <t>Apache Commons: Commons-Logging</t>
+  </si>
+  <si>
+    <t>commons-logging</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>junit:junit:3.8.1; log4j:log4j:1.2.17; logkit:logkit:1.0.1; avalon-framework:avalon-framework:4.1.5; javax.servlet:servlet-api:2.3</t>
+  </si>
+  <si>
+    <t>http://commons.apache.org/proper/commons-logging/</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.apache.httpcomponents:httpclient:jar:4.5.2 &gt; commons-logging:commons-logging:jar:1.2</t>
+  </si>
+  <si>
+    <t>commons-logging:commons-logging:jar:1.2</t>
+  </si>
+  <si>
+    <t>Runtime</t>
+  </si>
+  <si>
+    <t>io.github.adr</t>
+  </si>
+  <si>
+    <t>e-adr</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.model.tosca.yaml; org.eclipse.winery.common; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>koppor</t>
+  </si>
+  <si>
+    <t>https://github.com/adr/e-adr/</t>
+  </si>
+  <si>
+    <t>EPL-2.0</t>
+  </si>
+  <si>
+    <t>https://github.com/adr/e-adr/blob/master/LICENSE.md</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.tosca:jar:2.0.0-SNAPSHOT &gt; io.github.adr:e-adr:jar:1.0.0</t>
+  </si>
+  <si>
+    <t>io.github.adr:e-adr:jar:1.0.0</t>
+  </si>
+  <si>
+    <t>Swagger Annotations</t>
+  </si>
+  <si>
+    <t>io.swagger</t>
+  </si>
+  <si>
+    <t>swagger-annotations</t>
+  </si>
+  <si>
+    <t>1.5.16</t>
+  </si>
+  <si>
+    <t>https://github.com/swagger-api/swagger-core/modules/swagger-annotations</t>
+  </si>
+  <si>
+    <t>Apache License 2.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-core:jar:1.5.16 &gt; io.swagger:swagger-models:jar:1.5.16 &gt; io.swagger:swagger-annotations:jar:1.5.16</t>
+  </si>
+  <si>
+    <t>io.swagger:swagger-models:jar:1.5.16</t>
+  </si>
+  <si>
+    <t>io.swagger:swagger-annotations:jar:1.5.16</t>
+  </si>
+  <si>
+    <t>Swagger Core</t>
+  </si>
+  <si>
+    <t>swagger-core</t>
+  </si>
+  <si>
+    <t>org.apache.commons:commons-lang3:3.2.1; org.slf4j:slf4j-api:1.7.22; com.fasterxml.jackson.core:jackson-annotations:2.8.9; com.fasterxml.jackson.core:jackson-databind:2.8.9; com.fasterxml.jackson.core:jackson-core:2.8.9; com.fasterxml.jackson.dataformat:jackson-dataformat-yaml:2.8.9; org.yaml:snakeyaml:1.17; io.swagger:swagger-models:1.5.16; io.swagger:swagger-annotations:1.5.16; joda-time:joda-time:2.9.1; com.google.guava:guava:20.0; org.joda:joda-convert:1.8.1; ch.qos.logback:logback-classic:1.2.3; org.slf4j:slf4j-ext:1.7.22; ch.qos.cal10n:cal10n-api:0.8.1; ch.qos.logback:logback-core:1.2.3; javax.validation:validation-api:1.1.0.Final; org.immutables:value:2.4.4; org.testng:testng:6.10; com.beust:jcommander:1.48; commons-io:commons-io:2.5; javax.ws.rs:jsr311-api:1.1.1; org.glassfish.hk2.external:javax.inject:2.2.0</t>
+  </si>
+  <si>
+    <t>https://github.com/swagger-api/swagger-core/modules/swagger-core</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-core:jar:1.5.16</t>
+  </si>
+  <si>
+    <t>Swagger JAX-RS</t>
+  </si>
+  <si>
+    <t>swagger-jaxrs</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-databind:2.8.9; com.fasterxml.jackson.core:jackson-core:2.8.9; io.swagger:swagger-core:1.5.16; org.apache.commons:commons-lang3:3.2.1; org.slf4j:slf4j-api:1.7.22; com.fasterxml.jackson.core:jackson-annotations:2.8.9; com.fasterxml.jackson.dataformat:jackson-dataformat-yaml:2.8.9; org.yaml:snakeyaml:1.17; io.swagger:swagger-models:1.5.16; io.swagger:swagger-annotations:1.5.16; javax.validation:validation-api:1.1.0.Final; io.swagger:swagger-core:1.5.16; javax.servlet:servlet-api:2.5; javax.ws.rs:jsr311-api:1.1.1; org.reflections:reflections:0.9.11; org.javassist:javassist:3.21.0-GA; com.google.guava:guava:20.0; ch.qos.logback:logback-classic:1.2.3; org.slf4j:slf4j-ext:1.7.22; ch.qos.cal10n:cal10n-api:0.8.1; ch.qos.logback:logback-core:1.2.3; org.testng:testng:6.10; com.beust:jcommander:1.48; com.jayway.restassured:rest-assured:2.8.0; org.codehaus.groovy:groovy:2.4.4; org.codehaus.groovy:groovy-xml:2.4.4; org.apache.httpcomponents:httpclient:4.5.1; org.apache.httpcomponents:httpcore:4.4.3; commons-logging:commons-logging:1.2; commons-codec:commons-codec:1.9; org.apache.httpcomponents:httpmime:4.5.1; org.hamcrest:hamcrest-core:1.3; org.hamcrest:hamcrest-library:1.3; org.ccil.cowan.tagsoup:tagsoup:1.2.1; com.jayway.restassured:json-path:2.8.0; org.codehaus.groovy:groovy-json:2.4.4; com.jayway.restassured:rest-assured-common:2.8.0; com.jayway.restassured:xml-path:2.8.0; org.mockito:mockito-all:1.9.5; commons-io:commons-io:2.5</t>
+  </si>
+  <si>
+    <t>https://github.com/swagger-api/swagger-core/modules/swagger-jaxrs</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16</t>
+  </si>
+  <si>
+    <t>Swagger Jersey/JAX-RS</t>
+  </si>
+  <si>
+    <t>swagger-jersey-jaxrs</t>
+  </si>
+  <si>
+    <t>io.swagger:swagger-jaxrs:1.5.16; com.fasterxml.jackson.core:jackson-databind:2.8.9; com.fasterxml.jackson.core:jackson-core:2.8.9; io.swagger:swagger-core:1.5.16; org.apache.commons:commons-lang3:3.2.1; org.slf4j:slf4j-api:1.7.22; com.fasterxml.jackson.core:jackson-annotations:2.8.9; com.fasterxml.jackson.dataformat:jackson-dataformat-yaml:2.8.9; org.yaml:snakeyaml:1.17; io.swagger:swagger-models:1.5.16; io.swagger:swagger-annotations:1.5.16; javax.validation:validation-api:1.1.0.Final; javax.ws.rs:jsr311-api:1.1.1; org.reflections:reflections:0.9.11; org.javassist:javassist:3.21.0-GA; com.google.guava:guava:20.0; com.sun.jersey.contribs:jersey-multipart:1.13; org.jvnet:mimepull:1.6; com.sun.jersey:jersey-core:1.13; org.testng:testng:6.10; com.beust:jcommander:1.48</t>
+  </si>
+  <si>
+    <t>https://github.com/swagger-api/swagger-core/modules/swagger-jersey-jaxrs</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16</t>
+  </si>
+  <si>
+    <t>Swagger Models</t>
+  </si>
+  <si>
+    <t>swagger-models</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-annotations:2.8.9; org.slf4j:slf4j-api:1.7.22; io.swagger:swagger-annotations:1.5.16; org.testng:testng:6.10; com.beust:jcommander:1.48; com.openpojo:openpojo:0.8.0; org.powermock:powermock-module-testng:1.6.4; org.powermock:powermock-core:1.6.4; org.powermock:powermock-reflect:1.6.4; org.javassist:javassist:3.21.0-GA; org.powermock:powermock-module-testng-common:1.6.4; org.powermock:powermock-api-mockito:1.6.4; org.powermock:powermock-api-support:1.6.4; org.mockito:mockito-core:1.10.19; org.hamcrest:hamcrest-core:1.1; org.objenesis:objenesis:2.1; asm:asm:3.3.1</t>
+  </si>
+  <si>
+    <t>https://github.com/swagger-api/swagger-core/modules/swagger-models</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-core:jar:1.5.16 &gt; io.swagger:swagger-models:jar:1.5.16</t>
+  </si>
+  <si>
+    <t>javax.servlet</t>
+  </si>
+  <si>
+    <t>javax.servlet-api</t>
+  </si>
+  <si>
+    <t>3.1.0</t>
+  </si>
+  <si>
+    <t>http://servlet-spec.java.net</t>
+  </si>
+  <si>
+    <t>GPL-2.0-with-classpath-exception</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; javax.servlet:javax.servlet-api:jar:3.1.0</t>
+  </si>
+  <si>
+    <t>javax.servlet:javax.servlet-api:jar:3.1.0</t>
+  </si>
+  <si>
+    <t>javax.validation</t>
+  </si>
+  <si>
+    <t>validation-api</t>
+  </si>
+  <si>
+    <t>1.1.0.Final</t>
+  </si>
+  <si>
+    <t>org.testng:testng:6.8; junit:junit:4.10; org.hamcrest:hamcrest-core:1.1; org.beanshell:bsh:2.0b4; com.beust:jcommander:1.27; org.yaml:snakeyaml:1.6</t>
+  </si>
+  <si>
+    <t>http://beanvalidation.org</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; com.jcabi:jcabi-log:jar:0.17.1 &gt; com.jcabi:jcabi-aspects:jar:0.22 &gt; javax.validation:validation-api:jar:1.1.0.Final</t>
+  </si>
+  <si>
+    <t>javax.validation:validation-api:jar:1.1.0.Final</t>
+  </si>
+  <si>
+    <t>javax.websocket</t>
+  </si>
+  <si>
+    <t>javax.websocket-api</t>
+  </si>
+  <si>
+    <t>javax.websocket:javax.websocket-client-api:1.1</t>
+  </si>
+  <si>
+    <t>http://websocket-spec.java.net</t>
+  </si>
+  <si>
+    <t>CDDL-1.1 AND GPL-2.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; javax.websocket:javax.websocket-api:jar:1.1</t>
+  </si>
+  <si>
+    <t>javax.websocket:javax.websocket-api:jar:1.1</t>
+  </si>
+  <si>
+    <t>javax.ws.rs</t>
+  </si>
+  <si>
+    <t>jsr311-api</t>
+  </si>
+  <si>
+    <t>https://jsr311.dev.java.net</t>
+  </si>
+  <si>
+    <t>CDDL License</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.client:jar:2.0.0-SNAPSHOT &gt; com.sun.jersey:jersey-core:jar:1.19.3 &gt; javax.ws.rs:jsr311-api:jar:1.1.1</t>
+  </si>
+  <si>
+    <t>javax.ws.rs:jsr311-api:jar:1.1.1</t>
+  </si>
+  <si>
+    <t>JSTL</t>
+  </si>
+  <si>
+    <t>jstl</t>
+  </si>
+  <si>
+    <t>no url defined</t>
+  </si>
+  <si>
+    <t>Unknown license</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; jstl:jstl:jar:1.2</t>
+  </si>
+  <si>
+    <t>jstl:jstl:jar:1.2</t>
+  </si>
+  <si>
+    <t>JCIP</t>
+  </si>
+  <si>
+    <t>net.jcip</t>
+  </si>
+  <si>
+    <t>jcip-annotations</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>http://jcip.net/</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.collections:eclipse-collections:jar:8.2.0 &gt; net.jcip:jcip-annotations:jar:1.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.collections:eclipse-collections:jar:8.2.0</t>
+  </si>
+  <si>
+    <t>net.jcip:jcip-annotations:jar:1.0</t>
+  </si>
+  <si>
+    <t>Apache Commons: Commons-Compress</t>
+  </si>
+  <si>
+    <t>org.apache.commons</t>
+  </si>
+  <si>
+    <t>commons-compress</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest</t>
+  </si>
+  <si>
+    <t>junit:junit:4.11; org.hamcrest:hamcrest-core:1.3; org.tukaani:xz:1.4</t>
+  </si>
+  <si>
+    <t>http://commons.apache.org/proper/commons-compress/</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.apache.commons:commons-compress:jar:1.6</t>
+  </si>
+  <si>
+    <t>org.apache.commons:commons-compress:jar:1.6</t>
+  </si>
+  <si>
+    <t>Apache Commons: Configuration2</t>
+  </si>
+  <si>
+    <t>commons-configuration2</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.configuration:jar:2.0.0-SNAPSHOT &gt; org.apache.commons:commons-configuration2:jar:2.1.1</t>
+  </si>
+  <si>
+    <t>org.apache.commons:commons-configuration2:jar:2.1.1</t>
+  </si>
+  <si>
+    <t>Apache Commons: Commons-Lang 3</t>
+  </si>
+  <si>
+    <t>commons-lang3</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; org.apache.commons:commons-lang3:jar:3.1</t>
+  </si>
+  <si>
+    <t>org.apache.commons:commons-lang3:jar:3.1</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.apache.commons:commons-lang3:jar:3.6</t>
+  </si>
+  <si>
+    <t>org.apache.commons:commons-lang3:jar:3.6</t>
+  </si>
+  <si>
+    <t>ApacheHTTP Client</t>
+  </si>
+  <si>
+    <t>org.apache.httpcomponents</t>
+  </si>
+  <si>
+    <t>httpclient</t>
+  </si>
+  <si>
+    <t>4.5.2</t>
+  </si>
+  <si>
+    <t>org.apache.httpcomponents:httpcore:4.4.4; commons-logging:commons-logging:1.2; commons-codec:commons-codec:1.9; junit:junit:4.11; org.hamcrest:hamcrest-core:1.3; org.mockito:mockito-core:1.8.5; org.objenesis:objenesis:1.0</t>
+  </si>
+  <si>
+    <t>http://hc.apache.org/httpcomponents-client</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.apache.httpcomponents:httpclient:jar:4.5.2</t>
+  </si>
+  <si>
+    <t>ApacheHTTP Core</t>
+  </si>
+  <si>
+    <t>httpcore</t>
+  </si>
+  <si>
+    <t>4.4.4</t>
+  </si>
+  <si>
+    <t>junit:junit:4.11; org.hamcrest:hamcrest-core:1.3; org.mockito:mockito-core:1.8.5; org.objenesis:objenesis:1.0; commons-logging:commons-logging:1.2</t>
+  </si>
+  <si>
+    <t>http://hc.apache.org/httpcomponents-core-ga</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.apache.httpcomponents:httpclient:jar:4.5.2 &gt; org.apache.httpcomponents:httpcore:jar:4.4.4</t>
+  </si>
+  <si>
+    <t>org.apache.httpcomponents:httpcore:jar:4.4.4</t>
+  </si>
+  <si>
+    <t>Tika Core</t>
+  </si>
+  <si>
+    <t>org.apache.tika</t>
+  </si>
+  <si>
+    <t>tika-core</t>
+  </si>
+  <si>
+    <t>org.osgi:org.osgi.core:4.0.0; org.osgi:org.osgi.compendium:4.0.0; biz.aQute:bndlib:1.43.0; junit:junit:4.10; org.hamcrest:hamcrest-core:1.1</t>
+  </si>
+  <si>
+    <t>http://tika.apache.org/</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.apache.tika:tika-core:jar:1.3</t>
+  </si>
+  <si>
+    <t>org.apache.tika:tika-core:jar:1.3</t>
+  </si>
+  <si>
+    <t>Apache Velocity</t>
+  </si>
+  <si>
+    <t>org.apache.velocity</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>commons-collections:commons-collections:3.2.1; commons-lang:commons-lang:2.4; oro:oro:2.0.8; jdom:jdom:1.0; commons-logging:commons-logging:1.1; log4j:log4j:1.2.12; javax.servlet:servlet-api:2.3; logkit:logkit:2.0; ant:ant:1.6; werken-xpath:werken-xpath:0.9.4; junit:junit:3.8.1; hsqldb:hsqldb:1.7.1</t>
+  </si>
+  <si>
+    <t>http://velocity.apache.org/engine/devel/</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.bpmn4tosca.converter.tobpel:jar:2.0.0-SNAPSHOT &gt; org.apache.velocity:velocity:jar:1.7</t>
+  </si>
+  <si>
+    <t>AspectJ</t>
+  </si>
+  <si>
+    <t>org.aspectj</t>
+  </si>
+  <si>
+    <t>aspectjrt</t>
+  </si>
+  <si>
+    <t>1.8.4</t>
+  </si>
+  <si>
+    <t>http://www.aspectj.org</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; com.jcabi:jcabi-log:jar:0.17.1 &gt; com.jcabi:jcabi-aspects:jar:0.22 &gt; org.aspectj:aspectjrt:jar:1.8.4</t>
+  </si>
+  <si>
+    <t>org.aspectj:aspectjrt:jar:1.8.4</t>
+  </si>
+  <si>
+    <t>Maven Animal-Sniffer</t>
+  </si>
+  <si>
+    <t>org.codehaus.mojo</t>
+  </si>
+  <si>
+    <t>animal-sniffer-annotations</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>http://mojo.codehaus.org/animal-sniffer/animal-sniffer-annotations</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; com.google.guava:guava:jar:23.0 &gt; org.codehaus.mojo:animal-sniffer-annotations:jar:1.14</t>
+  </si>
+  <si>
+    <t>org.codehaus.mojo:animal-sniffer-annotations:jar:1.14</t>
+  </si>
+  <si>
+    <t>Eclipse Collections</t>
+  </si>
+  <si>
+    <t>org.eclipse.collections</t>
+  </si>
+  <si>
+    <t>eclipse-collections</t>
+  </si>
+  <si>
+    <t>8.2.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.collections:eclipse-collections-api:8.2.0; net.jcip:jcip-annotations:1.0</t>
+  </si>
+  <si>
+    <t>https://github.com/eclipse/eclipse-collections/eclipse-collections</t>
+  </si>
+  <si>
+    <t>Eclipse Distribution License - v 1.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.collections:eclipse-collections:jar:8.2.0</t>
+  </si>
+  <si>
+    <t>Eclipse Collections-API</t>
+  </si>
+  <si>
+    <t>eclipse-collections-api</t>
+  </si>
+  <si>
+    <t>net.jcip:jcip-annotations:1.0</t>
+  </si>
+  <si>
+    <t>https://github.com/eclipse/eclipse-collections/eclipse-collections-api</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.collections:eclipse-collections:jar:8.2.0 &gt; org.eclipse.collections:eclipse-collections-api:jar:8.2.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.collections:eclipse-collections-api:jar:8.2.0</t>
+  </si>
+  <si>
+    <t>Eclipse JDT</t>
+  </si>
+  <si>
+    <t>org.eclipse.jdt</t>
+  </si>
+  <si>
+    <t>org.eclipse.jdt.annotation</t>
+  </si>
+  <si>
+    <t>2.1.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.model.tosca.yaml; org.eclipse.winery.common; org.eclipse.winery.repository.configuration; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>http://www.eclipse.org/jdt</t>
+  </si>
+  <si>
+    <t>Eclipse Public License</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.tosca:jar:2.0.0-SNAPSHOT &gt; org.eclipse.jdt:org.eclipse.jdt.annotation:jar:2.1.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.jdt:org.eclipse.jdt.annotation:jar:2.1.0</t>
+  </si>
+  <si>
+    <t>Jetty Servlet</t>
+  </si>
+  <si>
+    <t>org.eclipse.jetty</t>
+  </si>
+  <si>
+    <t>jetty-servlet</t>
+  </si>
+  <si>
+    <t>9.4.2.v20170220</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.jetty:jetty-servlet:jar:9.4.2.v20170220</t>
+  </si>
+  <si>
+    <t>org.eclipse.jetty:jetty-servlet:jar:9.4.2.v20170220</t>
+  </si>
+  <si>
+    <t>Jetty Servlets</t>
+  </si>
+  <si>
+    <t>jetty-servlets</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.jetty:jetty-servlets:jar:9.4.2.v20170220</t>
+  </si>
+  <si>
+    <t>org.eclipse.jetty:jetty-servlets:jar:9.4.2.v20170220</t>
+  </si>
+  <si>
+    <t>Jetty TestHelper</t>
+  </si>
+  <si>
+    <t>org.eclipse.jetty.toolchain</t>
+  </si>
+  <si>
+    <t>jetty-test-helper</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>junit:junit:4.12; org.hamcrest:hamcrest-library:1.3; org.hamcrest:hamcrest-core:1.3</t>
+  </si>
+  <si>
+    <t>http://www.eclipse.org/jetty/jetty-toolchain/jetty-test-helper</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.jetty.toolchain:jetty-test-helper:jar:4.2</t>
+  </si>
+  <si>
+    <t>org.eclipse.jetty.toolchain:jetty-test-helper:jar:4.2</t>
+  </si>
+  <si>
+    <t>org.eclipse.jgit</t>
+  </si>
+  <si>
+    <t>4.8.0.201706111038-r</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.jgit:org.eclipse.jgit:jar:4.8.0.201706111038-r</t>
+  </si>
+  <si>
+    <t>org.eclipse.jgit:org.eclipse.jgit:jar:4.8.0.201706111038-r</t>
+  </si>
+  <si>
+    <t>4.9.0.201710071750-r</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.jgit:org.eclipse.jgit:jar:4.9.0.201710071750-r</t>
+  </si>
+  <si>
+    <t>org.eclipse.jgit:org.eclipse.jgit:jar:4.9.0.201710071750-r</t>
+  </si>
+  <si>
+    <t>Eclipse Virgo Parser Manifest</t>
+  </si>
+  <si>
+    <t>org.eclipse.virgo.util</t>
+  </si>
+  <si>
+    <t>org.eclipse.virgo.util.parser.manifest</t>
+  </si>
+  <si>
+    <t>3.5.0.RELEASE</t>
+  </si>
+  <si>
+    <t>http://www.eclipse.org/virgo/</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:jar:2.0.0-SNAPSHOT &gt; org.eclipse.virgo.util:org.eclipse.virgo.util.parser.manifest:jar:3.5.0.RELEASE</t>
+  </si>
+  <si>
+    <t>org.eclipse.virgo.util:org.eclipse.virgo.util.parser.manifest:jar:3.5.0.RELEASE</t>
+  </si>
+  <si>
+    <t>Winery Common</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery.common</t>
+  </si>
+  <si>
+    <t>2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler</t>
+  </si>
+  <si>
+    <t>ch.qos.logback:logback-classic:1.1.1; ch.qos.logback:logback-core:1.1.1; org.slf4j:slf4j-api:1.7.6; com.jcabi:jcabi-log:0.17.1; com.jcabi:jcabi-aspects:0.22; org.aspectj:aspectjrt:1.8.4; javax.validation:validation-api:1.1.0.Final; com.fasterxml.jackson.core:jackson-core:2.8.6; com.fasterxml.jackson.core:jackson-annotations:2.8.0; com.fasterxml.jackson.core:jackson-databind:2.8.6; org.eclipse.winery:org.eclipse.winery.model.tosca:2.0.0-SNAPSHOT; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; io.github.adr:e-adr:1.0.0; org.slf4j:jcl-over-slf4j:1.7.6; jstl:jstl:1.2; commons-io:commons-io:2.4; org.apache.commons:commons-lang3:3.1; junit:junit:4.11; org.hamcrest:hamcrest-core:1.3</t>
+  </si>
+  <si>
+    <t>https://eclipse.github.io/winery/org.eclipse.winery.common</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>Winery Generators</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery.generators.ia</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:2.0.0-SNAPSHOT; com.jcabi:jcabi-log:0.17.1; com.jcabi:jcabi-aspects:0.22; org.aspectj:aspectjrt:1.8.4; javax.validation:validation-api:1.1.0.Final; com.fasterxml.jackson.core:jackson-core:2.8.6; com.fasterxml.jackson.core:jackson-annotations:2.8.0; com.fasterxml.jackson.core:jackson-databind:2.8.6; jstl:jstl:1.2; org.apache.commons:commons-lang3:3.1; ch.qos.logback:logback-classic:1.1.1; ch.qos.logback:logback-core:1.1.1; org.slf4j:slf4j-api:1.7.6; org.slf4j:jcl-over-slf4j:1.7.6; org.eclipse.winery:org.eclipse.winery.model.tosca:2.0.0-SNAPSHOT; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; io.github.adr:e-adr:1.0.0; org.apache.commons:commons-compress:1.6; org.tukaani:xz:1.3; commons-io:commons-io:2.4; junit:junit:4.11; org.hamcrest:hamcrest-core:1.3</t>
+  </si>
+  <si>
+    <t>https://eclipse.github.io/winery/org.eclipse.winery.generators.ia</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.generators.ia:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.generators.ia:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>Winery BPMN4Tosca Model</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery.model.bpmn4tosca</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.jgrapht:jgrapht-core:0.9.1</t>
+  </si>
+  <si>
+    <t>http://www.eclipse.org/winery</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.bpmn4tosca.converter.tobpel:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.model.bpmn4tosca:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.bpmn4tosca:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>Winery CSAR Toscametafile</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery.model.csar.toscametafile</t>
+  </si>
+  <si>
+    <t>ch.qos.logback:logback-classic:1.1.1; ch.qos.logback:logback-core:1.1.1; org.slf4j:slf4j-api:1.7.6; org.eclipse.virgo.util:org.eclipse.virgo.util.parser.manifest:3.5.0.RELEASE</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>Winery Selfservice Model</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery.model.selfservice</t>
+  </si>
+  <si>
+    <t>https://eclipse.github.io/winery/org.eclipse.winery.model.selfservice</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.model.selfservice:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.selfservice:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>Winery Tosca Model</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery.model.tosca</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; io.github.adr:e-adr:1.0.0; org.slf4j:slf4j-api:1.7.2</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.model.tosca:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.tosca:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>Winery Tosca Yaml</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery.model.tosca.yaml</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; io.github.adr:e-adr:1.0.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.model.tosca.yaml:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.tosca.yaml:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>Winery Repository</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery.repository</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.rest</t>
+  </si>
+  <si>
+    <t>ch.qos.logback:logback-classic:1.1.1; ch.qos.logback:logback-core:1.1.1; org.slf4j:slf4j-api:1.7.6; com.fasterxml.jackson.core:jackson-databind:2.8.6; com.fasterxml.jackson.core:jackson-core:2.8.6; com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.apache.commons:commons-compress:1.6; org.tukaani:xz:1.3; commons-io:commons-io:2.4; xerces:xercesImpl:2.9.1; xml-apis:xml-apis:1.3.04; org.apache.tika:tika-core:1.3; org.apache.commons:commons-lang3:3.1; org.eclipse.winery:org.eclipse.winery.model.selfservice:2.0.0-SNAPSHOT; org.slf4j:jcl-over-slf4j:1.7.6; org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:2.0.0-SNAPSHOT; org.eclipse.virgo.util:org.eclipse.virgo.util.parser.manifest:3.5.0.RELEASE; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:2.7.7; com.fasterxml.jackson.jaxrs:jackson-jaxrs-base:2.7.7; com.fasterxml.jackson.module:jackson-module-jaxb-annotations:2.7.7; org.slf4j:slf4j-ext:1.7.2; org.eclipse.winery:org.eclipse.winery.common:2.0.0-SNAPSHOT; com.jcabi:jcabi-log:0.17.1; com.jcabi:jcabi-aspects:0.22; org.aspectj:aspectjrt:1.8.4; javax.validation:validation-api:1.1.0.Final; org.eclipse.winery:org.eclipse.winery.model.tosca:2.0.0-SNAPSHOT; io.github.adr:e-adr:1.0.0; jstl:jstl:1.2; commons-configuration:commons-configuration:1.9; org.eclipse.jgit:org.eclipse.jgit:4.8.0.201706111038-r; com.sun.xml.bind:jaxb-impl:2.2.5; junit:junit:4.11; org.hamcrest:hamcrest-core:1.3; com.google.guava:guava:23.0; com.google.code.findbugs:jsr305:1.3.9; com.google.errorprone:error_prone_annotations:2.0.18; com.google.j2objc:j2objc-annotations:1.1; org.codehaus.mojo:animal-sniffer-annotations:1.14; org.xmlunit:xmlunit-core:2.3.0; org.xmlunit:xmlunit-matchers:2.3.0; org.skyscreamer:jsonassert:1.4.0; com.vaadin.external.google:android-json:0.0.20131108.vaadin1; org.eclipse.winery:org.eclipse.winery.repository.configuration:2.0.0-SNAPSHOT; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; org.apache.commons:commons-configuration2:2.1.1; commons-beanutils:commons-beanutils:1.9.3; org.eclipse.collections:eclipse-collections:8.2.0; org.eclipse.collections:eclipse-collections-api:8.2.0; net.jcip:jcip-annotations:1.0</t>
+  </si>
+  <si>
+    <t>https://eclipse.github.io/winery/org.eclipse.winery.repository</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>Winery Repository Client</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery.repository.client</t>
+  </si>
+  <si>
+    <t>junit:junit:4.11</t>
+  </si>
+  <si>
+    <t>https://eclipse.github.io/winery/org.eclipse.winery.repository.client</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.repository.client:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.client:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>Winery Repository Configuration</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery.repository.configuration</t>
+  </si>
+  <si>
+    <t>org.slf4j:slf4j-api:1.7.13; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; org.apache.commons:commons-configuration2:2.1.1; commons-beanutils:commons-beanutils:1.9.3</t>
+  </si>
+  <si>
+    <t>https://eclipse.github.io/winery/org.eclipse.winery.repository.configuration</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.repository.configuration:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.configuration:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>Winery Yaml Common</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery.yaml.common</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.repository.rest</t>
+  </si>
+  <si>
+    <t>org.yaml:snakeyaml:1.17; junit:junit:4.11; org.hamcrest:hamcrest-core:1.3; org.eclipse.winery:org.eclipse.winery.model.tosca:2.0.0-SNAPSHOT; com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; io.github.adr:e-adr:1.0.0; org.slf4j:slf4j-api:1.7.2; org.eclipse.winery:org.eclipse.winery.model.tosca.yaml:2.0.0-SNAPSHOT; com.sun.xml.bind:jaxb-impl:2.2.11; com.sun.xml.bind:jaxb-core:2.2.11; org.eclipse.winery:org.eclipse.winery.repository:2.0.0-SNAPSHOT; ch.qos.logback:logback-classic:1.1.1; ch.qos.logback:logback-core:1.1.1; com.fasterxml.jackson.core:jackson-databind:2.8.6; com.fasterxml.jackson.core:jackson-core:2.8.6; org.apache.commons:commons-compress:1.6; org.tukaani:xz:1.3; commons-io:commons-io:2.4; xerces:xercesImpl:2.9.1; xml-apis:xml-apis:1.3.04; org.apache.tika:tika-core:1.3; org.apache.commons:commons-lang3:3.1; org.eclipse.winery:org.eclipse.winery.model.selfservice:2.0.0-SNAPSHOT; org.slf4j:jcl-over-slf4j:1.7.6; org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:2.0.0-SNAPSHOT; org.eclipse.virgo.util:org.eclipse.virgo.util.parser.manifest:3.5.0.RELEASE; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:2.7.7; com.fasterxml.jackson.jaxrs:jackson-jaxrs-base:2.7.7; com.fasterxml.jackson.module:jackson-module-jaxb-annotations:2.7.7; org.slf4j:slf4j-ext:1.7.2; org.eclipse.winery:org.eclipse.winery.common:2.0.0-SNAPSHOT; com.jcabi:jcabi-log:0.17.1; com.jcabi:jcabi-aspects:0.22; org.aspectj:aspectjrt:1.8.4; javax.validation:validation-api:1.1.0.Final; jstl:jstl:1.2; commons-configuration:commons-configuration:1.9; org.eclipse.jgit:org.eclipse.jgit:4.8.0.201706111038-r; com.google.guava:guava:23.0; com.google.code.findbugs:jsr305:1.3.9; com.google.errorprone:error_prone_annotations:2.0.18; com.google.j2objc:j2objc-annotations:1.1; org.codehaus.mojo:animal-sniffer-annotations:1.14; org.eclipse.winery:org.eclipse.winery.repository.configuration:2.0.0-SNAPSHOT; org.apache.commons:commons-configuration2:2.1.1; commons-beanutils:commons-beanutils:1.9.3; org.eclipse.collections:eclipse-collections:8.2.0; org.eclipse.collections:eclipse-collections-api:8.2.0; net.jcip:jcip-annotations:1.0</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.yaml.converter:jar:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>Winery Yaml Converter</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery.yaml.converter</t>
+  </si>
+  <si>
+    <t>org.yaml:snakeyaml:1.17; junit:junit:4.11; org.hamcrest:hamcrest-core:1.3; org.eclipse.winery:org.eclipse.winery.model.tosca:2.0.0-SNAPSHOT; com.fasterxml.jackson.core:jackson-annotations:2.8.0; org.eclipse.jdt:org.eclipse.jdt.annotation:2.1.0; io.github.adr:e-adr:1.0.0; org.slf4j:slf4j-api:1.7.2; org.eclipse.winery:org.eclipse.winery.model.tosca.yaml:2.0.0-SNAPSHOT; org.eclipse.winery:org.eclipse.winery.yaml.common:2.0.0-SNAPSHOT; com.sun.xml.bind:jaxb-impl:2.2.11; com.sun.xml.bind:jaxb-core:2.2.11; org.eclipse.winery:org.eclipse.winery.repository:2.0.0-SNAPSHOT; org.apache.commons:commons-compress:1.6; org.tukaani:xz:1.3; xerces:xercesImpl:2.9.1; xml-apis:xml-apis:1.3.04; org.apache.tika:tika-core:1.3; org.eclipse.winery:org.eclipse.winery.model.selfservice:2.0.0-SNAPSHOT; org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:2.0.0-SNAPSHOT; org.eclipse.virgo.util:org.eclipse.virgo.util.parser.manifest:3.5.0.RELEASE; com.fasterxml.jackson.jaxrs:jackson-jaxrs-json-provider:2.7.7; com.fasterxml.jackson.jaxrs:jackson-jaxrs-base:2.7.7; com.fasterxml.jackson.module:jackson-module-jaxb-annotations:2.7.7; org.slf4j:slf4j-ext:1.7.2; commons-configuration:commons-configuration:1.9; org.eclipse.jgit:org.eclipse.jgit:4.8.0.201706111038-r; com.google.guava:guava:23.0; com.google.code.findbugs:jsr305:1.3.9; com.google.errorprone:error_prone_annotations:2.0.18; com.google.j2objc:j2objc-annotations:1.1; org.codehaus.mojo:animal-sniffer-annotations:1.14; org.eclipse.winery:org.eclipse.winery.repository.configuration:2.0.0-SNAPSHOT; org.apache.commons:commons-configuration2:2.1.1; commons-beanutils:commons-beanutils:1.9.3; org.eclipse.collections:eclipse-collections:8.2.0; org.eclipse.collections:eclipse-collections-api:8.2.0; net.jcip:jcip-annotations:1.0; org.eclipse.winery:org.eclipse.winery.common:2.0.0-SNAPSHOT; ch.qos.logback:logback-classic:1.1.1; ch.qos.logback:logback-core:1.1.1; com.jcabi:jcabi-log:0.17.1; com.jcabi:jcabi-aspects:0.22; org.aspectj:aspectjrt:1.8.4; javax.validation:validation-api:1.1.0.Final; com.fasterxml.jackson.core:jackson-core:2.8.6; com.fasterxml.jackson.core:jackson-databind:2.8.6; org.slf4j:jcl-over-slf4j:1.7.6; jstl:jstl:1.2; commons-io:commons-io:2.4; org.apache.commons:commons-lang3:3.1; org.xmlunit:xmlunit-core:2.3.0; org.xmlunit:xmlunit-matchers:2.3.0; org.skyscreamer:jsonassert:1.4.0; com.vaadin.external.google:android-json:0.0.20131108.vaadin1; io.rest-assured:rest-assured:3.0.2; org.codehaus.groovy:groovy:2.4.6; org.codehaus.groovy:groovy-xml:2.4.6; org.apache.httpcomponents:httpclient:4.5.2; org.apache.httpcomponents:httpcore:4.4.4; commons-logging:commons-logging:1.2; commons-codec:commons-codec:1.9; org.apache.httpcomponents:httpmime:4.5.1; org.hamcrest:hamcrest-library:1.3; org.ccil.cowan.tagsoup:tagsoup:1.2.1; io.rest-assured:json-path:3.0.2; org.codehaus.groovy:groovy-json:2.4.6; io.rest-assured:rest-assured-common:3.0.2; io.rest-assured:xml-path:3.0.2; org.eclipse.jetty:jetty-servlet:9.4.2.v20170220</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.winery:org.eclipse.winery.yaml.converter:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.yaml.converter:jar:2.0.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>Hamcrest Core</t>
+  </si>
+  <si>
+    <t>org.hamcrest</t>
+  </si>
+  <si>
+    <t>hamcrest-core</t>
+  </si>
+  <si>
+    <t>https://github.com/hamcrest/JavaHamcrest/hamcrest-core</t>
+  </si>
+  <si>
+    <t>New BSD License</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; junit:junit:jar:4.11 &gt; org.hamcrest:hamcrest-core:jar:1.3</t>
+  </si>
+  <si>
+    <t>junit:junit:jar:4.11</t>
+  </si>
+  <si>
+    <t>org.hamcrest:hamcrest-core:jar:1.3</t>
+  </si>
+  <si>
+    <t>Hamcrest Library</t>
+  </si>
+  <si>
+    <t>hamcrest-library</t>
+  </si>
+  <si>
+    <t>org.hamcrest:hamcrest-core:1.3</t>
+  </si>
+  <si>
+    <t>https://github.com/hamcrest/JavaHamcrest/hamcrest-library</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.eclipse.jetty.toolchain:jetty-test-helper:jar:4.2 &gt; org.hamcrest:hamcrest-library:jar:1.3</t>
+  </si>
+  <si>
+    <t>org.hamcrest:hamcrest-library:jar:1.3</t>
+  </si>
+  <si>
+    <t>Javassist</t>
+  </si>
+  <si>
+    <t>org.javassist</t>
+  </si>
+  <si>
+    <t>javassist</t>
+  </si>
+  <si>
+    <t>3.21.0-GA</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16 &gt; org.reflections:reflections:jar:0.9.11 &gt; org.javassist:javassist:jar:3.21.0-GA</t>
+  </si>
+  <si>
+    <t>org.reflections:reflections:jar:0.9.11</t>
+  </si>
+  <si>
+    <t>org.javassist:javassist:jar:3.21.0-GA</t>
+  </si>
+  <si>
+    <t>org.jgrapht</t>
+  </si>
+  <si>
+    <t>jgrapht-core</t>
+  </si>
+  <si>
+    <t>0.9.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.bpmn4tosca.converter.tobpel</t>
+  </si>
+  <si>
+    <t>junit:junit:4.10; org.hamcrest:hamcrest-core:1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.bpmn4tosca:jar:2.0.0-SNAPSHOT &gt; org.jgrapht:jgrapht-core:jar:0.9.1</t>
+  </si>
+  <si>
+    <t>org.jgrapht:jgrapht-core:jar:0.9.1</t>
+  </si>
+  <si>
+    <t>org.jvnet.mimepull</t>
+  </si>
+  <si>
+    <t>mimepull</t>
+  </si>
+  <si>
+    <t>1.9.4</t>
+  </si>
+  <si>
+    <t>http://mimepull.java.net</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; org.jvnet.mimepull:mimepull:jar:1.9.4</t>
+  </si>
+  <si>
+    <t>org.jvnet.mimepull:mimepull:jar:1.9.4</t>
+  </si>
+  <si>
+    <t>org.reflections</t>
+  </si>
+  <si>
+    <t>reflections</t>
+  </si>
+  <si>
+    <t>0.9.11</t>
+  </si>
+  <si>
+    <t>com.google.guava:guava:20.0; org.javassist:javassist:3.21.0-GA; org.slf4j:slf4j-api:1.7.24; dom4j:dom4j:1.6.1; xml-apis:xml-apis:1.0.b2; com.google.code.gson:gson:2.8.0; javax.servlet:servlet-api:2.5; org.slf4j:slf4j-simple:1.7.24; com.google.code.findbugs:jsr305:3.0.1; junit:junit:4.12</t>
+  </si>
+  <si>
+    <t>http://github.com/ronmamo/reflections</t>
+  </si>
+  <si>
+    <t>The New BSD License</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.rest:war:2.0.0-SNAPSHOT &gt; io.swagger:swagger-jersey-jaxrs:jar:1.5.16 &gt; io.swagger:swagger-jaxrs:jar:1.5.16 &gt; org.reflections:reflections:jar:0.9.11</t>
+  </si>
+  <si>
+    <t>SLF4J JCL</t>
+  </si>
+  <si>
+    <t>org.slf4j</t>
+  </si>
+  <si>
+    <t>jcl-over-slf4j</t>
+  </si>
+  <si>
+    <t>1.7.6</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.repository; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter; org.eclipse.winery.cli; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler; org.eclipse.winery.highlevelrestapi</t>
+  </si>
+  <si>
+    <t>org.slf4j:slf4j-api:1.7.6; org.slf4j:slf4j-jdk14:1.7.6; junit:junit:4.10; org.hamcrest:hamcrest-core:1.1</t>
+  </si>
+  <si>
+    <t>http://www.slf4j.org</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.common:jar:2.0.0-SNAPSHOT &gt; org.slf4j:jcl-over-slf4j:jar:1.7.6</t>
+  </si>
+  <si>
+    <t>org.slf4j:jcl-over-slf4j:jar:1.7.6</t>
+  </si>
+  <si>
+    <t>SLF4J API</t>
+  </si>
+  <si>
+    <t>slf4j-api</t>
+  </si>
+  <si>
+    <t>1.7.13</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository.configuration:jar:2.0.0-SNAPSHOT &gt; org.slf4j:slf4j-api:jar:1.7.13</t>
+  </si>
+  <si>
+    <t>org.slf4j:slf4j-api:jar:1.7.13</t>
+  </si>
+  <si>
+    <t>1.7.2</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.yaml.common; org.eclipse.winery.yaml.converter</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.tosca:jar:2.0.0-SNAPSHOT &gt; org.slf4j:slf4j-api:jar:1.7.2</t>
+  </si>
+  <si>
+    <t>org.slf4j:slf4j-api:jar:1.7.2</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery; org.eclipse.winery.common; org.eclipse.winery.repository; org.eclipse.winery.cli; org.eclipse.winery.bpmn4tosca.converter.tobpel; org.eclipse.winery.repository.client; org.eclipse.winery.generators.ia; org.eclipse.winery.repository.rest; org.eclipse.winery.topologymodeler; org.eclipse.winery.highlevelrestapi</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.model.csar.toscametafile:jar:2.0.0-SNAPSHOT &gt; ch.qos.logback:logback-classic:jar:1.1.1 &gt; org.slf4j:slf4j-api:jar:1.7.6</t>
+  </si>
+  <si>
+    <t>org.slf4j:slf4j-api:jar:1.7.6</t>
+  </si>
+  <si>
+    <t>SLF4J EXT</t>
+  </si>
+  <si>
+    <t>slf4j-ext</t>
+  </si>
+  <si>
+    <t>org.slf4j:slf4j-api:1.7.2; org.slf4j:slf4j-log4j12:1.7.2; log4j:log4j:1.2.17; ch.qos.cal10n:cal10n-api:0.7.4; javassist:javassist:3.4.GA; commons-lang:commons-lang:2.4; junit:junit:4.10; org.hamcrest:hamcrest-core:1.1</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.slf4j:slf4j-ext:jar:1.7.2</t>
+  </si>
+  <si>
+    <t>org.slf4j:slf4j-ext:jar:1.7.2</t>
+  </si>
+  <si>
+    <t>org.tukaani</t>
+  </si>
+  <si>
+    <t>xz</t>
+  </si>
+  <si>
+    <t>http://tukaani.org/xz/java.html</t>
+  </si>
+  <si>
+    <t>Public Domain</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; org.tukaani:xz:jar:1.3</t>
+  </si>
+  <si>
+    <t>org.tukaani:xz:jar:1.3</t>
+  </si>
+  <si>
+    <t>Snakeyaml</t>
+  </si>
+  <si>
+    <t>org.yaml</t>
+  </si>
+  <si>
+    <t>snakeyaml</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.yaml.common:jar:2.0.0-SNAPSHOT &gt; org.yaml:snakeyaml:jar:1.17</t>
+  </si>
+  <si>
+    <t>org.yaml:snakeyaml:jar:1.17</t>
+  </si>
+  <si>
+    <t>Xerces Impl</t>
+  </si>
+  <si>
+    <t>xerces</t>
+  </si>
+  <si>
+    <t>xercesImpl</t>
+  </si>
+  <si>
+    <t>2.9.1</t>
+  </si>
+  <si>
+    <t>xml-apis:xml-apis:1.3.04; xml-resolver:xml-resolver:1.2</t>
+  </si>
+  <si>
+    <t>http://xerces.apache.org/xerces2-j</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; xerces:xercesImpl:jar:2.9.1</t>
+  </si>
+  <si>
+    <t>xerces:xercesImpl:jar:2.9.1</t>
+  </si>
+  <si>
+    <t>XML-Apis</t>
+  </si>
+  <si>
+    <t>xml-apis</t>
+  </si>
+  <si>
+    <t>1.3.04</t>
+  </si>
+  <si>
+    <t>http://xml.apache.org/commons/components/external/</t>
+  </si>
+  <si>
+    <t>org.eclipse.winery:org.eclipse.winery.repository:jar:2.0.0-SNAPSHOT &gt; xerces:xercesImpl:jar:2.9.1 &gt; xml-apis:xml-apis:jar:1.3.04</t>
+  </si>
+  <si>
+    <t>xml-apis:xml-apis:jar:1.3.04</t>
+  </si>
+  <si>
+    <t>Angular Browser</t>
+  </si>
+  <si>
+    <t>npm</t>
+  </si>
+  <si>
+    <t>@angular/animations/browser</t>
+  </si>
+  <si>
+    <t>WineryUI</t>
+  </si>
+  <si>
+    <t>@angular/animations/browser/testing</t>
+  </si>
+  <si>
+    <t>Angular Common</t>
+  </si>
+  <si>
+    <t>@angular/common</t>
+  </si>
+  <si>
+    <t>4.3.5</t>
+  </si>
+  <si>
+    <t>tslib:^1.7.1</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/@angular/common/-/common-4.3.5.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/angular/angular#readme</t>
+  </si>
+  <si>
+    <t>Angular Common HTTP</t>
+  </si>
+  <si>
+    <t>@angular/common/http</t>
+  </si>
+  <si>
+    <t>@angular/common/http/testing</t>
+  </si>
+  <si>
+    <t>@angular/common/testing</t>
+  </si>
+  <si>
+    <t>Angular Compiler</t>
+  </si>
+  <si>
+    <t>@angular/compiler</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/@angular/compiler/-/compiler-4.3.5.tgz</t>
+  </si>
+  <si>
+    <t>@angular/compiler/testing</t>
+  </si>
+  <si>
+    <t>Angular Core</t>
+  </si>
+  <si>
+    <t>@angular/core</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/@angular/core/-/core-4.3.5.tgz</t>
+  </si>
+  <si>
+    <t>@angular/core/testing</t>
+  </si>
+  <si>
+    <t>Angular Forms</t>
+  </si>
+  <si>
+    <t>@angular/forms</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/@angular/forms/-/forms-4.3.5.tgz</t>
+  </si>
+  <si>
+    <t>Angular HTTP</t>
+  </si>
+  <si>
+    <t>@angular/http</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/@angular/http/-/http-4.3.5.tgz</t>
+  </si>
+  <si>
+    <t>@angular/http/testing</t>
+  </si>
+  <si>
+    <t>Angular Platform-Browser</t>
+  </si>
+  <si>
+    <t>@angular/platform-browser</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/@angular/platform-browser/-/platform-browser-4.3.5.tgz</t>
+  </si>
+  <si>
+    <t>Angular Platform-Browser Dynamic</t>
+  </si>
+  <si>
+    <t>@angular/platform-browser-dynamic</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/@angular/platform-browser-dynamic/-/platform-browser-dynamic-4.3.5.tgz</t>
+  </si>
+  <si>
+    <t>@angular/platform-browser-dynamic/testing</t>
+  </si>
+  <si>
+    <t>Angular Platform-Browser Animations</t>
+  </si>
+  <si>
+    <t>@angular/platform-browser/animations</t>
+  </si>
+  <si>
+    <t>@angular/platform-browser/testing</t>
+  </si>
+  <si>
+    <t>Angular Router</t>
+  </si>
+  <si>
+    <t>@angular/router</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/@angular/router/-/router-4.3.5.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/angular/angular/tree/master/packages/router</t>
+  </si>
+  <si>
+    <t>@angular/router/testing</t>
+  </si>
+  <si>
+    <t>@angular/router/upgrade</t>
+  </si>
+  <si>
+    <t>Angular2 Websocket</t>
+  </si>
+  <si>
+    <t>angular2-websocket</t>
+  </si>
+  <si>
+    <t>0.9.3</t>
+  </si>
+  <si>
+    <t>bluebird:^3.4.6</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/angular2-websocket/-/angular2-websocket-0.9.3.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/afrad/angular2-websocket#readme</t>
+  </si>
+  <si>
+    <t>bluebird</t>
+  </si>
+  <si>
+    <t>3.5.0</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/bluebird/-/bluebird-3.5.0.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/petkaantonov/bluebird</t>
+  </si>
+  <si>
+    <t>@angular/cli/html-webpack-plugin &gt; angular2-websocket &gt; karma</t>
+  </si>
+  <si>
+    <t>core-js</t>
+  </si>
+  <si>
+    <t>2.5.0</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/core-js/-/core-js-2.5.0.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/zloirock/core-js#readme</t>
   </si>
   <si>
     <t xml:space="preserve"> &gt; @angular/cli/babel-runtime &gt; babel-runtime &gt; karma</t>
   </si>
   <si>
-    <t xml:space="preserve">font-awesome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/font-awesome/-/font-awesome-4.7.0.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://fontawesome.io/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(OFL-1.1 AND MIT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moment.JS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/moment/-/moment-2.18.1.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://momentjs.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ngx-bootstrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG2 File Upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ng2-file-upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/ng2-file-upload/-/ng2-file-upload-1.2.0.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/valor-software/ng2-file-upload#readme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG2 Material Dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ng2-material-dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/ng2-material-dropdown/-/ng2-material-dropdown-0.7.10.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Gbuomprisco/ng2-material-dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ngx-chips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG2 Select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ng2-select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/ng2-select/-/ng2-select-1.2.0.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/valor-software/ng2-select#readme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG2 Table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ng2-table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/ng2-table/-/ng2-table-1.3.2.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/valor-software/ng2-table#readme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG2 Toaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ng2-toastr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/ng2-toastr/-/ng2-toastr-4.0.1.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/PointInside/ng2-toastr#readme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moment:2.18.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/ngx-bootstrap/-/ngx-bootstrap-1.8.1.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/valor-software/ngx-bootstrap#readme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ng2-material-dropdown:0.7.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/ngx-chips/-/ngx-chips-1.5.3.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Gbuomprisco/ngx-chips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ngx-pagination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/ngx-pagination/-/ngx-pagination-3.0.1.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/michaelbromley/ngx-pagination#readme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reflect-metadata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/reflect-metadata/-/reflect-metadata-0.1.10.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://rbuckton.github.io/reflect-metadata</t>
+    <t>font-awesome</t>
+  </si>
+  <si>
+    <t>4.7.0</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/font-awesome/-/font-awesome-4.7.0.tgz</t>
+  </si>
+  <si>
+    <t>http://fontawesome.io/</t>
+  </si>
+  <si>
+    <t>(OFL-1.1 AND MIT)</t>
+  </si>
+  <si>
+    <t>Moment.JS</t>
+  </si>
+  <si>
+    <t>moment</t>
+  </si>
+  <si>
+    <t>2.18.1</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/moment/-/moment-2.18.1.tgz</t>
+  </si>
+  <si>
+    <t>http://momentjs.com</t>
+  </si>
+  <si>
+    <t>ngx-bootstrap</t>
+  </si>
+  <si>
+    <t>NG2 File Upload</t>
+  </si>
+  <si>
+    <t>ng2-file-upload</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/ng2-file-upload/-/ng2-file-upload-1.2.0.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/valor-software/ng2-file-upload#readme</t>
+  </si>
+  <si>
+    <t>NG2 Material Dropdown</t>
+  </si>
+  <si>
+    <t>ng2-material-dropdown</t>
+  </si>
+  <si>
+    <t>0.7.10</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/ng2-material-dropdown/-/ng2-material-dropdown-0.7.10.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/Gbuomprisco/ng2-material-dropdown</t>
+  </si>
+  <si>
+    <t>ngx-chips</t>
+  </si>
+  <si>
+    <t>NG2 Select</t>
+  </si>
+  <si>
+    <t>ng2-select</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/ng2-select/-/ng2-select-1.2.0.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/valor-software/ng2-select#readme</t>
+  </si>
+  <si>
+    <t>NG2 Table</t>
+  </si>
+  <si>
+    <t>ng2-table</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/ng2-table/-/ng2-table-1.3.2.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/valor-software/ng2-table#readme</t>
+  </si>
+  <si>
+    <t>NG2 Toaster</t>
+  </si>
+  <si>
+    <t>ng2-toastr</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/ng2-toastr/-/ng2-toastr-4.0.1.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/PointInside/ng2-toastr#readme</t>
+  </si>
+  <si>
+    <t>ISC</t>
+  </si>
+  <si>
+    <t>1.8.1</t>
+  </si>
+  <si>
+    <t>moment:2.18.1</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/ngx-bootstrap/-/ngx-bootstrap-1.8.1.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/valor-software/ngx-bootstrap#readme</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
+  </si>
+  <si>
+    <t>ng2-material-dropdown:0.7.10</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/ngx-chips/-/ngx-chips-1.5.3.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/Gbuomprisco/ngx-chips</t>
+  </si>
+  <si>
+    <t>ngx-pagination</t>
+  </si>
+  <si>
+    <t>3.0.1</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/ngx-pagination/-/ngx-pagination-3.0.1.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/michaelbromley/ngx-pagination#readme</t>
+  </si>
+  <si>
+    <t>reflect-metadata</t>
+  </si>
+  <si>
+    <t>0.1.10</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/reflect-metadata/-/reflect-metadata-0.1.10.tgz</t>
+  </si>
+  <si>
+    <t>http://rbuckton.github.io/reflect-metadata</t>
   </si>
   <si>
     <t xml:space="preserve"> &gt; @angular/compiler-cli</t>
   </si>
   <si>
-    <t xml:space="preserve">React-JS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxjs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">symbol-observable:^1.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/rxjs/-/rxjs-5.4.3.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/ReactiveX/RxJS</t>
+    <t>React-JS</t>
+  </si>
+  <si>
+    <t>rxjs</t>
+  </si>
+  <si>
+    <t>5.4.3</t>
+  </si>
+  <si>
+    <t>symbol-observable:^1.0.1</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/rxjs/-/rxjs-5.4.3.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/ReactiveX/RxJS</t>
   </si>
   <si>
     <t xml:space="preserve"> &gt; @angular/cli</t>
   </si>
   <si>
-    <t xml:space="preserve">spinkit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/spinkit/-/spinkit-1.2.5.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/tobiasahlin/SpinKit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">symbol-observable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/symbol-observable/-/symbol-observable-1.0.4.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/blesh/symbol-observable#readme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tslib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/tslib/-/tslib-1.7.1.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://typescriptlang.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://registry.npmjs.org/zone.js/-/zone.js-0.8.16.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/angular/zone.js#readme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular Animations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@angular/animations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angular-animations-4.3.5.zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.circleci/
+    <t>spinkit</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/spinkit/-/spinkit-1.2.5.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/tobiasahlin/SpinKit</t>
+  </si>
+  <si>
+    <t>symbol-observable</t>
+  </si>
+  <si>
+    <t>1.0.4</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/symbol-observable/-/symbol-observable-1.0.4.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/blesh/symbol-observable#readme</t>
+  </si>
+  <si>
+    <t>tslib</t>
+  </si>
+  <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/tslib/-/tslib-1.7.1.tgz</t>
+  </si>
+  <si>
+    <t>http://typescriptlang.org/</t>
+  </si>
+  <si>
+    <t>zone.js</t>
+  </si>
+  <si>
+    <t>0.8.16</t>
+  </si>
+  <si>
+    <t>https://registry.npmjs.org/zone.js/-/zone.js-0.8.16.tgz</t>
+  </si>
+  <si>
+    <t>https://github.com/angular/zone.js#readme</t>
+  </si>
+  <si>
+    <t>Angular Animations</t>
+  </si>
+  <si>
+    <t>@angular/animations</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>angular-animations-4.3.5.zip</t>
+  </si>
+  <si>
+    <t>.circleci/
 .github/
 aio/
 docs/
@@ -2369,33 +2373,35 @@
 WORKSPACE</t>
   </si>
   <si>
-    <t xml:space="preserve">https://registry.npmjs.org/@angular/animations/-/animations-4.3.5.tgz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The angular project is a frontend-framework based on typescript.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Links in the IP process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/eclipse/winery/wiki/IP-process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPDX License Identifiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://spdx.org/spdx-specification-21-web-version#h.jxpfx0ykyb60</t>
+    <t>https://registry.npmjs.org/@angular/animations/-/animations-4.3.5.tgz</t>
+  </si>
+  <si>
+    <t>The angular project is a frontend-framework based on typescript.</t>
+  </si>
+  <si>
+    <t>Links in the IP process</t>
+  </si>
+  <si>
+    <t>https://github.com/eclipse/winery/wiki/IP-process</t>
+  </si>
+  <si>
+    <t>SPDX License Identifiers</t>
+  </si>
+  <si>
+    <t>https://spdx.org/spdx-specification-21-web-version#h.jxpfx0ykyb60</t>
+  </si>
+  <si>
+    <t>approved</t>
+  </si>
+  <si>
+    <t>Oracle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2404,22 +2410,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2427,7 +2418,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -2450,7 +2441,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2458,109 +2449,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="8" customBuiltin="false" name="*unknown*" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2619,51 +2563,324 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMK1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK1048502"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" xSplit="0" ySplit="1"/>
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="T149" activeCellId="0" pane="bottomLeft" sqref="T149"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="10.85" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="18.28" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="34.7" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="10.85" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="24.18" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="39.3" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="2" width="7.85" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="2" width="25.42" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="10" customWidth="true" hidden="false" style="1" width="18.28" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="3" width="15.43" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="4" width="51.57" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="5" width="28.42" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="6" width="28.42" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="50.28" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="6" width="46.28" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="6" width="24.0" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="6" width="30.0" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="51.0" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="20" customWidth="true" hidden="false" style="7" width="50.57" collapsed="true" outlineLevel="0"/>
-    <col min="21" max="21" customWidth="true" hidden="false" style="1" width="26.42" collapsed="true" outlineLevel="0"/>
-    <col min="22" max="1023" customWidth="true" hidden="false" style="1" width="9.14" collapsed="true" outlineLevel="0"/>
-    <col min="1024" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="18.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="51.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="50.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="46.28515625" style="6" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="24" style="6" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="30" style="6" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="51" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="50.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="26.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="1023" width="9.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1024" max="1025" width="9.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1" s="8">
+    <row r="1" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2727,16 +2944,16 @@
       <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="2">
+      <c r="AMJ1"/>
+    </row>
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2767,14 +2984,14 @@
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="3">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2808,14 +3025,14 @@
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="4">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2846,14 +3063,14 @@
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="5">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2884,14 +3101,14 @@
         <v>54</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="6">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2922,14 +3139,14 @@
         <v>59</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="7">
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2969,14 +3186,14 @@
         <v>71</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="8">
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -3010,14 +3227,14 @@
         <v>81</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="9">
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3048,14 +3265,14 @@
         <v>80</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="10">
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -3089,14 +3306,14 @@
         <v>93</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="11">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -3127,14 +3344,14 @@
         <v>102</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="12">
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3168,14 +3385,14 @@
         <v>110</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="13">
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -3206,14 +3423,14 @@
         <v>101</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="14">
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -3244,14 +3461,14 @@
         <v>124</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="15">
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -3285,14 +3502,14 @@
         <v>135</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="16">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -3323,14 +3540,14 @@
         <v>134</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="17">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -3361,14 +3578,14 @@
         <v>151</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="18">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -3399,14 +3616,14 @@
         <v>157</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="19">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -3421,6 +3638,12 @@
       <c r="H19" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="I19" s="1">
+        <v>15237</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>770</v>
+      </c>
       <c r="N19" s="6" t="s">
         <v>161</v>
       </c>
@@ -3437,14 +3660,14 @@
         <v>164</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="20">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -3459,6 +3682,12 @@
       <c r="H20" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="I20" s="1">
+        <v>13871</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>769</v>
+      </c>
       <c r="N20" s="6" t="s">
         <v>167</v>
       </c>
@@ -3475,14 +3704,14 @@
         <v>170</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="21">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -3513,14 +3742,14 @@
         <v>177</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="22">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -3542,14 +3771,14 @@
         <v>184</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -3571,14 +3800,14 @@
         <v>188</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="24">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -3606,14 +3835,14 @@
         <v>193</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -3635,14 +3864,14 @@
         <v>199</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="26">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -3664,14 +3893,14 @@
         <v>204</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="27">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -3702,14 +3931,14 @@
         <v>211</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="28">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -3743,14 +3972,14 @@
         <v>217</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="29">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -3784,14 +4013,14 @@
         <v>224</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="30">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -3813,14 +4042,14 @@
         <v>228</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="31">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -3848,14 +4077,14 @@
         <v>235</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="32">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -3877,14 +4106,14 @@
         <v>240</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="33">
+    <row r="33" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -3918,14 +4147,14 @@
         <v>245</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="34">
+    <row r="34" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -3959,7 +4188,7 @@
         <v>252</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="35" s="1">
+    <row r="35" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -3981,7 +4210,7 @@
       <c r="H35" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I35" s="1" t="n">
+      <c r="I35" s="1">
         <v>14581</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -4008,16 +4237,16 @@
       <c r="V35" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AMJ35" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="36">
+      <c r="AMJ35"/>
+    </row>
+    <row r="36" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -4057,14 +4286,14 @@
         <v>273</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="37">
+    <row r="37" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -4101,14 +4330,14 @@
         <v>70</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="38">
+    <row r="38" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -4142,14 +4371,14 @@
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="39">
+    <row r="39" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -4180,14 +4409,14 @@
         <v>68</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="40">
+    <row r="40" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -4227,11 +4456,11 @@
         <v>272</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="41">
+    <row r="41" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -4259,11 +4488,11 @@
         <v>300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="42">
+    <row r="42" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>23</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -4300,11 +4529,11 @@
         <v>307</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="43">
+    <row r="43" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -4335,11 +4564,11 @@
         <v>314</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="44">
+    <row r="44" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -4373,14 +4602,14 @@
         <v>320</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="45">
+    <row r="45" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -4408,14 +4637,14 @@
         <v>326</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="46">
+    <row r="46" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -4446,14 +4675,14 @@
         <v>334</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="47">
+    <row r="47" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -4484,14 +4713,14 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="48">
+    <row r="48" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -4513,14 +4742,14 @@
         <v>348</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="49">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" t="s">
         <v>23</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -4542,14 +4771,14 @@
         <v>353</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="50">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" t="s">
         <v>23</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -4571,14 +4800,14 @@
         <v>356</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="51">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" t="s">
         <v>23</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -4609,14 +4838,14 @@
         <v>216</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="52">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" t="s">
         <v>23</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -4650,14 +4879,14 @@
         <v>370</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="53">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -4688,14 +4917,14 @@
         <v>377</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="54">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" t="s">
         <v>23</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -4726,14 +4955,14 @@
         <v>223</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="55">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -4767,14 +4996,14 @@
         <v>391</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="56">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -4805,14 +5034,14 @@
         <v>399</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="57">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -4843,14 +5072,14 @@
         <v>333</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="58">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" t="s">
         <v>23</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -4884,14 +5113,14 @@
         <v>413</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="59">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" t="s">
         <v>23</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -4919,14 +5148,14 @@
         <v>422</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="60">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" t="s">
         <v>23</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4948,14 +5177,14 @@
         <v>428</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="61">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" t="s">
         <v>23</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -4977,14 +5206,14 @@
         <v>432</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="62">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" t="s">
         <v>23</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -5015,15 +5244,15 @@
         <v>440</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="63">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C63" s="1" t="str">
-        <f aca="false">"JGit"</f>
+        <f>"JGit"</f>
         <v>JGit</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" t="s">
         <v>23</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -5045,15 +5274,15 @@
         <v>445</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="64">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C64" s="1" t="str">
-        <f aca="false">"JGit"</f>
+        <f>"JGit"</f>
         <v>JGit</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" t="s">
         <v>23</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -5075,14 +5304,14 @@
         <v>448</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="65">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" t="s">
         <v>23</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -5110,14 +5339,14 @@
         <v>455</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="66">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" t="s">
         <v>23</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -5148,14 +5377,14 @@
         <v>463</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="67">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" t="s">
         <v>23</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -5186,14 +5415,14 @@
         <v>469</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="68">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" t="s">
         <v>23</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -5224,14 +5453,14 @@
         <v>475</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="69">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" t="s">
         <v>23</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -5262,14 +5491,14 @@
         <v>480</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="70">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" t="s">
         <v>23</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -5297,14 +5526,14 @@
         <v>485</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="71">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" t="s">
         <v>23</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -5335,14 +5564,14 @@
         <v>490</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="72">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" t="s">
         <v>23</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -5373,14 +5602,14 @@
         <v>495</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="73">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" t="s">
         <v>23</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -5411,14 +5640,14 @@
         <v>502</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="74">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" t="s">
         <v>23</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -5449,14 +5678,14 @@
         <v>508</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="75">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" t="s">
         <v>23</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -5487,14 +5716,14 @@
         <v>514</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="76">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" t="s">
         <v>23</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -5525,14 +5754,14 @@
         <v>520</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="77">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" t="s">
         <v>23</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -5563,14 +5792,14 @@
         <v>525</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="78">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" t="s">
         <v>23</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -5601,14 +5830,14 @@
         <v>533</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="79">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" t="s">
         <v>23</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -5642,14 +5871,14 @@
         <v>539</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="80">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" t="s">
         <v>23</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -5680,15 +5909,15 @@
         <v>546</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="81">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C81" s="1" t="str">
-        <f aca="false">"JGraph Core"</f>
+        <f>"JGraph Core"</f>
         <v>JGraph Core</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" t="s">
         <v>23</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -5713,11 +5942,11 @@
         <v>553</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="82">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" t="s">
         <v>23</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -5748,11 +5977,11 @@
         <v>559</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="83">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" t="s">
         <v>23</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -5789,14 +6018,14 @@
         <v>545</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="84">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" t="s">
         <v>23</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -5827,14 +6056,14 @@
         <v>575</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="85">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" t="s">
         <v>23</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -5865,14 +6094,14 @@
         <v>580</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="86">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" t="s">
         <v>23</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -5903,14 +6132,14 @@
         <v>584</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="87">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" t="s">
         <v>23</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -5944,14 +6173,14 @@
         <v>587</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="88">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" t="s">
         <v>23</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -5982,11 +6211,11 @@
         <v>592</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="89">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" t="s">
         <v>23</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -6014,14 +6243,14 @@
         <v>598</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="90">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" t="s">
         <v>23</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -6043,14 +6272,14 @@
         <v>604</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="91">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" t="s">
         <v>23</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -6081,14 +6310,14 @@
         <v>612</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="92">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" t="s">
         <v>23</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -6119,14 +6348,14 @@
         <v>618</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="93">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" t="s">
         <v>620</v>
       </c>
       <c r="E93"/>
@@ -6138,11 +6367,11 @@
         <v>622</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="94">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" t="s">
         <v>620</v>
       </c>
       <c r="E94"/>
@@ -6154,14 +6383,14 @@
         <v>622</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="95">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" t="s">
         <v>620</v>
       </c>
       <c r="E95"/>
@@ -6187,14 +6416,14 @@
         <v>397</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="96">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" t="s">
         <v>620</v>
       </c>
       <c r="E96"/>
@@ -6206,11 +6435,11 @@
         <v>622</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="97">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" t="s">
         <v>620</v>
       </c>
       <c r="E97"/>
@@ -6222,11 +6451,11 @@
         <v>622</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="98">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" t="s">
         <v>620</v>
       </c>
       <c r="E98"/>
@@ -6238,14 +6467,14 @@
         <v>622</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="99">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" t="s">
         <v>620</v>
       </c>
       <c r="E99"/>
@@ -6271,11 +6500,11 @@
         <v>397</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="100">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" t="s">
         <v>620</v>
       </c>
       <c r="E100"/>
@@ -6287,14 +6516,14 @@
         <v>622</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="101">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" t="s">
         <v>620</v>
       </c>
       <c r="E101"/>
@@ -6320,11 +6549,11 @@
         <v>397</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="102">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" t="s">
         <v>620</v>
       </c>
       <c r="E102"/>
@@ -6336,14 +6565,14 @@
         <v>622</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="103">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" t="s">
         <v>620</v>
       </c>
       <c r="E103"/>
@@ -6369,14 +6598,14 @@
         <v>397</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="104">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" t="s">
         <v>620</v>
       </c>
       <c r="E104"/>
@@ -6402,11 +6631,11 @@
         <v>397</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="105">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" t="s">
         <v>620</v>
       </c>
       <c r="E105"/>
@@ -6418,14 +6647,14 @@
         <v>622</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="106">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" t="s">
         <v>620</v>
       </c>
       <c r="E106"/>
@@ -6451,14 +6680,14 @@
         <v>397</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="107">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" t="s">
         <v>620</v>
       </c>
       <c r="E107"/>
@@ -6484,11 +6713,11 @@
         <v>397</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="108">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" t="s">
         <v>620</v>
       </c>
       <c r="E108"/>
@@ -6500,14 +6729,14 @@
         <v>622</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="109">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" t="s">
         <v>620</v>
       </c>
       <c r="E109"/>
@@ -6519,11 +6748,11 @@
         <v>622</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="110">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" t="s">
         <v>620</v>
       </c>
       <c r="E110"/>
@@ -6535,14 +6764,14 @@
         <v>622</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="111">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" t="s">
         <v>620</v>
       </c>
       <c r="E111"/>
@@ -6568,11 +6797,11 @@
         <v>397</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="112">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" t="s">
         <v>620</v>
       </c>
       <c r="E112"/>
@@ -6584,11 +6813,11 @@
         <v>622</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="113">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" t="s">
         <v>620</v>
       </c>
       <c r="E113"/>
@@ -6600,14 +6829,14 @@
         <v>622</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="114">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" t="s">
         <v>620</v>
       </c>
       <c r="E114"/>
@@ -6630,11 +6859,11 @@
         <v>670</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="115">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" t="s">
         <v>620</v>
       </c>
       <c r="E115"/>
@@ -6660,11 +6889,11 @@
         <v>675</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="116">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" t="s">
         <v>620</v>
       </c>
       <c r="E116"/>
@@ -6690,11 +6919,11 @@
         <v>680</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="117">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" t="s">
         <v>620</v>
       </c>
       <c r="E117"/>
@@ -6717,14 +6946,14 @@
         <v>685</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="118">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" t="s">
         <v>620</v>
       </c>
       <c r="E118"/>
@@ -6750,14 +6979,14 @@
         <v>691</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="119">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" t="s">
         <v>620</v>
       </c>
       <c r="E119"/>
@@ -6780,14 +7009,14 @@
         <v>397</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="120">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" t="s">
         <v>620</v>
       </c>
       <c r="E120"/>
@@ -6813,14 +7042,14 @@
         <v>702</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="121">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" t="s">
         <v>620</v>
       </c>
       <c r="E121"/>
@@ -6843,14 +7072,14 @@
         <v>397</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="122">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" t="s">
         <v>620</v>
       </c>
       <c r="E122"/>
@@ -6873,14 +7102,14 @@
         <v>397</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="123">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" t="s">
         <v>620</v>
       </c>
       <c r="E123"/>
@@ -6903,15 +7132,15 @@
         <v>717</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="124">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C124" s="1" t="str">
-        <f aca="false">"NGx Bootstrap"</f>
+        <f>"NGx Bootstrap"</f>
         <v>NGx Bootstrap</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" t="s">
         <v>620</v>
       </c>
       <c r="E124"/>
@@ -6937,15 +7166,15 @@
         <v>397</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="125">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C125" s="1" t="str">
-        <f aca="false">"NGx Chips"</f>
+        <f>"NGx Chips"</f>
         <v>NGx Chips</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" t="s">
         <v>620</v>
       </c>
       <c r="E125"/>
@@ -6971,15 +7200,15 @@
         <v>397</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="126">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C126" s="1" t="str">
-        <f aca="false">"NGx Pagination"</f>
+        <f>"NGx Pagination"</f>
         <v>NGx Pagination</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" t="s">
         <v>620</v>
       </c>
       <c r="E126"/>
@@ -7002,11 +7231,11 @@
         <v>397</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="127">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" t="s">
         <v>620</v>
       </c>
       <c r="E127"/>
@@ -7032,14 +7261,14 @@
         <v>734</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="128">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="D128" t="s">
         <v>620</v>
       </c>
       <c r="E128"/>
@@ -7068,11 +7297,11 @@
         <v>741</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="129">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" t="s">
         <v>620</v>
       </c>
       <c r="E129"/>
@@ -7095,11 +7324,11 @@
         <v>397</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="130">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="D130" t="s">
         <v>620</v>
       </c>
       <c r="E130"/>
@@ -7125,11 +7354,11 @@
         <v>736</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="131">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="D131" t="s">
         <v>620</v>
       </c>
       <c r="E131"/>
@@ -7155,11 +7384,11 @@
         <v>635</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="132">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="D132" t="s">
         <v>620</v>
       </c>
       <c r="E132"/>
@@ -7185,7 +7414,7 @@
         <v>741</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="133">
+    <row r="133" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>21</v>
       </c>
@@ -7234,129 +7463,46 @@
         <v>764</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048502">
-      <c r="D1048502"/>
+    <row r="1048502" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E1048502"/>
       <c r="F1048502"/>
       <c r="G1048502"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048503"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048504"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048505"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048506"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048507"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048508"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048509"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048510"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048511"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048512"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048513"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048514"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048515"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048516"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048517"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048518"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048519"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048520"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048521"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048522"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048523"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048524"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048525"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048526"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048527"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048528"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048529"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048530"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048531"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048532"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048533"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048534"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048535"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048536"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048537"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048538"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048539"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048540"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048541"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048542"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048543"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048544"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048545"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048546"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048547"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048548"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048549"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048550"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048551"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048552"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048553"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048554"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048555"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048556"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048557"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048558"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048559"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048560"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048561"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048562"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048563"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048564"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048565"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048566"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048567"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048568"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048569"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048570"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048571"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048572"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048573"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048574"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048575"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048576"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://registry.npmjs.org/@angular/animations/-/animations-4.3.5.tgz" r:id="rId1" ref="O133"/>
-    <hyperlink display="https://github.com/angular/angular#readme" r:id="rId2" ref="P133"/>
+    <hyperlink ref="O133" r:id="rId1"/>
+    <hyperlink ref="P133" r:id="rId2"/>
   </hyperlinks>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
-      <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="37.57" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="62.71" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="10.53" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="62.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="1025" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>765</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>766</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>767</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -7365,15 +7511,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://github.com/eclipse/winery/wiki/IP-process" r:id="rId1" ref="B1"/>
-    <hyperlink display="https://spdx.org/spdx-specification-21-web-version#h.jxpfx0ykyb60" location="h.jxpfx0ykyb60" r:id="rId2" ref="B2"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2" location="h.jxpfx0ykyb60"/>
   </hyperlinks>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="0.7875" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>